--- a/Bibsam_tidskriftslistor/scifree_data_taylorfrancis.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_taylorfrancis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16892" uniqueCount="9545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16880" uniqueCount="9539">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -27243,12 +27243,6 @@
     <t>Tapuya: Latin American Science, Technology and Society</t>
   </si>
   <si>
-    <t>Tellus A: Dynamic Meteorology and Oceanography</t>
-  </si>
-  <si>
-    <t>Tellus B: Chemical and Physical Meteorology</t>
-  </si>
-  <si>
     <t>The Educational and Developmental Psychologist</t>
   </si>
   <si>
@@ -27915,12 +27909,6 @@
     <t>2572-9861</t>
   </si>
   <si>
-    <t>1600-0870</t>
-  </si>
-  <si>
-    <t>1600-0889</t>
-  </si>
-  <si>
     <t>2475-0263</t>
   </si>
   <si>
@@ -28627,12 +28615,6 @@
   </si>
   <si>
     <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=TTAP</t>
-  </si>
-  <si>
-    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ZELA</t>
-  </si>
-  <si>
-    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ZELB</t>
   </si>
   <si>
     <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ITAM</t>
@@ -28715,7 +28697,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -28757,32 +28739,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -28813,8 +28769,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2452" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:G2452"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2450" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G2450"/>
   <sortState ref="A2:G2452">
     <sortCondition ref="D1:D2452"/>
   </sortState>
@@ -29094,9 +29050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2452"/>
+  <dimension ref="A1:G2450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2231" sqref="D2231"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29330,10 +29288,10 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>9327</v>
+        <v>9323</v>
       </c>
       <c r="F10" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G10" t="s">
         <v>8826</v>
@@ -29502,16 +29460,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9093</v>
+        <v>9091</v>
       </c>
       <c r="D18" t="s">
         <v>8892</v>
       </c>
       <c r="E18" t="s">
-        <v>9328</v>
+        <v>9324</v>
       </c>
       <c r="F18" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G18" t="s">
         <v>8826</v>
@@ -29545,16 +29503,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>9199</v>
+        <v>9197</v>
       </c>
       <c r="D20" t="s">
         <v>8893</v>
       </c>
       <c r="E20" t="s">
-        <v>9329</v>
+        <v>9325</v>
       </c>
       <c r="F20" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G20" t="s">
         <v>8826</v>
@@ -29657,16 +29615,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>9094</v>
+        <v>9092</v>
       </c>
       <c r="D25" t="s">
         <v>8894</v>
       </c>
       <c r="E25" t="s">
-        <v>9330</v>
+        <v>9326</v>
       </c>
       <c r="F25" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G25" t="s">
         <v>8826</v>
@@ -29746,16 +29704,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>9200</v>
+        <v>9198</v>
       </c>
       <c r="D29" t="s">
-        <v>9307</v>
+        <v>9303</v>
       </c>
       <c r="E29" t="s">
-        <v>9331</v>
+        <v>9327</v>
       </c>
       <c r="F29" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G29" t="s">
         <v>8826</v>
@@ -29881,16 +29839,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>9201</v>
+        <v>9199</v>
       </c>
       <c r="D35" t="s">
         <v>8895</v>
       </c>
       <c r="E35" t="s">
-        <v>9332</v>
+        <v>9328</v>
       </c>
       <c r="F35" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G35" t="s">
         <v>8826</v>
@@ -30568,16 +30526,16 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>9095</v>
+        <v>9093</v>
       </c>
       <c r="D65" t="s">
         <v>8896</v>
       </c>
       <c r="E65" t="s">
-        <v>9333</v>
+        <v>9329</v>
       </c>
       <c r="F65" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G65" t="s">
         <v>8826</v>
@@ -30634,16 +30592,16 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>9096</v>
+        <v>9094</v>
       </c>
       <c r="D68" t="s">
         <v>8897</v>
       </c>
       <c r="E68" t="s">
-        <v>9334</v>
+        <v>9330</v>
       </c>
       <c r="F68" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G68" t="s">
         <v>8826</v>
@@ -30654,16 +30612,16 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>9202</v>
+        <v>9200</v>
       </c>
       <c r="D69" t="s">
         <v>8898</v>
       </c>
       <c r="E69" t="s">
-        <v>9335</v>
+        <v>9331</v>
       </c>
       <c r="F69" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G69" t="s">
         <v>8826</v>
@@ -30674,16 +30632,16 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>9097</v>
+        <v>9095</v>
       </c>
       <c r="D70" t="s">
         <v>8899</v>
       </c>
       <c r="E70" t="s">
-        <v>9336</v>
+        <v>9332</v>
       </c>
       <c r="F70" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G70" t="s">
         <v>8826</v>
@@ -31105,16 +31063,16 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>9098</v>
+        <v>9096</v>
       </c>
       <c r="D89" t="s">
         <v>8900</v>
       </c>
       <c r="E89" t="s">
-        <v>9337</v>
+        <v>9333</v>
       </c>
       <c r="F89" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G89" t="s">
         <v>8826</v>
@@ -31148,16 +31106,16 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>9099</v>
+        <v>9097</v>
       </c>
       <c r="D91" t="s">
         <v>8901</v>
       </c>
       <c r="E91" t="s">
-        <v>9338</v>
+        <v>9334</v>
       </c>
       <c r="F91" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G91" t="s">
         <v>8826</v>
@@ -31214,16 +31172,16 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>9100</v>
+        <v>9098</v>
       </c>
       <c r="D94" t="s">
         <v>8902</v>
       </c>
       <c r="E94" t="s">
-        <v>9339</v>
+        <v>9335</v>
       </c>
       <c r="F94" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G94" t="s">
         <v>8826</v>
@@ -31519,10 +31477,10 @@
         <v>380</v>
       </c>
       <c r="E107" t="s">
-        <v>9340</v>
+        <v>9336</v>
       </c>
       <c r="F107" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G107" t="s">
         <v>8826</v>
@@ -31763,16 +31721,16 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>9203</v>
+        <v>9201</v>
       </c>
       <c r="D118" t="s">
         <v>8903</v>
       </c>
       <c r="E118" t="s">
-        <v>9341</v>
+        <v>9337</v>
       </c>
       <c r="F118" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G118" t="s">
         <v>8826</v>
@@ -31852,16 +31810,16 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>9204</v>
+        <v>9202</v>
       </c>
       <c r="D122" t="s">
         <v>8904</v>
       </c>
       <c r="E122" t="s">
-        <v>9342</v>
+        <v>9338</v>
       </c>
       <c r="F122" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G122" t="s">
         <v>8826</v>
@@ -31872,16 +31830,16 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>9205</v>
+        <v>9203</v>
       </c>
       <c r="D123" t="s">
         <v>8905</v>
       </c>
       <c r="E123" t="s">
-        <v>9343</v>
+        <v>9339</v>
       </c>
       <c r="F123" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G123" t="s">
         <v>8826</v>
@@ -32214,16 +32172,16 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>9101</v>
+        <v>9099</v>
       </c>
       <c r="D138" t="s">
         <v>8906</v>
       </c>
       <c r="E138" t="s">
-        <v>9344</v>
+        <v>9340</v>
       </c>
       <c r="F138" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G138" t="s">
         <v>8826</v>
@@ -32392,16 +32350,16 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>9102</v>
+        <v>9100</v>
       </c>
       <c r="D146" t="s">
         <v>8907</v>
       </c>
       <c r="E146" t="s">
-        <v>9345</v>
+        <v>9341</v>
       </c>
       <c r="F146" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G146" t="s">
         <v>8826</v>
@@ -32826,10 +32784,10 @@
         <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="D165" t="s">
-        <v>9305</v>
+        <v>9301</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
@@ -33832,16 +33790,16 @@
         <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="D209" t="s">
         <v>8908</v>
       </c>
       <c r="E209" t="s">
-        <v>9346</v>
+        <v>9342</v>
       </c>
       <c r="F209" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G209" t="s">
         <v>8826</v>
@@ -33898,7 +33856,7 @@
         <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>9105</v>
+        <v>9103</v>
       </c>
       <c r="D212" t="s">
         <v>8909</v>
@@ -33961,16 +33919,16 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>9106</v>
+        <v>9104</v>
       </c>
       <c r="D215" t="s">
         <v>8910</v>
       </c>
       <c r="E215" t="s">
-        <v>9347</v>
+        <v>9343</v>
       </c>
       <c r="F215" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G215" t="s">
         <v>8826</v>
@@ -34004,16 +33962,16 @@
         <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>9206</v>
+        <v>9204</v>
       </c>
       <c r="D217" t="s">
         <v>8911</v>
       </c>
       <c r="E217" t="s">
-        <v>9348</v>
+        <v>9344</v>
       </c>
       <c r="F217" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G217" t="s">
         <v>8826</v>
@@ -34070,16 +34028,16 @@
         <v>7</v>
       </c>
       <c r="B220" t="s">
-        <v>9107</v>
+        <v>9105</v>
       </c>
       <c r="D220" t="s">
         <v>8912</v>
       </c>
       <c r="E220" t="s">
-        <v>9349</v>
+        <v>9345</v>
       </c>
       <c r="F220" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G220" t="s">
         <v>8826</v>
@@ -34297,16 +34255,16 @@
         <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>9108</v>
+        <v>9106</v>
       </c>
       <c r="D230" t="s">
         <v>8913</v>
       </c>
       <c r="E230" t="s">
-        <v>9350</v>
+        <v>9346</v>
       </c>
       <c r="F230" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G230" t="s">
         <v>8826</v>
@@ -34409,7 +34367,7 @@
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>9109</v>
+        <v>9107</v>
       </c>
       <c r="D235" t="s">
         <v>8914</v>
@@ -34449,16 +34407,16 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>9110</v>
+        <v>9108</v>
       </c>
       <c r="D237" t="s">
         <v>8915</v>
       </c>
       <c r="E237" t="s">
-        <v>9351</v>
+        <v>9347</v>
       </c>
       <c r="F237" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G237" t="s">
         <v>8826</v>
@@ -34584,16 +34542,16 @@
         <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>9207</v>
+        <v>9205</v>
       </c>
       <c r="D243" t="s">
         <v>8916</v>
       </c>
       <c r="E243" t="s">
-        <v>9352</v>
+        <v>9348</v>
       </c>
       <c r="F243" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G243" t="s">
         <v>8826</v>
@@ -34673,16 +34631,16 @@
         <v>7</v>
       </c>
       <c r="B247" t="s">
-        <v>9111</v>
+        <v>9109</v>
       </c>
       <c r="D247" t="s">
-        <v>9308</v>
+        <v>9304</v>
       </c>
       <c r="E247" t="s">
-        <v>9353</v>
+        <v>9349</v>
       </c>
       <c r="F247" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G247" t="s">
         <v>8826</v>
@@ -34771,10 +34729,10 @@
         <v>890</v>
       </c>
       <c r="E251" t="s">
-        <v>9354</v>
+        <v>9350</v>
       </c>
       <c r="F251" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G251" t="s">
         <v>8826</v>
@@ -35061,16 +35019,16 @@
         <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>9112</v>
+        <v>9110</v>
       </c>
       <c r="D264" t="s">
         <v>8917</v>
       </c>
       <c r="E264" t="s">
-        <v>9355</v>
+        <v>9351</v>
       </c>
       <c r="F264" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G264" t="s">
         <v>8826</v>
@@ -35426,16 +35384,16 @@
         <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>9208</v>
+        <v>9206</v>
       </c>
       <c r="D280" t="s">
         <v>8918</v>
       </c>
       <c r="E280" t="s">
-        <v>9356</v>
+        <v>9352</v>
       </c>
       <c r="F280" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G280" t="s">
         <v>8826</v>
@@ -35662,10 +35620,10 @@
         <v>1033</v>
       </c>
       <c r="E290" t="s">
-        <v>9357</v>
+        <v>9353</v>
       </c>
       <c r="F290" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G290" t="s">
         <v>8826</v>
@@ -35722,16 +35680,16 @@
         <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>9209</v>
+        <v>9207</v>
       </c>
       <c r="D293" t="s">
         <v>8919</v>
       </c>
       <c r="E293" t="s">
-        <v>9358</v>
+        <v>9354</v>
       </c>
       <c r="F293" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G293" t="s">
         <v>8826</v>
@@ -35834,16 +35792,16 @@
         <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>9113</v>
+        <v>9111</v>
       </c>
       <c r="D298" t="s">
-        <v>9309</v>
+        <v>9305</v>
       </c>
       <c r="E298" t="s">
-        <v>9359</v>
+        <v>9355</v>
       </c>
       <c r="F298" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G298" t="s">
         <v>8826</v>
@@ -35992,16 +35950,16 @@
         <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>9114</v>
+        <v>9112</v>
       </c>
       <c r="D305" t="s">
         <v>8920</v>
       </c>
       <c r="E305" t="s">
-        <v>9360</v>
+        <v>9356</v>
       </c>
       <c r="F305" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G305" t="s">
         <v>8826</v>
@@ -36104,16 +36062,16 @@
         <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>9210</v>
+        <v>9208</v>
       </c>
       <c r="D310" t="s">
         <v>8921</v>
       </c>
       <c r="E310" t="s">
-        <v>9361</v>
+        <v>9357</v>
       </c>
       <c r="F310" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G310" t="s">
         <v>8826</v>
@@ -36285,16 +36243,16 @@
         <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>9115</v>
+        <v>9113</v>
       </c>
       <c r="D318" t="s">
         <v>8922</v>
       </c>
       <c r="E318" t="s">
-        <v>9362</v>
+        <v>9358</v>
       </c>
       <c r="F318" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G318" t="s">
         <v>8826</v>
@@ -36443,16 +36401,16 @@
         <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>9116</v>
+        <v>9114</v>
       </c>
       <c r="D325" t="s">
         <v>8923</v>
       </c>
       <c r="E325" t="s">
-        <v>9363</v>
+        <v>9359</v>
       </c>
       <c r="F325" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G325" t="s">
         <v>8826</v>
@@ -36716,7 +36674,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>9117</v>
+        <v>9115</v>
       </c>
       <c r="D337" t="s">
         <v>8924</v>
@@ -36779,7 +36737,7 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>9118</v>
+        <v>9116</v>
       </c>
       <c r="D340" t="s">
         <v>8925</v>
@@ -36934,16 +36892,16 @@
         <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>9211</v>
+        <v>9209</v>
       </c>
       <c r="D347" t="s">
-        <v>9310</v>
+        <v>9306</v>
       </c>
       <c r="E347" t="s">
-        <v>9364</v>
+        <v>9360</v>
       </c>
       <c r="F347" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G347" t="s">
         <v>8826</v>
@@ -36954,16 +36912,16 @@
         <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>9212</v>
+        <v>9210</v>
       </c>
       <c r="D348" t="s">
-        <v>9311</v>
+        <v>9307</v>
       </c>
       <c r="E348" t="s">
-        <v>9365</v>
+        <v>9361</v>
       </c>
       <c r="F348" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G348" t="s">
         <v>8826</v>
@@ -36974,16 +36932,16 @@
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>9213</v>
+        <v>9211</v>
       </c>
       <c r="D349" t="s">
-        <v>9312</v>
+        <v>9308</v>
       </c>
       <c r="E349" t="s">
-        <v>9366</v>
+        <v>9362</v>
       </c>
       <c r="F349" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G349" t="s">
         <v>8826</v>
@@ -36994,16 +36952,16 @@
         <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>9214</v>
+        <v>9212</v>
       </c>
       <c r="D350" t="s">
         <v>8926</v>
       </c>
       <c r="E350" t="s">
-        <v>9367</v>
+        <v>9363</v>
       </c>
       <c r="F350" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G350" t="s">
         <v>8826</v>
@@ -37014,16 +36972,16 @@
         <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>9215</v>
+        <v>9213</v>
       </c>
       <c r="D351" t="s">
         <v>8927</v>
       </c>
       <c r="E351" t="s">
-        <v>9368</v>
+        <v>9364</v>
       </c>
       <c r="F351" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G351" t="s">
         <v>8826</v>
@@ -37034,16 +36992,16 @@
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>9216</v>
+        <v>9214</v>
       </c>
       <c r="D352" t="s">
-        <v>9313</v>
+        <v>9309</v>
       </c>
       <c r="E352" t="s">
-        <v>9369</v>
+        <v>9365</v>
       </c>
       <c r="F352" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G352" t="s">
         <v>8826</v>
@@ -37054,16 +37012,16 @@
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>9217</v>
+        <v>9215</v>
       </c>
       <c r="D353" t="s">
         <v>8928</v>
       </c>
       <c r="E353" t="s">
-        <v>9370</v>
+        <v>9366</v>
       </c>
       <c r="F353" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G353" t="s">
         <v>8826</v>
@@ -37074,16 +37032,16 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>9218</v>
+        <v>9216</v>
       </c>
       <c r="D354" t="s">
         <v>8929</v>
       </c>
       <c r="E354" t="s">
-        <v>9371</v>
+        <v>9367</v>
       </c>
       <c r="F354" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G354" t="s">
         <v>8826</v>
@@ -37094,16 +37052,16 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>9219</v>
+        <v>9217</v>
       </c>
       <c r="D355" t="s">
         <v>8930</v>
       </c>
       <c r="E355" t="s">
-        <v>9372</v>
+        <v>9368</v>
       </c>
       <c r="F355" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G355" t="s">
         <v>8826</v>
@@ -37939,16 +37897,16 @@
         <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>9220</v>
+        <v>9218</v>
       </c>
       <c r="D392" t="s">
-        <v>9314</v>
+        <v>9310</v>
       </c>
       <c r="E392" t="s">
-        <v>9373</v>
+        <v>9369</v>
       </c>
       <c r="F392" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G392" t="s">
         <v>8826</v>
@@ -38120,16 +38078,16 @@
         <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>9221</v>
+        <v>9219</v>
       </c>
       <c r="D400" t="s">
-        <v>9315</v>
+        <v>9311</v>
       </c>
       <c r="E400" t="s">
-        <v>9374</v>
+        <v>9370</v>
       </c>
       <c r="F400" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G400" t="s">
         <v>8826</v>
@@ -38324,16 +38282,16 @@
         <v>7</v>
       </c>
       <c r="B409" t="s">
-        <v>9222</v>
+        <v>9220</v>
       </c>
       <c r="D409" t="s">
         <v>8931</v>
       </c>
       <c r="E409" t="s">
-        <v>9375</v>
+        <v>9371</v>
       </c>
       <c r="F409" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G409" t="s">
         <v>8826</v>
@@ -38468,10 +38426,10 @@
         <v>1447</v>
       </c>
       <c r="E415" t="s">
-        <v>9376</v>
+        <v>9372</v>
       </c>
       <c r="F415" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G415" t="s">
         <v>8826</v>
@@ -38951,10 +38909,10 @@
         <v>1530</v>
       </c>
       <c r="E436" t="s">
-        <v>9377</v>
+        <v>9373</v>
       </c>
       <c r="F436" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G436" t="s">
         <v>8826</v>
@@ -38965,16 +38923,16 @@
         <v>7</v>
       </c>
       <c r="B437" t="s">
-        <v>9087</v>
+        <v>9085</v>
       </c>
       <c r="D437" t="s">
         <v>8932</v>
       </c>
       <c r="E437" t="s">
-        <v>9378</v>
+        <v>9374</v>
       </c>
       <c r="F437" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G437" t="s">
         <v>8826</v>
@@ -40316,16 +40274,16 @@
         <v>7</v>
       </c>
       <c r="B496" t="s">
-        <v>9119</v>
+        <v>9117</v>
       </c>
       <c r="D496" t="s">
         <v>8933</v>
       </c>
       <c r="E496" t="s">
-        <v>9379</v>
+        <v>9375</v>
       </c>
       <c r="F496" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G496" t="s">
         <v>8826</v>
@@ -40382,16 +40340,16 @@
         <v>7</v>
       </c>
       <c r="B499" t="s">
-        <v>9223</v>
+        <v>9221</v>
       </c>
       <c r="D499" t="s">
         <v>8934</v>
       </c>
       <c r="E499" t="s">
-        <v>9380</v>
+        <v>9376</v>
       </c>
       <c r="F499" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G499" t="s">
         <v>8826</v>
@@ -40632,16 +40590,16 @@
         <v>7</v>
       </c>
       <c r="B510" t="s">
-        <v>9224</v>
+        <v>9222</v>
       </c>
       <c r="D510" t="s">
         <v>8935</v>
       </c>
       <c r="E510" t="s">
-        <v>9381</v>
+        <v>9377</v>
       </c>
       <c r="F510" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G510" t="s">
         <v>8826</v>
@@ -40698,16 +40656,16 @@
         <v>7</v>
       </c>
       <c r="B513" t="s">
-        <v>9225</v>
+        <v>9223</v>
       </c>
       <c r="D513" t="s">
         <v>8936</v>
       </c>
       <c r="E513" t="s">
-        <v>9382</v>
+        <v>9378</v>
       </c>
       <c r="F513" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G513" t="s">
         <v>8826</v>
@@ -40787,16 +40745,16 @@
         <v>7</v>
       </c>
       <c r="B517" t="s">
-        <v>9226</v>
+        <v>9224</v>
       </c>
       <c r="D517" t="s">
         <v>8937</v>
       </c>
       <c r="E517" t="s">
-        <v>9383</v>
+        <v>9379</v>
       </c>
       <c r="F517" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G517" t="s">
         <v>8826</v>
@@ -41195,16 +41153,16 @@
         <v>7</v>
       </c>
       <c r="B535" t="s">
-        <v>9120</v>
+        <v>9118</v>
       </c>
       <c r="D535" t="s">
         <v>8938</v>
       </c>
       <c r="E535" t="s">
-        <v>9384</v>
+        <v>9380</v>
       </c>
       <c r="F535" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G535" t="s">
         <v>8826</v>
@@ -41537,7 +41495,7 @@
         <v>7</v>
       </c>
       <c r="B550" t="s">
-        <v>9121</v>
+        <v>9119</v>
       </c>
       <c r="D550" t="s">
         <v>8939</v>
@@ -41807,16 +41765,16 @@
         <v>7</v>
       </c>
       <c r="B562" t="s">
-        <v>9122</v>
+        <v>9120</v>
       </c>
       <c r="D562" t="s">
         <v>8940</v>
       </c>
       <c r="E562" t="s">
-        <v>9385</v>
+        <v>9381</v>
       </c>
       <c r="F562" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G562" t="s">
         <v>8826</v>
@@ -41919,16 +41877,16 @@
         <v>7</v>
       </c>
       <c r="B567" t="s">
-        <v>9123</v>
+        <v>9121</v>
       </c>
       <c r="D567" t="s">
         <v>8941</v>
       </c>
       <c r="E567" t="s">
-        <v>9386</v>
+        <v>9382</v>
       </c>
       <c r="F567" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G567" t="s">
         <v>8826</v>
@@ -41939,16 +41897,16 @@
         <v>7</v>
       </c>
       <c r="B568" t="s">
-        <v>9227</v>
+        <v>9225</v>
       </c>
       <c r="D568" t="s">
         <v>8942</v>
       </c>
       <c r="E568" t="s">
-        <v>9387</v>
+        <v>9383</v>
       </c>
       <c r="F568" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G568" t="s">
         <v>8826</v>
@@ -42051,16 +42009,16 @@
         <v>7</v>
       </c>
       <c r="B573" t="s">
-        <v>9228</v>
+        <v>9226</v>
       </c>
       <c r="D573" t="s">
         <v>8943</v>
       </c>
       <c r="E573" t="s">
-        <v>9388</v>
+        <v>9384</v>
       </c>
       <c r="F573" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G573" t="s">
         <v>8826</v>
@@ -42094,7 +42052,7 @@
         <v>7</v>
       </c>
       <c r="B575" t="s">
-        <v>9124</v>
+        <v>9122</v>
       </c>
       <c r="D575" t="s">
         <v>8944</v>
@@ -42387,16 +42345,16 @@
         <v>7</v>
       </c>
       <c r="B588" t="s">
-        <v>9229</v>
+        <v>9227</v>
       </c>
       <c r="D588" t="s">
         <v>8945</v>
       </c>
       <c r="E588" t="s">
-        <v>9389</v>
+        <v>9385</v>
       </c>
       <c r="F588" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G588" t="s">
         <v>8826</v>
@@ -42407,16 +42365,16 @@
         <v>7</v>
       </c>
       <c r="B589" t="s">
-        <v>9230</v>
+        <v>9228</v>
       </c>
       <c r="D589" t="s">
         <v>8946</v>
       </c>
       <c r="E589" t="s">
-        <v>9390</v>
+        <v>9386</v>
       </c>
       <c r="F589" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G589" t="s">
         <v>8826</v>
@@ -42519,16 +42477,16 @@
         <v>7</v>
       </c>
       <c r="B594" t="s">
-        <v>9231</v>
+        <v>9229</v>
       </c>
       <c r="D594" t="s">
-        <v>9316</v>
+        <v>9312</v>
       </c>
       <c r="E594" t="s">
-        <v>9391</v>
+        <v>9387</v>
       </c>
       <c r="F594" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G594" t="s">
         <v>8826</v>
@@ -42654,16 +42612,16 @@
         <v>7</v>
       </c>
       <c r="B600" t="s">
-        <v>9125</v>
+        <v>9123</v>
       </c>
       <c r="D600" t="s">
         <v>8947</v>
       </c>
       <c r="E600" t="s">
-        <v>9392</v>
+        <v>9388</v>
       </c>
       <c r="F600" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G600" t="s">
         <v>8826</v>
@@ -43065,16 +43023,16 @@
         <v>7</v>
       </c>
       <c r="B618" t="s">
-        <v>9232</v>
+        <v>9230</v>
       </c>
       <c r="D618" t="s">
         <v>8948</v>
       </c>
       <c r="E618" t="s">
-        <v>9393</v>
+        <v>9389</v>
       </c>
       <c r="F618" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G618" t="s">
         <v>8826</v>
@@ -43289,16 +43247,16 @@
         <v>7</v>
       </c>
       <c r="B628" t="s">
-        <v>9126</v>
+        <v>9124</v>
       </c>
       <c r="D628" t="s">
-        <v>9317</v>
+        <v>9313</v>
       </c>
       <c r="E628" t="s">
-        <v>9394</v>
+        <v>9390</v>
       </c>
       <c r="F628" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G628" t="s">
         <v>8826</v>
@@ -43608,16 +43566,16 @@
         <v>7</v>
       </c>
       <c r="B642" t="s">
-        <v>9233</v>
+        <v>9231</v>
       </c>
       <c r="D642" t="s">
         <v>8949</v>
       </c>
       <c r="E642" t="s">
-        <v>9395</v>
+        <v>9391</v>
       </c>
       <c r="F642" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G642" t="s">
         <v>8826</v>
@@ -43858,16 +43816,16 @@
         <v>7</v>
       </c>
       <c r="B653" t="s">
-        <v>9127</v>
+        <v>9125</v>
       </c>
       <c r="D653" t="s">
         <v>8950</v>
       </c>
       <c r="E653" t="s">
-        <v>9396</v>
+        <v>9392</v>
       </c>
       <c r="F653" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G653" t="s">
         <v>8826</v>
@@ -43924,16 +43882,16 @@
         <v>7</v>
       </c>
       <c r="B656" t="s">
-        <v>9234</v>
+        <v>9232</v>
       </c>
       <c r="D656" t="s">
         <v>8951</v>
       </c>
       <c r="E656" t="s">
-        <v>9397</v>
+        <v>9393</v>
       </c>
       <c r="F656" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G656" t="s">
         <v>8826</v>
@@ -44013,16 +43971,16 @@
         <v>7</v>
       </c>
       <c r="B660" t="s">
-        <v>9128</v>
+        <v>9126</v>
       </c>
       <c r="D660" t="s">
         <v>8952</v>
       </c>
       <c r="E660" t="s">
-        <v>9398</v>
+        <v>9394</v>
       </c>
       <c r="F660" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G660" t="s">
         <v>8826</v>
@@ -44033,16 +43991,16 @@
         <v>7</v>
       </c>
       <c r="B661" t="s">
-        <v>9235</v>
+        <v>9233</v>
       </c>
       <c r="D661" t="s">
         <v>8953</v>
       </c>
       <c r="E661" t="s">
-        <v>9399</v>
+        <v>9395</v>
       </c>
       <c r="F661" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G661" t="s">
         <v>8826</v>
@@ -45597,10 +45555,10 @@
         <v>2599</v>
       </c>
       <c r="E729" t="s">
-        <v>9400</v>
+        <v>9396</v>
       </c>
       <c r="F729" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G729" t="s">
         <v>8825</v>
@@ -45680,16 +45638,16 @@
         <v>7</v>
       </c>
       <c r="B733" t="s">
-        <v>9129</v>
+        <v>9127</v>
       </c>
       <c r="D733" t="s">
         <v>8954</v>
       </c>
       <c r="E733" t="s">
-        <v>9401</v>
+        <v>9397</v>
       </c>
       <c r="F733" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G733" t="s">
         <v>8826</v>
@@ -45815,16 +45773,16 @@
         <v>7</v>
       </c>
       <c r="B739" t="s">
-        <v>9130</v>
+        <v>9128</v>
       </c>
       <c r="D739" t="s">
         <v>8955</v>
       </c>
       <c r="E739" t="s">
-        <v>9402</v>
+        <v>9398</v>
       </c>
       <c r="F739" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G739" t="s">
         <v>8826</v>
@@ -45835,16 +45793,16 @@
         <v>7</v>
       </c>
       <c r="B740" t="s">
-        <v>9131</v>
+        <v>9129</v>
       </c>
       <c r="D740" t="s">
         <v>8956</v>
       </c>
       <c r="E740" t="s">
-        <v>9403</v>
+        <v>9399</v>
       </c>
       <c r="F740" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G740" t="s">
         <v>8826</v>
@@ -45993,16 +45951,16 @@
         <v>7</v>
       </c>
       <c r="B747" t="s">
-        <v>9132</v>
+        <v>9130</v>
       </c>
       <c r="D747" t="s">
         <v>8957</v>
       </c>
       <c r="E747" t="s">
-        <v>9404</v>
+        <v>9400</v>
       </c>
       <c r="F747" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G747" t="s">
         <v>8826</v>
@@ -46036,16 +45994,16 @@
         <v>7</v>
       </c>
       <c r="B749" t="s">
-        <v>9133</v>
+        <v>9131</v>
       </c>
       <c r="D749" t="s">
         <v>8958</v>
       </c>
       <c r="E749" t="s">
-        <v>9405</v>
+        <v>9401</v>
       </c>
       <c r="F749" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G749" t="s">
         <v>8826</v>
@@ -46263,7 +46221,7 @@
         <v>7</v>
       </c>
       <c r="B759" t="s">
-        <v>9134</v>
+        <v>9132</v>
       </c>
       <c r="D759" t="s">
         <v>8959</v>
@@ -46303,16 +46261,16 @@
         <v>7</v>
       </c>
       <c r="B761" t="s">
-        <v>9236</v>
+        <v>9234</v>
       </c>
       <c r="D761" t="s">
         <v>8960</v>
       </c>
       <c r="E761" t="s">
-        <v>9406</v>
+        <v>9402</v>
       </c>
       <c r="F761" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G761" t="s">
         <v>8826</v>
@@ -46323,16 +46281,16 @@
         <v>7</v>
       </c>
       <c r="B762" t="s">
-        <v>9135</v>
+        <v>9133</v>
       </c>
       <c r="D762" t="s">
         <v>8961</v>
       </c>
       <c r="E762" t="s">
-        <v>9407</v>
+        <v>9403</v>
       </c>
       <c r="F762" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G762" t="s">
         <v>8826</v>
@@ -46458,16 +46416,16 @@
         <v>7</v>
       </c>
       <c r="B768" t="s">
-        <v>9136</v>
+        <v>9134</v>
       </c>
       <c r="D768" t="s">
         <v>8962</v>
       </c>
       <c r="E768" t="s">
-        <v>9408</v>
+        <v>9404</v>
       </c>
       <c r="F768" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G768" t="s">
         <v>8826</v>
@@ -46602,10 +46560,10 @@
         <v>2738</v>
       </c>
       <c r="E774" t="s">
-        <v>9409</v>
+        <v>9405</v>
       </c>
       <c r="F774" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G774" t="s">
         <v>8826</v>
@@ -46639,16 +46597,16 @@
         <v>7</v>
       </c>
       <c r="B776" t="s">
-        <v>9137</v>
+        <v>9135</v>
       </c>
       <c r="D776" t="s">
         <v>8963</v>
       </c>
       <c r="E776" t="s">
-        <v>9410</v>
+        <v>9406</v>
       </c>
       <c r="F776" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G776" t="s">
         <v>8826</v>
@@ -46751,16 +46709,16 @@
         <v>7</v>
       </c>
       <c r="B781" t="s">
-        <v>9138</v>
+        <v>9136</v>
       </c>
       <c r="D781" t="s">
         <v>8964</v>
       </c>
       <c r="E781" t="s">
-        <v>9411</v>
+        <v>9407</v>
       </c>
       <c r="F781" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G781" t="s">
         <v>8826</v>
@@ -46817,16 +46775,16 @@
         <v>7</v>
       </c>
       <c r="B784" t="s">
-        <v>9237</v>
+        <v>9235</v>
       </c>
       <c r="D784" t="s">
         <v>8965</v>
       </c>
       <c r="E784" t="s">
-        <v>9412</v>
+        <v>9408</v>
       </c>
       <c r="F784" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G784" t="s">
         <v>8826</v>
@@ -46906,16 +46864,16 @@
         <v>7</v>
       </c>
       <c r="B788" t="s">
-        <v>9139</v>
+        <v>9137</v>
       </c>
       <c r="D788" t="s">
-        <v>9318</v>
+        <v>9314</v>
       </c>
       <c r="E788" t="s">
-        <v>9413</v>
+        <v>9409</v>
       </c>
       <c r="F788" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G788" t="s">
         <v>8826</v>
@@ -46949,16 +46907,16 @@
         <v>7</v>
       </c>
       <c r="B790" t="s">
-        <v>9140</v>
+        <v>9138</v>
       </c>
       <c r="D790" t="s">
         <v>8966</v>
       </c>
       <c r="E790" t="s">
-        <v>9414</v>
+        <v>9410</v>
       </c>
       <c r="F790" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G790" t="s">
         <v>8826</v>
@@ -47038,16 +46996,16 @@
         <v>7</v>
       </c>
       <c r="B794" t="s">
-        <v>9141</v>
+        <v>9139</v>
       </c>
       <c r="D794" t="s">
         <v>8967</v>
       </c>
       <c r="E794" t="s">
-        <v>9415</v>
+        <v>9411</v>
       </c>
       <c r="F794" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G794" t="s">
         <v>8826</v>
@@ -47081,16 +47039,16 @@
         <v>7</v>
       </c>
       <c r="B796" t="s">
-        <v>9238</v>
+        <v>9236</v>
       </c>
       <c r="D796" t="s">
         <v>8968</v>
       </c>
       <c r="E796" t="s">
-        <v>9416</v>
+        <v>9412</v>
       </c>
       <c r="F796" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G796" t="s">
         <v>8826</v>
@@ -47170,16 +47128,16 @@
         <v>7</v>
       </c>
       <c r="B800" t="s">
-        <v>9239</v>
+        <v>9237</v>
       </c>
       <c r="D800" t="s">
         <v>8969</v>
       </c>
       <c r="E800" t="s">
-        <v>9417</v>
+        <v>9413</v>
       </c>
       <c r="F800" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G800" t="s">
         <v>8826</v>
@@ -47259,16 +47217,16 @@
         <v>7</v>
       </c>
       <c r="B804" t="s">
-        <v>9142</v>
+        <v>9140</v>
       </c>
       <c r="D804" t="s">
-        <v>9319</v>
+        <v>9315</v>
       </c>
       <c r="E804" t="s">
-        <v>9418</v>
+        <v>9414</v>
       </c>
       <c r="F804" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G804" t="s">
         <v>8826</v>
@@ -47348,16 +47306,16 @@
         <v>7</v>
       </c>
       <c r="B808" t="s">
-        <v>9240</v>
+        <v>9238</v>
       </c>
       <c r="D808" t="s">
         <v>8970</v>
       </c>
       <c r="E808" t="s">
-        <v>9419</v>
+        <v>9415</v>
       </c>
       <c r="F808" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G808" t="s">
         <v>8826</v>
@@ -47368,16 +47326,16 @@
         <v>7</v>
       </c>
       <c r="B809" t="s">
-        <v>9241</v>
+        <v>9239</v>
       </c>
       <c r="D809" t="s">
         <v>8971</v>
       </c>
       <c r="E809" t="s">
-        <v>9420</v>
+        <v>9416</v>
       </c>
       <c r="F809" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G809" t="s">
         <v>8826</v>
@@ -47480,16 +47438,16 @@
         <v>7</v>
       </c>
       <c r="B814" t="s">
-        <v>9242</v>
+        <v>9240</v>
       </c>
       <c r="D814" t="s">
         <v>8972</v>
       </c>
       <c r="E814" t="s">
-        <v>9421</v>
+        <v>9417</v>
       </c>
       <c r="F814" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G814" t="s">
         <v>8826</v>
@@ -47854,10 +47812,10 @@
         <v>2913</v>
       </c>
       <c r="E830" t="s">
-        <v>9422</v>
+        <v>9418</v>
       </c>
       <c r="F830" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G830" t="s">
         <v>8826</v>
@@ -48245,10 +48203,10 @@
         <v>2980</v>
       </c>
       <c r="E847" t="s">
-        <v>9423</v>
+        <v>9419</v>
       </c>
       <c r="F847" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G847" t="s">
         <v>8825</v>
@@ -48328,16 +48286,16 @@
         <v>7</v>
       </c>
       <c r="B851" t="s">
-        <v>9088</v>
+        <v>9086</v>
       </c>
       <c r="D851" t="s">
         <v>8973</v>
       </c>
       <c r="E851" t="s">
-        <v>9424</v>
+        <v>9420</v>
       </c>
       <c r="F851" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G851" t="s">
         <v>8826</v>
@@ -48644,16 +48602,16 @@
         <v>7</v>
       </c>
       <c r="B865" t="s">
-        <v>9243</v>
+        <v>9241</v>
       </c>
       <c r="D865" t="s">
         <v>8974</v>
       </c>
       <c r="E865" t="s">
-        <v>9425</v>
+        <v>9421</v>
       </c>
       <c r="F865" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G865" t="s">
         <v>8826</v>
@@ -48779,16 +48737,16 @@
         <v>7</v>
       </c>
       <c r="B871" t="s">
-        <v>9143</v>
+        <v>9141</v>
       </c>
       <c r="D871" t="s">
         <v>8975</v>
       </c>
       <c r="E871" t="s">
-        <v>9426</v>
+        <v>9422</v>
       </c>
       <c r="F871" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G871" t="s">
         <v>8826</v>
@@ -48891,16 +48849,16 @@
         <v>7</v>
       </c>
       <c r="B876" t="s">
-        <v>9244</v>
+        <v>9242</v>
       </c>
       <c r="D876" t="s">
-        <v>9320</v>
+        <v>9316</v>
       </c>
       <c r="E876" t="s">
-        <v>9427</v>
+        <v>9423</v>
       </c>
       <c r="F876" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G876" t="s">
         <v>8826</v>
@@ -49555,16 +49513,16 @@
         <v>7</v>
       </c>
       <c r="B905" t="s">
-        <v>9245</v>
+        <v>9243</v>
       </c>
       <c r="D905" t="s">
         <v>8976</v>
       </c>
       <c r="E905" t="s">
-        <v>9428</v>
+        <v>9424</v>
       </c>
       <c r="F905" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G905" t="s">
         <v>8826</v>
@@ -49851,16 +49809,16 @@
         <v>7</v>
       </c>
       <c r="B918" t="s">
-        <v>9144</v>
+        <v>9142</v>
       </c>
       <c r="D918" t="s">
         <v>8977</v>
       </c>
       <c r="E918" t="s">
-        <v>9429</v>
+        <v>9425</v>
       </c>
       <c r="F918" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G918" t="s">
         <v>8826</v>
@@ -50055,16 +50013,16 @@
         <v>7</v>
       </c>
       <c r="B927" t="s">
-        <v>9246</v>
+        <v>9244</v>
       </c>
       <c r="D927" t="s">
         <v>8978</v>
       </c>
       <c r="E927" t="s">
-        <v>9430</v>
+        <v>9426</v>
       </c>
       <c r="F927" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G927" t="s">
         <v>8826</v>
@@ -50144,16 +50102,16 @@
         <v>7</v>
       </c>
       <c r="B931" t="s">
-        <v>9247</v>
+        <v>9245</v>
       </c>
       <c r="D931" t="s">
         <v>8979</v>
       </c>
       <c r="E931" t="s">
-        <v>9431</v>
+        <v>9427</v>
       </c>
       <c r="F931" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G931" t="s">
         <v>8826</v>
@@ -50518,10 +50476,10 @@
         <v>3342</v>
       </c>
       <c r="E947" t="s">
-        <v>9432</v>
+        <v>9428</v>
       </c>
       <c r="F947" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G947" t="s">
         <v>8826</v>
@@ -50739,16 +50697,16 @@
         <v>7</v>
       </c>
       <c r="B957" t="s">
-        <v>9145</v>
+        <v>9143</v>
       </c>
       <c r="D957" t="s">
         <v>8980</v>
       </c>
       <c r="E957" t="s">
-        <v>9433</v>
+        <v>9429</v>
       </c>
       <c r="F957" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G957" t="s">
         <v>8826</v>
@@ -50837,10 +50795,10 @@
         <v>3393</v>
       </c>
       <c r="E961" t="s">
-        <v>9434</v>
+        <v>9430</v>
       </c>
       <c r="F961" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G961" t="s">
         <v>8826</v>
@@ -51104,16 +51062,16 @@
         <v>7</v>
       </c>
       <c r="B973" t="s">
-        <v>9146</v>
+        <v>9144</v>
       </c>
       <c r="D973" t="s">
         <v>8981</v>
       </c>
       <c r="E973" t="s">
-        <v>9435</v>
+        <v>9431</v>
       </c>
       <c r="F973" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G973" t="s">
         <v>8826</v>
@@ -51469,7 +51427,7 @@
         <v>7</v>
       </c>
       <c r="B989" t="s">
-        <v>9147</v>
+        <v>9145</v>
       </c>
       <c r="D989" t="s">
         <v>8982</v>
@@ -51532,16 +51490,16 @@
         <v>7</v>
       </c>
       <c r="B992" t="s">
-        <v>9148</v>
+        <v>9146</v>
       </c>
       <c r="D992" t="s">
         <v>8983</v>
       </c>
       <c r="E992" t="s">
-        <v>9436</v>
+        <v>9432</v>
       </c>
       <c r="F992" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G992" t="s">
         <v>8826</v>
@@ -51920,16 +51878,16 @@
         <v>7</v>
       </c>
       <c r="B1009" t="s">
-        <v>9248</v>
+        <v>9246</v>
       </c>
       <c r="D1009" t="s">
         <v>8984</v>
       </c>
       <c r="E1009" t="s">
-        <v>9437</v>
+        <v>9433</v>
       </c>
       <c r="F1009" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1009" t="s">
         <v>8826</v>
@@ -52170,16 +52128,16 @@
         <v>7</v>
       </c>
       <c r="B1020" t="s">
-        <v>9149</v>
+        <v>9147</v>
       </c>
       <c r="D1020" t="s">
         <v>8985</v>
       </c>
       <c r="E1020" t="s">
-        <v>9438</v>
+        <v>9434</v>
       </c>
       <c r="F1020" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1020" t="s">
         <v>8826</v>
@@ -52406,10 +52364,10 @@
         <v>3648</v>
       </c>
       <c r="E1030" t="s">
-        <v>9439</v>
+        <v>9435</v>
       </c>
       <c r="F1030" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1030" t="s">
         <v>8826</v>
@@ -52653,10 +52611,10 @@
         <v>3686</v>
       </c>
       <c r="E1041" t="s">
-        <v>9440</v>
+        <v>9436</v>
       </c>
       <c r="F1041" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1041" t="s">
         <v>8826</v>
@@ -52736,16 +52694,16 @@
         <v>7</v>
       </c>
       <c r="B1045" t="s">
-        <v>9249</v>
+        <v>9247</v>
       </c>
       <c r="D1045" t="s">
         <v>8986</v>
       </c>
       <c r="E1045" t="s">
-        <v>9441</v>
+        <v>9437</v>
       </c>
       <c r="F1045" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1045" t="s">
         <v>8826</v>
@@ -53271,10 +53229,10 @@
         <v>3789</v>
       </c>
       <c r="E1068" t="s">
-        <v>9442</v>
+        <v>9438</v>
       </c>
       <c r="F1068" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1068" t="s">
         <v>8826</v>
@@ -53547,10 +53505,10 @@
         <v>3836</v>
       </c>
       <c r="E1080" t="s">
-        <v>9443</v>
+        <v>9439</v>
       </c>
       <c r="F1080" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1080" t="s">
         <v>8825</v>
@@ -53653,7 +53611,7 @@
         <v>7</v>
       </c>
       <c r="B1085" t="s">
-        <v>9150</v>
+        <v>9148</v>
       </c>
       <c r="D1085" t="s">
         <v>8987</v>
@@ -53670,16 +53628,16 @@
         <v>7</v>
       </c>
       <c r="B1086" t="s">
-        <v>9250</v>
+        <v>9248</v>
       </c>
       <c r="D1086" t="s">
         <v>8988</v>
       </c>
       <c r="E1086" t="s">
-        <v>9444</v>
+        <v>9440</v>
       </c>
       <c r="F1086" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1086" t="s">
         <v>8826</v>
@@ -53874,16 +53832,16 @@
         <v>7</v>
       </c>
       <c r="B1095" t="s">
-        <v>9251</v>
+        <v>9249</v>
       </c>
       <c r="D1095" t="s">
         <v>8989</v>
       </c>
       <c r="E1095" t="s">
-        <v>9445</v>
+        <v>9441</v>
       </c>
       <c r="F1095" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1095" t="s">
         <v>8826</v>
@@ -54078,16 +54036,16 @@
         <v>7</v>
       </c>
       <c r="B1104" t="s">
-        <v>9252</v>
+        <v>9250</v>
       </c>
       <c r="D1104" t="s">
-        <v>9321</v>
+        <v>9317</v>
       </c>
       <c r="E1104" t="s">
-        <v>9446</v>
+        <v>9442</v>
       </c>
       <c r="F1104" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1104" t="s">
         <v>8826</v>
@@ -54351,16 +54309,16 @@
         <v>7</v>
       </c>
       <c r="B1116" t="s">
-        <v>9151</v>
+        <v>9149</v>
       </c>
       <c r="D1116" t="s">
         <v>8990</v>
       </c>
       <c r="E1116" t="s">
-        <v>9447</v>
+        <v>9443</v>
       </c>
       <c r="F1116" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1116" t="s">
         <v>8826</v>
@@ -54440,16 +54398,16 @@
         <v>7</v>
       </c>
       <c r="B1120" t="s">
-        <v>9152</v>
+        <v>9150</v>
       </c>
       <c r="D1120" t="s">
         <v>8991</v>
       </c>
       <c r="E1120" t="s">
-        <v>9448</v>
+        <v>9444</v>
       </c>
       <c r="F1120" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1120" t="s">
         <v>8826</v>
@@ -54710,16 +54668,16 @@
         <v>7</v>
       </c>
       <c r="B1132" t="s">
-        <v>9153</v>
+        <v>9151</v>
       </c>
       <c r="D1132" t="s">
         <v>8992</v>
       </c>
       <c r="E1132" t="s">
-        <v>9449</v>
+        <v>9445</v>
       </c>
       <c r="F1132" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1132" t="s">
         <v>8826</v>
@@ -54730,16 +54688,16 @@
         <v>7</v>
       </c>
       <c r="B1133" t="s">
-        <v>9253</v>
+        <v>9251</v>
       </c>
       <c r="D1133" t="s">
         <v>8993</v>
       </c>
       <c r="E1133" t="s">
-        <v>9450</v>
+        <v>9446</v>
       </c>
       <c r="F1133" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1133" t="s">
         <v>8826</v>
@@ -54980,16 +54938,16 @@
         <v>7</v>
       </c>
       <c r="B1144" t="s">
-        <v>9154</v>
+        <v>9152</v>
       </c>
       <c r="D1144" t="s">
         <v>8994</v>
       </c>
       <c r="E1144" t="s">
-        <v>9451</v>
+        <v>9447</v>
       </c>
       <c r="F1144" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1144" t="s">
         <v>8826</v>
@@ -55805,16 +55763,16 @@
         <v>7</v>
       </c>
       <c r="B1180" t="s">
-        <v>9254</v>
+        <v>9252</v>
       </c>
       <c r="D1180" t="s">
         <v>8995</v>
       </c>
       <c r="E1180" t="s">
-        <v>9452</v>
+        <v>9448</v>
       </c>
       <c r="F1180" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1180" t="s">
         <v>8826</v>
@@ -56101,16 +56059,16 @@
         <v>7</v>
       </c>
       <c r="B1193" t="s">
-        <v>9155</v>
+        <v>9153</v>
       </c>
       <c r="D1193" t="s">
         <v>8996</v>
       </c>
       <c r="E1193" t="s">
-        <v>9453</v>
+        <v>9449</v>
       </c>
       <c r="F1193" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1193" t="s">
         <v>8826</v>
@@ -56857,16 +56815,16 @@
         <v>7</v>
       </c>
       <c r="B1226" t="s">
-        <v>9255</v>
+        <v>9253</v>
       </c>
       <c r="D1226" t="s">
         <v>8997</v>
       </c>
       <c r="E1226" t="s">
-        <v>9454</v>
+        <v>9450</v>
       </c>
       <c r="F1226" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1226" t="s">
         <v>8826</v>
@@ -57429,16 +57387,16 @@
         <v>7</v>
       </c>
       <c r="B1251" t="s">
-        <v>9156</v>
+        <v>9154</v>
       </c>
       <c r="D1251" t="s">
         <v>8998</v>
       </c>
       <c r="E1251" t="s">
-        <v>9455</v>
+        <v>9451</v>
       </c>
       <c r="F1251" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1251" t="s">
         <v>8826</v>
@@ -57679,16 +57637,16 @@
         <v>7</v>
       </c>
       <c r="B1262" t="s">
-        <v>9157</v>
+        <v>9155</v>
       </c>
       <c r="D1262" t="s">
         <v>8999</v>
       </c>
       <c r="E1262" t="s">
-        <v>9456</v>
+        <v>9452</v>
       </c>
       <c r="F1262" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1262" t="s">
         <v>8826</v>
@@ -57814,16 +57772,16 @@
         <v>7</v>
       </c>
       <c r="B1268" t="s">
-        <v>9256</v>
+        <v>9254</v>
       </c>
       <c r="D1268" t="s">
         <v>9000</v>
       </c>
       <c r="E1268" t="s">
-        <v>9457</v>
+        <v>9453</v>
       </c>
       <c r="F1268" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1268" t="s">
         <v>8826</v>
@@ -57923,16 +57881,16 @@
         <v>7</v>
       </c>
       <c r="B1273" t="s">
-        <v>9158</v>
+        <v>9156</v>
       </c>
       <c r="D1273" t="s">
         <v>9001</v>
       </c>
       <c r="E1273" t="s">
-        <v>9458</v>
+        <v>9454</v>
       </c>
       <c r="F1273" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1273" t="s">
         <v>8826</v>
@@ -58081,7 +58039,7 @@
         <v>7</v>
       </c>
       <c r="B1280" t="s">
-        <v>9257</v>
+        <v>9255</v>
       </c>
       <c r="D1280" t="s">
         <v>9002</v>
@@ -58190,16 +58148,16 @@
         <v>7</v>
       </c>
       <c r="B1285" t="s">
-        <v>9159</v>
+        <v>9157</v>
       </c>
       <c r="D1285" t="s">
         <v>9003</v>
       </c>
       <c r="E1285" t="s">
-        <v>9459</v>
+        <v>9455</v>
       </c>
       <c r="F1285" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1285" t="s">
         <v>8826</v>
@@ -58486,7 +58444,7 @@
         <v>7</v>
       </c>
       <c r="B1298" t="s">
-        <v>9160</v>
+        <v>9158</v>
       </c>
       <c r="D1298" t="s">
         <v>9004</v>
@@ -58802,10 +58760,10 @@
         <v>7</v>
       </c>
       <c r="B1312" t="s">
-        <v>9161</v>
+        <v>9159</v>
       </c>
       <c r="D1312" t="s">
-        <v>9304</v>
+        <v>9300</v>
       </c>
       <c r="F1312" t="s">
         <v>12</v>
@@ -59118,16 +59076,16 @@
         <v>7</v>
       </c>
       <c r="B1326" t="s">
-        <v>9162</v>
+        <v>9160</v>
       </c>
       <c r="D1326" t="s">
         <v>9005</v>
       </c>
       <c r="E1326" t="s">
-        <v>9460</v>
+        <v>9456</v>
       </c>
       <c r="F1326" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1326" t="s">
         <v>8826</v>
@@ -59184,16 +59142,16 @@
         <v>7</v>
       </c>
       <c r="B1329" t="s">
-        <v>9163</v>
+        <v>9161</v>
       </c>
       <c r="D1329" t="s">
         <v>9006</v>
       </c>
       <c r="E1329" t="s">
-        <v>9461</v>
+        <v>9457</v>
       </c>
       <c r="F1329" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1329" t="s">
         <v>8826</v>
@@ -59204,16 +59162,16 @@
         <v>7</v>
       </c>
       <c r="B1330" t="s">
-        <v>9164</v>
+        <v>9162</v>
       </c>
       <c r="D1330" t="s">
         <v>9007</v>
       </c>
       <c r="E1330" t="s">
-        <v>9462</v>
+        <v>9458</v>
       </c>
       <c r="F1330" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1330" t="s">
         <v>8826</v>
@@ -59247,7 +59205,7 @@
         <v>7</v>
       </c>
       <c r="B1332" t="s">
-        <v>9165</v>
+        <v>9163</v>
       </c>
       <c r="D1332" t="s">
         <v>9008</v>
@@ -59264,16 +59222,16 @@
         <v>7</v>
       </c>
       <c r="B1333" t="s">
-        <v>9166</v>
+        <v>9164</v>
       </c>
       <c r="D1333" t="s">
         <v>9009</v>
       </c>
       <c r="E1333" t="s">
-        <v>9463</v>
+        <v>9459</v>
       </c>
       <c r="F1333" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1333" t="s">
         <v>8826</v>
@@ -59531,16 +59489,16 @@
         <v>7</v>
       </c>
       <c r="B1345" t="s">
-        <v>9258</v>
+        <v>9256</v>
       </c>
       <c r="D1345" t="s">
         <v>9010</v>
       </c>
       <c r="E1345" t="s">
-        <v>9464</v>
+        <v>9460</v>
       </c>
       <c r="F1345" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1345" t="s">
         <v>8826</v>
@@ -59597,7 +59555,7 @@
         <v>7</v>
       </c>
       <c r="B1348" t="s">
-        <v>9167</v>
+        <v>9165</v>
       </c>
       <c r="D1348" t="s">
         <v>9011</v>
@@ -59761,10 +59719,10 @@
         <v>4807</v>
       </c>
       <c r="E1355" t="s">
-        <v>9465</v>
+        <v>9461</v>
       </c>
       <c r="F1355" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1355" t="s">
         <v>8826</v>
@@ -60074,7 +60032,7 @@
         <v>7</v>
       </c>
       <c r="B1369" t="s">
-        <v>9259</v>
+        <v>9257</v>
       </c>
       <c r="D1369" t="s">
         <v>9012</v>
@@ -60344,16 +60302,16 @@
         <v>7</v>
       </c>
       <c r="B1381" t="s">
-        <v>9260</v>
+        <v>9258</v>
       </c>
       <c r="D1381" t="s">
         <v>9013</v>
       </c>
       <c r="E1381" t="s">
-        <v>9466</v>
+        <v>9462</v>
       </c>
       <c r="F1381" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1381" t="s">
         <v>8826</v>
@@ -60387,16 +60345,16 @@
         <v>7</v>
       </c>
       <c r="B1383" t="s">
-        <v>9261</v>
+        <v>9259</v>
       </c>
       <c r="D1383" t="s">
-        <v>9322</v>
+        <v>9318</v>
       </c>
       <c r="E1383" t="s">
-        <v>9467</v>
+        <v>9463</v>
       </c>
       <c r="F1383" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1383" t="s">
         <v>8826</v>
@@ -60660,16 +60618,16 @@
         <v>7</v>
       </c>
       <c r="B1395" t="s">
-        <v>9168</v>
+        <v>9166</v>
       </c>
       <c r="D1395" t="s">
         <v>9014</v>
       </c>
       <c r="E1395" t="s">
-        <v>9468</v>
+        <v>9464</v>
       </c>
       <c r="F1395" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1395" t="s">
         <v>8826</v>
@@ -61482,16 +61440,16 @@
         <v>7</v>
       </c>
       <c r="B1431" t="s">
-        <v>9262</v>
+        <v>9260</v>
       </c>
       <c r="D1431" t="s">
         <v>9015</v>
       </c>
       <c r="E1431" t="s">
-        <v>9469</v>
+        <v>9465</v>
       </c>
       <c r="F1431" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1431" t="s">
         <v>8826</v>
@@ -61571,7 +61529,7 @@
         <v>7</v>
       </c>
       <c r="B1435" t="s">
-        <v>9169</v>
+        <v>9167</v>
       </c>
       <c r="D1435" t="s">
         <v>9016</v>
@@ -61657,7 +61615,7 @@
         <v>7</v>
       </c>
       <c r="B1439" t="s">
-        <v>9263</v>
+        <v>9261</v>
       </c>
       <c r="D1439" t="s">
         <v>9017</v>
@@ -61743,16 +61701,16 @@
         <v>7</v>
       </c>
       <c r="B1443" t="s">
-        <v>9170</v>
+        <v>9168</v>
       </c>
       <c r="D1443" t="s">
         <v>9018</v>
       </c>
       <c r="E1443" t="s">
-        <v>9470</v>
+        <v>9466</v>
       </c>
       <c r="F1443" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1443" t="s">
         <v>8826</v>
@@ -62453,16 +62411,16 @@
         <v>7</v>
       </c>
       <c r="B1474" t="s">
-        <v>9264</v>
+        <v>9262</v>
       </c>
       <c r="D1474" t="s">
         <v>9019</v>
       </c>
       <c r="E1474" t="s">
-        <v>9471</v>
+        <v>9467</v>
       </c>
       <c r="F1474" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1474" t="s">
         <v>8826</v>
@@ -62519,16 +62477,16 @@
         <v>7</v>
       </c>
       <c r="B1477" t="s">
-        <v>9171</v>
+        <v>9169</v>
       </c>
       <c r="D1477" t="s">
         <v>9020</v>
       </c>
       <c r="E1477" t="s">
-        <v>9472</v>
+        <v>9468</v>
       </c>
       <c r="F1477" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1477" t="s">
         <v>8826</v>
@@ -62801,10 +62759,10 @@
         <v>5285</v>
       </c>
       <c r="E1489" t="s">
-        <v>9473</v>
+        <v>9469</v>
       </c>
       <c r="F1489" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1489" t="s">
         <v>8826</v>
@@ -63413,16 +63371,16 @@
         <v>7</v>
       </c>
       <c r="B1516" t="s">
-        <v>9265</v>
+        <v>9263</v>
       </c>
       <c r="D1516" t="s">
         <v>9021</v>
       </c>
       <c r="E1516" t="s">
-        <v>9474</v>
+        <v>9470</v>
       </c>
       <c r="F1516" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1516" t="s">
         <v>8826</v>
@@ -63640,16 +63598,16 @@
         <v>7</v>
       </c>
       <c r="B1526" t="s">
-        <v>9172</v>
+        <v>9170</v>
       </c>
       <c r="D1526" t="s">
         <v>9022</v>
       </c>
       <c r="E1526" t="s">
-        <v>9475</v>
+        <v>9471</v>
       </c>
       <c r="F1526" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1526" t="s">
         <v>8826</v>
@@ -63706,16 +63664,16 @@
         <v>7</v>
       </c>
       <c r="B1529" t="s">
-        <v>9266</v>
+        <v>9264</v>
       </c>
       <c r="D1529" t="s">
         <v>9023</v>
       </c>
       <c r="E1529" t="s">
-        <v>9476</v>
+        <v>9472</v>
       </c>
       <c r="F1529" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1529" t="s">
         <v>8826</v>
@@ -64209,16 +64167,16 @@
         <v>7</v>
       </c>
       <c r="B1551" t="s">
-        <v>9267</v>
+        <v>9265</v>
       </c>
       <c r="D1551" t="s">
         <v>9024</v>
       </c>
       <c r="E1551" t="s">
-        <v>9477</v>
+        <v>9473</v>
       </c>
       <c r="F1551" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1551" t="s">
         <v>8826</v>
@@ -65261,7 +65219,7 @@
         <v>7</v>
       </c>
       <c r="B1597" t="s">
-        <v>9173</v>
+        <v>9171</v>
       </c>
       <c r="D1597" t="s">
         <v>9025</v>
@@ -65370,16 +65328,16 @@
         <v>7</v>
       </c>
       <c r="B1602" t="s">
-        <v>9268</v>
+        <v>9266</v>
       </c>
       <c r="D1602" t="s">
         <v>9026</v>
       </c>
       <c r="E1602" t="s">
-        <v>9478</v>
+        <v>9474</v>
       </c>
       <c r="F1602" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1602" t="s">
         <v>8826</v>
@@ -66172,7 +66130,7 @@
         <v>7</v>
       </c>
       <c r="B1637" t="s">
-        <v>9269</v>
+        <v>9267</v>
       </c>
       <c r="D1637" t="s">
         <v>9027</v>
@@ -66189,16 +66147,16 @@
         <v>7</v>
       </c>
       <c r="B1638" t="s">
-        <v>9270</v>
+        <v>9268</v>
       </c>
       <c r="D1638" t="s">
         <v>9028</v>
       </c>
       <c r="E1638" t="s">
-        <v>9479</v>
+        <v>9475</v>
       </c>
       <c r="F1638" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1638" t="s">
         <v>8826</v>
@@ -66209,16 +66167,16 @@
         <v>7</v>
       </c>
       <c r="B1639" t="s">
-        <v>9174</v>
+        <v>9172</v>
       </c>
       <c r="D1639" t="s">
         <v>9029</v>
       </c>
       <c r="E1639" t="s">
-        <v>9480</v>
+        <v>9476</v>
       </c>
       <c r="F1639" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1639" t="s">
         <v>8826</v>
@@ -66298,16 +66256,16 @@
         <v>7</v>
       </c>
       <c r="B1643" t="s">
-        <v>9271</v>
+        <v>9269</v>
       </c>
       <c r="D1643" t="s">
         <v>9030</v>
       </c>
       <c r="E1643" t="s">
-        <v>9481</v>
+        <v>9477</v>
       </c>
       <c r="F1643" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1643" t="s">
         <v>8826</v>
@@ -66571,16 +66529,16 @@
         <v>7</v>
       </c>
       <c r="B1655" t="s">
-        <v>9175</v>
+        <v>9173</v>
       </c>
       <c r="D1655" t="s">
         <v>9031</v>
       </c>
       <c r="E1655" t="s">
-        <v>9482</v>
+        <v>9478</v>
       </c>
       <c r="F1655" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1655" t="s">
         <v>8826</v>
@@ -66959,16 +66917,16 @@
         <v>7</v>
       </c>
       <c r="B1672" t="s">
-        <v>9272</v>
+        <v>9270</v>
       </c>
       <c r="D1672" t="s">
         <v>9032</v>
       </c>
       <c r="E1672" t="s">
-        <v>9483</v>
+        <v>9479</v>
       </c>
       <c r="F1672" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1672" t="s">
         <v>8826</v>
@@ -67048,16 +67006,16 @@
         <v>7</v>
       </c>
       <c r="B1676" t="s">
-        <v>9176</v>
+        <v>9174</v>
       </c>
       <c r="D1676" t="s">
         <v>9033</v>
       </c>
       <c r="E1676" t="s">
-        <v>9484</v>
+        <v>9480</v>
       </c>
       <c r="F1676" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1676" t="s">
         <v>8826</v>
@@ -67367,16 +67325,16 @@
         <v>7</v>
       </c>
       <c r="B1690" t="s">
-        <v>9273</v>
+        <v>9271</v>
       </c>
       <c r="D1690" t="s">
         <v>9034</v>
       </c>
       <c r="E1690" t="s">
-        <v>9485</v>
+        <v>9481</v>
       </c>
       <c r="F1690" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1690" t="s">
         <v>8826</v>
@@ -68031,16 +67989,16 @@
         <v>7</v>
       </c>
       <c r="B1719" t="s">
-        <v>9274</v>
+        <v>9272</v>
       </c>
       <c r="D1719" t="s">
         <v>9035</v>
       </c>
       <c r="E1719" t="s">
-        <v>9486</v>
+        <v>9482</v>
       </c>
       <c r="F1719" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1719" t="s">
         <v>8826</v>
@@ -68146,10 +68104,10 @@
         <v>6157</v>
       </c>
       <c r="E1724" t="s">
-        <v>9487</v>
+        <v>9483</v>
       </c>
       <c r="F1724" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1724" t="s">
         <v>8826</v>
@@ -68551,16 +68509,16 @@
         <v>7</v>
       </c>
       <c r="B1742" t="s">
-        <v>9177</v>
+        <v>9175</v>
       </c>
       <c r="D1742" t="s">
         <v>9036</v>
       </c>
       <c r="E1742" t="s">
-        <v>9488</v>
+        <v>9484</v>
       </c>
       <c r="F1742" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1742" t="s">
         <v>8826</v>
@@ -68594,16 +68552,16 @@
         <v>7</v>
       </c>
       <c r="B1744" t="s">
-        <v>9178</v>
+        <v>9176</v>
       </c>
       <c r="D1744" t="s">
         <v>9037</v>
       </c>
       <c r="E1744" t="s">
-        <v>9489</v>
+        <v>9485</v>
       </c>
       <c r="F1744" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1744" t="s">
         <v>8826</v>
@@ -68637,16 +68595,16 @@
         <v>7</v>
       </c>
       <c r="B1746" t="s">
-        <v>9275</v>
+        <v>9273</v>
       </c>
       <c r="D1746" t="s">
         <v>9038</v>
       </c>
       <c r="E1746" t="s">
-        <v>9490</v>
+        <v>9486</v>
       </c>
       <c r="F1746" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1746" t="s">
         <v>8826</v>
@@ -68795,16 +68753,16 @@
         <v>7</v>
       </c>
       <c r="B1753" t="s">
-        <v>9276</v>
+        <v>9274</v>
       </c>
       <c r="D1753" t="s">
         <v>9039</v>
       </c>
       <c r="E1753" t="s">
-        <v>9491</v>
+        <v>9487</v>
       </c>
       <c r="F1753" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1753" t="s">
         <v>8826</v>
@@ -68985,10 +68943,10 @@
         <v>6288</v>
       </c>
       <c r="E1761" t="s">
-        <v>9492</v>
+        <v>9488</v>
       </c>
       <c r="F1761" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1761" t="s">
         <v>8826</v>
@@ -69436,16 +69394,16 @@
         <v>7</v>
       </c>
       <c r="B1781" t="s">
-        <v>9277</v>
+        <v>9275</v>
       </c>
       <c r="D1781" t="s">
         <v>9040</v>
       </c>
       <c r="E1781" t="s">
-        <v>9493</v>
+        <v>9489</v>
       </c>
       <c r="F1781" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1781" t="s">
         <v>8826</v>
@@ -69594,16 +69552,16 @@
         <v>7</v>
       </c>
       <c r="B1788" t="s">
-        <v>9278</v>
+        <v>9276</v>
       </c>
       <c r="D1788" t="s">
         <v>9041</v>
       </c>
       <c r="E1788" t="s">
-        <v>9494</v>
+        <v>9490</v>
       </c>
       <c r="F1788" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1788" t="s">
         <v>8826</v>
@@ -69775,16 +69733,16 @@
         <v>7</v>
       </c>
       <c r="B1796" t="s">
-        <v>9279</v>
+        <v>9277</v>
       </c>
       <c r="D1796" t="s">
         <v>9042</v>
       </c>
       <c r="E1796" t="s">
-        <v>9495</v>
+        <v>9491</v>
       </c>
       <c r="F1796" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1796" t="s">
         <v>8826</v>
@@ -69887,16 +69845,16 @@
         <v>7</v>
       </c>
       <c r="B1801" t="s">
-        <v>9179</v>
+        <v>9177</v>
       </c>
       <c r="D1801" t="s">
         <v>9043</v>
       </c>
       <c r="E1801" t="s">
-        <v>9496</v>
+        <v>9492</v>
       </c>
       <c r="F1801" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1801" t="s">
         <v>8826</v>
@@ -70114,16 +70072,16 @@
         <v>7</v>
       </c>
       <c r="B1811" t="s">
-        <v>9280</v>
+        <v>9278</v>
       </c>
       <c r="D1811" t="s">
         <v>9044</v>
       </c>
       <c r="E1811" t="s">
-        <v>9497</v>
+        <v>9493</v>
       </c>
       <c r="F1811" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1811" t="s">
         <v>8826</v>
@@ -70304,10 +70262,10 @@
         <v>6499</v>
       </c>
       <c r="E1819" t="s">
-        <v>9498</v>
+        <v>9494</v>
       </c>
       <c r="F1819" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1819" t="s">
         <v>8825</v>
@@ -70801,16 +70759,16 @@
         <v>7</v>
       </c>
       <c r="B1841" t="s">
-        <v>9089</v>
+        <v>9087</v>
       </c>
       <c r="D1841" t="s">
         <v>9045</v>
       </c>
       <c r="E1841" t="s">
-        <v>9499</v>
+        <v>9495</v>
       </c>
       <c r="F1841" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1841" t="s">
         <v>8826</v>
@@ -71143,16 +71101,16 @@
         <v>7</v>
       </c>
       <c r="B1856" t="s">
-        <v>9180</v>
+        <v>9178</v>
       </c>
       <c r="D1856" t="s">
         <v>9046</v>
       </c>
       <c r="E1856" t="s">
-        <v>9500</v>
+        <v>9496</v>
       </c>
       <c r="F1856" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1856" t="s">
         <v>8826</v>
@@ -71715,16 +71673,16 @@
         <v>7</v>
       </c>
       <c r="B1881" t="s">
-        <v>9181</v>
+        <v>9179</v>
       </c>
       <c r="D1881" t="s">
         <v>9047</v>
       </c>
       <c r="E1881" t="s">
-        <v>9501</v>
+        <v>9497</v>
       </c>
       <c r="F1881" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1881" t="s">
         <v>8826</v>
@@ -71741,10 +71699,10 @@
         <v>6737</v>
       </c>
       <c r="E1882" t="s">
-        <v>9502</v>
+        <v>9498</v>
       </c>
       <c r="F1882" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1882" t="s">
         <v>8826</v>
@@ -71870,16 +71828,16 @@
         <v>7</v>
       </c>
       <c r="B1888" t="s">
-        <v>9182</v>
+        <v>9180</v>
       </c>
       <c r="D1888" t="s">
         <v>9048</v>
       </c>
       <c r="E1888" t="s">
-        <v>9503</v>
+        <v>9499</v>
       </c>
       <c r="F1888" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1888" t="s">
         <v>8826</v>
@@ -71890,16 +71848,16 @@
         <v>7</v>
       </c>
       <c r="B1889" t="s">
-        <v>9281</v>
+        <v>9279</v>
       </c>
       <c r="D1889" t="s">
         <v>9049</v>
       </c>
       <c r="E1889" t="s">
-        <v>9504</v>
+        <v>9500</v>
       </c>
       <c r="F1889" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1889" t="s">
         <v>8826</v>
@@ -71979,16 +71937,16 @@
         <v>7</v>
       </c>
       <c r="B1893" t="s">
-        <v>9282</v>
+        <v>9280</v>
       </c>
       <c r="D1893" t="s">
         <v>9050</v>
       </c>
       <c r="E1893" t="s">
-        <v>9505</v>
+        <v>9501</v>
       </c>
       <c r="F1893" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1893" t="s">
         <v>8826</v>
@@ -72574,16 +72532,16 @@
         <v>7</v>
       </c>
       <c r="B1919" t="s">
-        <v>9183</v>
+        <v>9181</v>
       </c>
       <c r="D1919" t="s">
         <v>9051</v>
       </c>
       <c r="E1919" t="s">
-        <v>9506</v>
+        <v>9502</v>
       </c>
       <c r="F1919" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1919" t="s">
         <v>8826</v>
@@ -72617,16 +72575,16 @@
         <v>7</v>
       </c>
       <c r="B1921" t="s">
-        <v>9283</v>
+        <v>9281</v>
       </c>
       <c r="D1921" t="s">
-        <v>9323</v>
+        <v>9319</v>
       </c>
       <c r="E1921" t="s">
-        <v>9507</v>
+        <v>9503</v>
       </c>
       <c r="F1921" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1921" t="s">
         <v>8826</v>
@@ -73738,16 +73696,16 @@
         <v>7</v>
       </c>
       <c r="B1970" t="s">
-        <v>9284</v>
+        <v>9282</v>
       </c>
       <c r="D1970" t="s">
         <v>9052</v>
       </c>
       <c r="E1970" t="s">
-        <v>9508</v>
+        <v>9504</v>
       </c>
       <c r="F1970" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1970" t="s">
         <v>8826</v>
@@ -73873,16 +73831,16 @@
         <v>7</v>
       </c>
       <c r="B1976" t="s">
-        <v>9285</v>
+        <v>9283</v>
       </c>
       <c r="D1976" t="s">
         <v>9053</v>
       </c>
       <c r="E1976" t="s">
-        <v>9509</v>
+        <v>9505</v>
       </c>
       <c r="F1976" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1976" t="s">
         <v>8826</v>
@@ -74031,16 +73989,16 @@
         <v>7</v>
       </c>
       <c r="B1983" t="s">
-        <v>9184</v>
+        <v>9182</v>
       </c>
       <c r="D1983" t="s">
         <v>9054</v>
       </c>
       <c r="E1983" t="s">
-        <v>9510</v>
+        <v>9506</v>
       </c>
       <c r="F1983" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1983" t="s">
         <v>8826</v>
@@ -74097,16 +74055,16 @@
         <v>7</v>
       </c>
       <c r="B1986" t="s">
-        <v>9090</v>
+        <v>9088</v>
       </c>
       <c r="D1986" t="s">
         <v>9055</v>
       </c>
       <c r="E1986" t="s">
-        <v>9511</v>
+        <v>9507</v>
       </c>
       <c r="F1986" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1986" t="s">
         <v>8826</v>
@@ -74163,16 +74121,16 @@
         <v>7</v>
       </c>
       <c r="B1989" t="s">
-        <v>9185</v>
+        <v>9183</v>
       </c>
       <c r="D1989" t="s">
         <v>9056</v>
       </c>
       <c r="E1989" t="s">
-        <v>9512</v>
+        <v>9508</v>
       </c>
       <c r="F1989" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G1989" t="s">
         <v>8826</v>
@@ -74755,16 +74713,16 @@
         <v>7</v>
       </c>
       <c r="B2015" t="s">
-        <v>9186</v>
+        <v>9184</v>
       </c>
       <c r="D2015" t="s">
         <v>9057</v>
       </c>
       <c r="E2015" t="s">
-        <v>9513</v>
+        <v>9509</v>
       </c>
       <c r="F2015" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2015" t="s">
         <v>8826</v>
@@ -74798,16 +74756,16 @@
         <v>7</v>
       </c>
       <c r="B2017" t="s">
-        <v>9286</v>
+        <v>9284</v>
       </c>
       <c r="D2017" t="s">
         <v>9058</v>
       </c>
       <c r="E2017" t="s">
-        <v>9514</v>
+        <v>9510</v>
       </c>
       <c r="F2017" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2017" t="s">
         <v>8826</v>
@@ -74818,16 +74776,16 @@
         <v>7</v>
       </c>
       <c r="B2018" t="s">
-        <v>9287</v>
+        <v>9285</v>
       </c>
       <c r="D2018" t="s">
-        <v>9324</v>
+        <v>9320</v>
       </c>
       <c r="E2018" t="s">
-        <v>9515</v>
+        <v>9511</v>
       </c>
       <c r="F2018" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2018" t="s">
         <v>8826</v>
@@ -74847,10 +74805,10 @@
         <v>7225</v>
       </c>
       <c r="E2019" t="s">
-        <v>9516</v>
+        <v>9512</v>
       </c>
       <c r="F2019" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2019" t="s">
         <v>8825</v>
@@ -75091,16 +75049,16 @@
         <v>7</v>
       </c>
       <c r="B2030" t="s">
-        <v>9288</v>
+        <v>9286</v>
       </c>
       <c r="D2030" t="s">
         <v>9059</v>
       </c>
       <c r="E2030" t="s">
-        <v>9517</v>
+        <v>9513</v>
       </c>
       <c r="F2030" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2030" t="s">
         <v>8826</v>
@@ -75166,10 +75124,10 @@
         <v>7276</v>
       </c>
       <c r="E2033" t="s">
-        <v>9518</v>
+        <v>9514</v>
       </c>
       <c r="F2033" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2033" t="s">
         <v>8826</v>
@@ -75364,16 +75322,16 @@
         <v>7</v>
       </c>
       <c r="B2042" t="s">
-        <v>9187</v>
+        <v>9185</v>
       </c>
       <c r="D2042" t="s">
         <v>9060</v>
       </c>
       <c r="E2042" t="s">
-        <v>9519</v>
+        <v>9515</v>
       </c>
       <c r="F2042" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2042" t="s">
         <v>8826</v>
@@ -75657,16 +75615,16 @@
         <v>7</v>
       </c>
       <c r="B2055" t="s">
-        <v>9188</v>
+        <v>9186</v>
       </c>
       <c r="D2055" t="s">
         <v>9061</v>
       </c>
       <c r="E2055" t="s">
-        <v>9520</v>
+        <v>9516</v>
       </c>
       <c r="F2055" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2055" t="s">
         <v>8826</v>
@@ -75677,16 +75635,16 @@
         <v>7</v>
       </c>
       <c r="B2056" t="s">
-        <v>9289</v>
+        <v>9287</v>
       </c>
       <c r="D2056" t="s">
         <v>9062</v>
       </c>
       <c r="E2056" t="s">
-        <v>9521</v>
+        <v>9517</v>
       </c>
       <c r="F2056" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2056" t="s">
         <v>8826</v>
@@ -76065,16 +76023,16 @@
         <v>7</v>
       </c>
       <c r="B2073" t="s">
-        <v>9290</v>
+        <v>9288</v>
       </c>
       <c r="D2073" t="s">
         <v>9063</v>
       </c>
       <c r="E2073" t="s">
-        <v>9522</v>
+        <v>9518</v>
       </c>
       <c r="F2073" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2073" t="s">
         <v>8826</v>
@@ -76085,10 +76043,10 @@
         <v>7</v>
       </c>
       <c r="B2074" t="s">
-        <v>9189</v>
+        <v>9187</v>
       </c>
       <c r="D2074" t="s">
-        <v>9306</v>
+        <v>9302</v>
       </c>
       <c r="F2074" t="s">
         <v>12</v>
@@ -76171,16 +76129,16 @@
         <v>7</v>
       </c>
       <c r="B2078" t="s">
-        <v>9291</v>
+        <v>9289</v>
       </c>
       <c r="D2078" t="s">
         <v>9064</v>
       </c>
       <c r="E2078" t="s">
-        <v>9523</v>
+        <v>9519</v>
       </c>
       <c r="F2078" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2078" t="s">
         <v>8826</v>
@@ -76565,10 +76523,10 @@
         <v>7497</v>
       </c>
       <c r="E2095" t="s">
-        <v>9524</v>
+        <v>9520</v>
       </c>
       <c r="F2095" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2095" t="s">
         <v>8826</v>
@@ -77131,16 +77089,16 @@
         <v>7</v>
       </c>
       <c r="B2120" t="s">
-        <v>9190</v>
+        <v>9188</v>
       </c>
       <c r="D2120" t="s">
         <v>9065</v>
       </c>
       <c r="E2120" t="s">
-        <v>9525</v>
+        <v>9521</v>
       </c>
       <c r="F2120" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2120" t="s">
         <v>8826</v>
@@ -77519,16 +77477,16 @@
         <v>7</v>
       </c>
       <c r="B2137" t="s">
-        <v>9191</v>
+        <v>9189</v>
       </c>
       <c r="D2137" t="s">
         <v>9066</v>
       </c>
       <c r="E2137" t="s">
-        <v>9526</v>
+        <v>9522</v>
       </c>
       <c r="F2137" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2137" t="s">
         <v>8826</v>
@@ -77815,7 +77773,7 @@
         <v>7</v>
       </c>
       <c r="B2150" t="s">
-        <v>9192</v>
+        <v>9190</v>
       </c>
       <c r="D2150" t="s">
         <v>9067</v>
@@ -77947,16 +77905,16 @@
         <v>7</v>
       </c>
       <c r="B2156" t="s">
-        <v>9292</v>
+        <v>9290</v>
       </c>
       <c r="D2156" t="s">
-        <v>9325</v>
+        <v>9321</v>
       </c>
       <c r="E2156" t="s">
-        <v>9527</v>
+        <v>9523</v>
       </c>
       <c r="F2156" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2156" t="s">
         <v>8826</v>
@@ -77976,10 +77934,10 @@
         <v>7724</v>
       </c>
       <c r="E2157" t="s">
-        <v>9528</v>
+        <v>9524</v>
       </c>
       <c r="F2157" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2157" t="s">
         <v>8826</v>
@@ -78013,16 +77971,16 @@
         <v>7</v>
       </c>
       <c r="B2159" t="s">
-        <v>9293</v>
+        <v>9291</v>
       </c>
       <c r="D2159" t="s">
         <v>9068</v>
       </c>
       <c r="E2159" t="s">
-        <v>9529</v>
+        <v>9525</v>
       </c>
       <c r="F2159" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2159" t="s">
         <v>8826</v>
@@ -78200,10 +78158,10 @@
         <v>7758</v>
       </c>
       <c r="E2167" t="s">
-        <v>9530</v>
+        <v>9526</v>
       </c>
       <c r="F2167" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2167" t="s">
         <v>8826</v>
@@ -78536,7 +78494,7 @@
         <v>7</v>
       </c>
       <c r="B2182" t="s">
-        <v>9193</v>
+        <v>9191</v>
       </c>
       <c r="D2182" t="s">
         <v>9069</v>
@@ -78852,16 +78810,16 @@
         <v>7</v>
       </c>
       <c r="B2196" t="s">
-        <v>9091</v>
+        <v>9089</v>
       </c>
       <c r="D2196" t="s">
         <v>9070</v>
       </c>
       <c r="E2196" t="s">
-        <v>9531</v>
+        <v>9527</v>
       </c>
       <c r="F2196" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2196" t="s">
         <v>8826</v>
@@ -78987,16 +78945,16 @@
         <v>7</v>
       </c>
       <c r="B2202" t="s">
-        <v>9294</v>
+        <v>9292</v>
       </c>
       <c r="D2202" t="s">
         <v>9071</v>
       </c>
       <c r="E2202" t="s">
-        <v>9532</v>
+        <v>9528</v>
       </c>
       <c r="F2202" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2202" t="s">
         <v>8826</v>
@@ -79030,16 +78988,16 @@
         <v>7</v>
       </c>
       <c r="B2204" t="s">
-        <v>9295</v>
+        <v>9293</v>
       </c>
       <c r="D2204" t="s">
         <v>9072</v>
       </c>
       <c r="E2204" t="s">
-        <v>9533</v>
+        <v>9529</v>
       </c>
       <c r="F2204" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2204" t="s">
         <v>8826</v>
@@ -79188,16 +79146,16 @@
         <v>7</v>
       </c>
       <c r="B2211" t="s">
-        <v>9296</v>
+        <v>9294</v>
       </c>
       <c r="D2211" t="s">
-        <v>9326</v>
+        <v>9322</v>
       </c>
       <c r="E2211" t="s">
-        <v>9534</v>
+        <v>9530</v>
       </c>
       <c r="F2211" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2211" t="s">
         <v>8826</v>
@@ -79208,16 +79166,16 @@
         <v>7</v>
       </c>
       <c r="B2212" t="s">
-        <v>9297</v>
+        <v>9295</v>
       </c>
       <c r="D2212" t="s">
         <v>9073</v>
       </c>
       <c r="E2212" t="s">
-        <v>9535</v>
+        <v>9531</v>
       </c>
       <c r="F2212" t="s">
-        <v>9086</v>
+        <v>9084</v>
       </c>
       <c r="G2212" t="s">
         <v>8826</v>
@@ -79527,19 +79485,22 @@
         <v>7</v>
       </c>
       <c r="B2226" t="s">
-        <v>9298</v>
+        <v>7968</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>7967</v>
       </c>
       <c r="D2226" t="s">
-        <v>9074</v>
+        <v>7969</v>
       </c>
       <c r="E2226" t="s">
-        <v>9536</v>
+        <v>7970</v>
       </c>
       <c r="F2226" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2226" t="s">
-        <v>8826</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
@@ -79547,16 +79508,19 @@
         <v>7</v>
       </c>
       <c r="B2227" t="s">
-        <v>9299</v>
+        <v>7972</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>7971</v>
       </c>
       <c r="D2227" t="s">
-        <v>9075</v>
+        <v>7973</v>
       </c>
       <c r="E2227" t="s">
-        <v>9537</v>
+        <v>7974</v>
       </c>
       <c r="F2227" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2227" t="s">
         <v>8826</v>
@@ -79567,22 +79531,22 @@
         <v>7</v>
       </c>
       <c r="B2228" t="s">
-        <v>7968</v>
+        <v>7976</v>
       </c>
       <c r="C2228" t="s">
-        <v>7967</v>
+        <v>7975</v>
       </c>
       <c r="D2228" t="s">
-        <v>7969</v>
+        <v>7977</v>
       </c>
       <c r="E2228" t="s">
-        <v>7970</v>
+        <v>7978</v>
       </c>
       <c r="F2228" t="s">
         <v>12</v>
       </c>
       <c r="G2228" t="s">
-        <v>8825</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
@@ -79590,16 +79554,16 @@
         <v>7</v>
       </c>
       <c r="B2229" t="s">
-        <v>7972</v>
+        <v>7980</v>
       </c>
       <c r="C2229" t="s">
-        <v>7971</v>
+        <v>7979</v>
       </c>
       <c r="D2229" t="s">
-        <v>7973</v>
+        <v>7981</v>
       </c>
       <c r="E2229" t="s">
-        <v>7974</v>
+        <v>7982</v>
       </c>
       <c r="F2229" t="s">
         <v>12</v>
@@ -79613,16 +79577,16 @@
         <v>7</v>
       </c>
       <c r="B2230" t="s">
-        <v>7976</v>
+        <v>7984</v>
       </c>
       <c r="C2230" t="s">
-        <v>7975</v>
+        <v>7983</v>
       </c>
       <c r="D2230" t="s">
-        <v>7977</v>
+        <v>7985</v>
       </c>
       <c r="E2230" t="s">
-        <v>7978</v>
+        <v>7986</v>
       </c>
       <c r="F2230" t="s">
         <v>12</v>
@@ -79636,16 +79600,16 @@
         <v>7</v>
       </c>
       <c r="B2231" t="s">
-        <v>7980</v>
+        <v>7988</v>
       </c>
       <c r="C2231" t="s">
-        <v>7979</v>
+        <v>7987</v>
       </c>
       <c r="D2231" t="s">
-        <v>7981</v>
+        <v>7989</v>
       </c>
       <c r="E2231" t="s">
-        <v>7982</v>
+        <v>7990</v>
       </c>
       <c r="F2231" t="s">
         <v>12</v>
@@ -79659,16 +79623,16 @@
         <v>7</v>
       </c>
       <c r="B2232" t="s">
-        <v>7984</v>
+        <v>7992</v>
       </c>
       <c r="C2232" t="s">
-        <v>7983</v>
+        <v>7991</v>
       </c>
       <c r="D2232" t="s">
-        <v>7985</v>
+        <v>7993</v>
       </c>
       <c r="E2232" t="s">
-        <v>7986</v>
+        <v>7994</v>
       </c>
       <c r="F2232" t="s">
         <v>12</v>
@@ -79682,16 +79646,16 @@
         <v>7</v>
       </c>
       <c r="B2233" t="s">
-        <v>7988</v>
+        <v>7996</v>
       </c>
       <c r="C2233" t="s">
-        <v>7987</v>
+        <v>7995</v>
       </c>
       <c r="D2233" t="s">
-        <v>7989</v>
+        <v>7997</v>
       </c>
       <c r="E2233" t="s">
-        <v>7990</v>
+        <v>7998</v>
       </c>
       <c r="F2233" t="s">
         <v>12</v>
@@ -79704,17 +79668,14 @@
       <c r="A2234" t="s">
         <v>7</v>
       </c>
-      <c r="B2234" t="s">
-        <v>7992</v>
-      </c>
       <c r="C2234" t="s">
-        <v>7991</v>
+        <v>7999</v>
       </c>
       <c r="D2234" t="s">
-        <v>7993</v>
+        <v>8000</v>
       </c>
       <c r="E2234" t="s">
-        <v>7994</v>
+        <v>8001</v>
       </c>
       <c r="F2234" t="s">
         <v>12</v>
@@ -79728,19 +79689,19 @@
         <v>7</v>
       </c>
       <c r="B2235" t="s">
-        <v>7996</v>
+        <v>8003</v>
       </c>
       <c r="C2235" t="s">
-        <v>7995</v>
+        <v>8002</v>
       </c>
       <c r="D2235" t="s">
-        <v>7997</v>
+        <v>8004</v>
       </c>
       <c r="E2235" t="s">
-        <v>7998</v>
+        <v>9532</v>
       </c>
       <c r="F2235" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2235" t="s">
         <v>8826</v>
@@ -79750,14 +79711,17 @@
       <c r="A2236" t="s">
         <v>7</v>
       </c>
+      <c r="B2236" t="s">
+        <v>8006</v>
+      </c>
       <c r="C2236" t="s">
-        <v>7999</v>
+        <v>8005</v>
       </c>
       <c r="D2236" t="s">
-        <v>8000</v>
+        <v>8007</v>
       </c>
       <c r="E2236" t="s">
-        <v>8001</v>
+        <v>8008</v>
       </c>
       <c r="F2236" t="s">
         <v>12</v>
@@ -79771,19 +79735,19 @@
         <v>7</v>
       </c>
       <c r="B2237" t="s">
-        <v>8003</v>
+        <v>8010</v>
       </c>
       <c r="C2237" t="s">
-        <v>8002</v>
+        <v>8009</v>
       </c>
       <c r="D2237" t="s">
-        <v>8004</v>
+        <v>8011</v>
       </c>
       <c r="E2237" t="s">
-        <v>9538</v>
+        <v>8012</v>
       </c>
       <c r="F2237" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2237" t="s">
         <v>8826</v>
@@ -79794,16 +79758,16 @@
         <v>7</v>
       </c>
       <c r="B2238" t="s">
-        <v>8006</v>
+        <v>8014</v>
       </c>
       <c r="C2238" t="s">
-        <v>8005</v>
+        <v>8013</v>
       </c>
       <c r="D2238" t="s">
-        <v>8007</v>
+        <v>8015</v>
       </c>
       <c r="E2238" t="s">
-        <v>8008</v>
+        <v>8016</v>
       </c>
       <c r="F2238" t="s">
         <v>12</v>
@@ -79817,16 +79781,16 @@
         <v>7</v>
       </c>
       <c r="B2239" t="s">
-        <v>8010</v>
+        <v>8018</v>
       </c>
       <c r="C2239" t="s">
-        <v>8009</v>
+        <v>8017</v>
       </c>
       <c r="D2239" t="s">
-        <v>8011</v>
+        <v>8019</v>
       </c>
       <c r="E2239" t="s">
-        <v>8012</v>
+        <v>8020</v>
       </c>
       <c r="F2239" t="s">
         <v>12</v>
@@ -79840,16 +79804,16 @@
         <v>7</v>
       </c>
       <c r="B2240" t="s">
-        <v>8014</v>
+        <v>8022</v>
       </c>
       <c r="C2240" t="s">
-        <v>8013</v>
+        <v>8021</v>
       </c>
       <c r="D2240" t="s">
-        <v>8015</v>
+        <v>8023</v>
       </c>
       <c r="E2240" t="s">
-        <v>8016</v>
+        <v>8024</v>
       </c>
       <c r="F2240" t="s">
         <v>12</v>
@@ -79863,16 +79827,16 @@
         <v>7</v>
       </c>
       <c r="B2241" t="s">
-        <v>8018</v>
+        <v>8026</v>
       </c>
       <c r="C2241" t="s">
-        <v>8017</v>
+        <v>8025</v>
       </c>
       <c r="D2241" t="s">
-        <v>8019</v>
+        <v>8027</v>
       </c>
       <c r="E2241" t="s">
-        <v>8020</v>
+        <v>8028</v>
       </c>
       <c r="F2241" t="s">
         <v>12</v>
@@ -79886,16 +79850,16 @@
         <v>7</v>
       </c>
       <c r="B2242" t="s">
-        <v>8022</v>
+        <v>8030</v>
       </c>
       <c r="C2242" t="s">
-        <v>8021</v>
+        <v>8029</v>
       </c>
       <c r="D2242" t="s">
-        <v>8023</v>
+        <v>8031</v>
       </c>
       <c r="E2242" t="s">
-        <v>8024</v>
+        <v>8032</v>
       </c>
       <c r="F2242" t="s">
         <v>12</v>
@@ -79909,16 +79873,16 @@
         <v>7</v>
       </c>
       <c r="B2243" t="s">
-        <v>8026</v>
+        <v>8034</v>
       </c>
       <c r="C2243" t="s">
-        <v>8025</v>
+        <v>8033</v>
       </c>
       <c r="D2243" t="s">
-        <v>8027</v>
+        <v>8035</v>
       </c>
       <c r="E2243" t="s">
-        <v>8028</v>
+        <v>8036</v>
       </c>
       <c r="F2243" t="s">
         <v>12</v>
@@ -79932,16 +79896,16 @@
         <v>7</v>
       </c>
       <c r="B2244" t="s">
-        <v>8030</v>
+        <v>8038</v>
       </c>
       <c r="C2244" t="s">
-        <v>8029</v>
+        <v>8037</v>
       </c>
       <c r="D2244" t="s">
-        <v>8031</v>
+        <v>8039</v>
       </c>
       <c r="E2244" t="s">
-        <v>8032</v>
+        <v>8040</v>
       </c>
       <c r="F2244" t="s">
         <v>12</v>
@@ -79955,16 +79919,16 @@
         <v>7</v>
       </c>
       <c r="B2245" t="s">
-        <v>8034</v>
+        <v>8042</v>
       </c>
       <c r="C2245" t="s">
-        <v>8033</v>
+        <v>8041</v>
       </c>
       <c r="D2245" t="s">
-        <v>8035</v>
+        <v>8043</v>
       </c>
       <c r="E2245" t="s">
-        <v>8036</v>
+        <v>8044</v>
       </c>
       <c r="F2245" t="s">
         <v>12</v>
@@ -79978,16 +79942,16 @@
         <v>7</v>
       </c>
       <c r="B2246" t="s">
-        <v>8038</v>
+        <v>8046</v>
       </c>
       <c r="C2246" t="s">
-        <v>8037</v>
+        <v>8045</v>
       </c>
       <c r="D2246" t="s">
-        <v>8039</v>
+        <v>8047</v>
       </c>
       <c r="E2246" t="s">
-        <v>8040</v>
+        <v>8048</v>
       </c>
       <c r="F2246" t="s">
         <v>12</v>
@@ -80001,16 +79965,16 @@
         <v>7</v>
       </c>
       <c r="B2247" t="s">
-        <v>8042</v>
+        <v>8050</v>
       </c>
       <c r="C2247" t="s">
-        <v>8041</v>
+        <v>8049</v>
       </c>
       <c r="D2247" t="s">
-        <v>8043</v>
+        <v>8051</v>
       </c>
       <c r="E2247" t="s">
-        <v>8044</v>
+        <v>8052</v>
       </c>
       <c r="F2247" t="s">
         <v>12</v>
@@ -80024,16 +79988,16 @@
         <v>7</v>
       </c>
       <c r="B2248" t="s">
-        <v>8046</v>
+        <v>8054</v>
       </c>
       <c r="C2248" t="s">
-        <v>8045</v>
+        <v>8053</v>
       </c>
       <c r="D2248" t="s">
-        <v>8047</v>
+        <v>8055</v>
       </c>
       <c r="E2248" t="s">
-        <v>8048</v>
+        <v>8056</v>
       </c>
       <c r="F2248" t="s">
         <v>12</v>
@@ -80047,16 +80011,16 @@
         <v>7</v>
       </c>
       <c r="B2249" t="s">
-        <v>8050</v>
+        <v>8058</v>
       </c>
       <c r="C2249" t="s">
-        <v>8049</v>
+        <v>8057</v>
       </c>
       <c r="D2249" t="s">
-        <v>8051</v>
+        <v>8059</v>
       </c>
       <c r="E2249" t="s">
-        <v>8052</v>
+        <v>8060</v>
       </c>
       <c r="F2249" t="s">
         <v>12</v>
@@ -80070,16 +80034,16 @@
         <v>7</v>
       </c>
       <c r="B2250" t="s">
-        <v>8054</v>
+        <v>8062</v>
       </c>
       <c r="C2250" t="s">
-        <v>8053</v>
+        <v>8061</v>
       </c>
       <c r="D2250" t="s">
-        <v>8055</v>
+        <v>8063</v>
       </c>
       <c r="E2250" t="s">
-        <v>8056</v>
+        <v>8064</v>
       </c>
       <c r="F2250" t="s">
         <v>12</v>
@@ -80093,16 +80057,16 @@
         <v>7</v>
       </c>
       <c r="B2251" t="s">
-        <v>8058</v>
+        <v>8066</v>
       </c>
       <c r="C2251" t="s">
-        <v>8057</v>
+        <v>8065</v>
       </c>
       <c r="D2251" t="s">
-        <v>8059</v>
+        <v>8067</v>
       </c>
       <c r="E2251" t="s">
-        <v>8060</v>
+        <v>8068</v>
       </c>
       <c r="F2251" t="s">
         <v>12</v>
@@ -80116,16 +80080,16 @@
         <v>7</v>
       </c>
       <c r="B2252" t="s">
-        <v>8062</v>
+        <v>8070</v>
       </c>
       <c r="C2252" t="s">
-        <v>8061</v>
+        <v>8069</v>
       </c>
       <c r="D2252" t="s">
-        <v>8063</v>
+        <v>8071</v>
       </c>
       <c r="E2252" t="s">
-        <v>8064</v>
+        <v>8072</v>
       </c>
       <c r="F2252" t="s">
         <v>12</v>
@@ -80139,16 +80103,10 @@
         <v>7</v>
       </c>
       <c r="B2253" t="s">
-        <v>8066</v>
-      </c>
-      <c r="C2253" t="s">
-        <v>8065</v>
+        <v>9090</v>
       </c>
       <c r="D2253" t="s">
-        <v>8067</v>
-      </c>
-      <c r="E2253" t="s">
-        <v>8068</v>
+        <v>9074</v>
       </c>
       <c r="F2253" t="s">
         <v>12</v>
@@ -80162,16 +80120,10 @@
         <v>7</v>
       </c>
       <c r="B2254" t="s">
-        <v>8070</v>
-      </c>
-      <c r="C2254" t="s">
-        <v>8069</v>
+        <v>9192</v>
       </c>
       <c r="D2254" t="s">
-        <v>8071</v>
-      </c>
-      <c r="E2254" t="s">
-        <v>8072</v>
+        <v>9075</v>
       </c>
       <c r="F2254" t="s">
         <v>12</v>
@@ -80185,10 +80137,16 @@
         <v>7</v>
       </c>
       <c r="B2255" t="s">
-        <v>9092</v>
+        <v>8074</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>8073</v>
       </c>
       <c r="D2255" t="s">
-        <v>9076</v>
+        <v>8075</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>8076</v>
       </c>
       <c r="F2255" t="s">
         <v>12</v>
@@ -80202,10 +80160,16 @@
         <v>7</v>
       </c>
       <c r="B2256" t="s">
-        <v>9194</v>
+        <v>8078</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>8077</v>
       </c>
       <c r="D2256" t="s">
-        <v>9077</v>
+        <v>8079</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>8080</v>
       </c>
       <c r="F2256" t="s">
         <v>12</v>
@@ -80219,16 +80183,16 @@
         <v>7</v>
       </c>
       <c r="B2257" t="s">
-        <v>8074</v>
+        <v>8082</v>
       </c>
       <c r="C2257" t="s">
-        <v>8073</v>
+        <v>8081</v>
       </c>
       <c r="D2257" t="s">
-        <v>8075</v>
+        <v>8083</v>
       </c>
       <c r="E2257" t="s">
-        <v>8076</v>
+        <v>8084</v>
       </c>
       <c r="F2257" t="s">
         <v>12</v>
@@ -80242,16 +80206,16 @@
         <v>7</v>
       </c>
       <c r="B2258" t="s">
-        <v>8078</v>
+        <v>8086</v>
       </c>
       <c r="C2258" t="s">
-        <v>8077</v>
+        <v>8085</v>
       </c>
       <c r="D2258" t="s">
-        <v>8079</v>
+        <v>8087</v>
       </c>
       <c r="E2258" t="s">
-        <v>8080</v>
+        <v>8088</v>
       </c>
       <c r="F2258" t="s">
         <v>12</v>
@@ -80265,16 +80229,16 @@
         <v>7</v>
       </c>
       <c r="B2259" t="s">
-        <v>8082</v>
+        <v>8090</v>
       </c>
       <c r="C2259" t="s">
-        <v>8081</v>
+        <v>8089</v>
       </c>
       <c r="D2259" t="s">
-        <v>8083</v>
+        <v>8091</v>
       </c>
       <c r="E2259" t="s">
-        <v>8084</v>
+        <v>8092</v>
       </c>
       <c r="F2259" t="s">
         <v>12</v>
@@ -80288,19 +80252,16 @@
         <v>7</v>
       </c>
       <c r="B2260" t="s">
-        <v>8086</v>
-      </c>
-      <c r="C2260" t="s">
-        <v>8085</v>
+        <v>9296</v>
       </c>
       <c r="D2260" t="s">
-        <v>8087</v>
+        <v>9076</v>
       </c>
       <c r="E2260" t="s">
-        <v>8088</v>
+        <v>9533</v>
       </c>
       <c r="F2260" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2260" t="s">
         <v>8826</v>
@@ -80311,16 +80272,16 @@
         <v>7</v>
       </c>
       <c r="B2261" t="s">
-        <v>8090</v>
+        <v>8094</v>
       </c>
       <c r="C2261" t="s">
-        <v>8089</v>
+        <v>8093</v>
       </c>
       <c r="D2261" t="s">
-        <v>8091</v>
+        <v>8095</v>
       </c>
       <c r="E2261" t="s">
-        <v>8092</v>
+        <v>8096</v>
       </c>
       <c r="F2261" t="s">
         <v>12</v>
@@ -80334,16 +80295,19 @@
         <v>7</v>
       </c>
       <c r="B2262" t="s">
-        <v>9300</v>
+        <v>8098</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>8097</v>
       </c>
       <c r="D2262" t="s">
-        <v>9078</v>
+        <v>8099</v>
       </c>
       <c r="E2262" t="s">
-        <v>9539</v>
+        <v>8100</v>
       </c>
       <c r="F2262" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2262" t="s">
         <v>8826</v>
@@ -80354,16 +80318,16 @@
         <v>7</v>
       </c>
       <c r="B2263" t="s">
-        <v>8094</v>
+        <v>8102</v>
       </c>
       <c r="C2263" t="s">
-        <v>8093</v>
+        <v>8101</v>
       </c>
       <c r="D2263" t="s">
-        <v>8095</v>
+        <v>8103</v>
       </c>
       <c r="E2263" t="s">
-        <v>8096</v>
+        <v>8104</v>
       </c>
       <c r="F2263" t="s">
         <v>12</v>
@@ -80377,16 +80341,16 @@
         <v>7</v>
       </c>
       <c r="B2264" t="s">
-        <v>8098</v>
+        <v>8106</v>
       </c>
       <c r="C2264" t="s">
-        <v>8097</v>
+        <v>8105</v>
       </c>
       <c r="D2264" t="s">
-        <v>8099</v>
+        <v>8107</v>
       </c>
       <c r="E2264" t="s">
-        <v>8100</v>
+        <v>8108</v>
       </c>
       <c r="F2264" t="s">
         <v>12</v>
@@ -80400,16 +80364,16 @@
         <v>7</v>
       </c>
       <c r="B2265" t="s">
-        <v>8102</v>
+        <v>8110</v>
       </c>
       <c r="C2265" t="s">
-        <v>8101</v>
+        <v>8109</v>
       </c>
       <c r="D2265" t="s">
-        <v>8103</v>
+        <v>8111</v>
       </c>
       <c r="E2265" t="s">
-        <v>8104</v>
+        <v>8112</v>
       </c>
       <c r="F2265" t="s">
         <v>12</v>
@@ -80423,16 +80387,16 @@
         <v>7</v>
       </c>
       <c r="B2266" t="s">
-        <v>8106</v>
+        <v>8114</v>
       </c>
       <c r="C2266" t="s">
-        <v>8105</v>
+        <v>8113</v>
       </c>
       <c r="D2266" t="s">
-        <v>8107</v>
+        <v>8115</v>
       </c>
       <c r="E2266" t="s">
-        <v>8108</v>
+        <v>8116</v>
       </c>
       <c r="F2266" t="s">
         <v>12</v>
@@ -80446,16 +80410,16 @@
         <v>7</v>
       </c>
       <c r="B2267" t="s">
-        <v>8110</v>
+        <v>8118</v>
       </c>
       <c r="C2267" t="s">
-        <v>8109</v>
+        <v>8117</v>
       </c>
       <c r="D2267" t="s">
-        <v>8111</v>
+        <v>8119</v>
       </c>
       <c r="E2267" t="s">
-        <v>8112</v>
+        <v>8120</v>
       </c>
       <c r="F2267" t="s">
         <v>12</v>
@@ -80469,16 +80433,16 @@
         <v>7</v>
       </c>
       <c r="B2268" t="s">
-        <v>8114</v>
+        <v>8122</v>
       </c>
       <c r="C2268" t="s">
-        <v>8113</v>
+        <v>8121</v>
       </c>
       <c r="D2268" t="s">
-        <v>8115</v>
+        <v>8123</v>
       </c>
       <c r="E2268" t="s">
-        <v>8116</v>
+        <v>8124</v>
       </c>
       <c r="F2268" t="s">
         <v>12</v>
@@ -80492,16 +80456,16 @@
         <v>7</v>
       </c>
       <c r="B2269" t="s">
-        <v>8118</v>
+        <v>8126</v>
       </c>
       <c r="C2269" t="s">
-        <v>8117</v>
+        <v>8125</v>
       </c>
       <c r="D2269" t="s">
-        <v>8119</v>
+        <v>8127</v>
       </c>
       <c r="E2269" t="s">
-        <v>8120</v>
+        <v>8128</v>
       </c>
       <c r="F2269" t="s">
         <v>12</v>
@@ -80515,16 +80479,16 @@
         <v>7</v>
       </c>
       <c r="B2270" t="s">
-        <v>8122</v>
+        <v>8130</v>
       </c>
       <c r="C2270" t="s">
-        <v>8121</v>
+        <v>8129</v>
       </c>
       <c r="D2270" t="s">
-        <v>8123</v>
+        <v>8131</v>
       </c>
       <c r="E2270" t="s">
-        <v>8124</v>
+        <v>8132</v>
       </c>
       <c r="F2270" t="s">
         <v>12</v>
@@ -80538,16 +80502,16 @@
         <v>7</v>
       </c>
       <c r="B2271" t="s">
-        <v>8126</v>
+        <v>8134</v>
       </c>
       <c r="C2271" t="s">
-        <v>8125</v>
+        <v>8133</v>
       </c>
       <c r="D2271" t="s">
-        <v>8127</v>
+        <v>8135</v>
       </c>
       <c r="E2271" t="s">
-        <v>8128</v>
+        <v>8136</v>
       </c>
       <c r="F2271" t="s">
         <v>12</v>
@@ -80561,16 +80525,16 @@
         <v>7</v>
       </c>
       <c r="B2272" t="s">
-        <v>8130</v>
+        <v>8138</v>
       </c>
       <c r="C2272" t="s">
-        <v>8129</v>
+        <v>8137</v>
       </c>
       <c r="D2272" t="s">
-        <v>8131</v>
+        <v>8139</v>
       </c>
       <c r="E2272" t="s">
-        <v>8132</v>
+        <v>8140</v>
       </c>
       <c r="F2272" t="s">
         <v>12</v>
@@ -80584,16 +80548,16 @@
         <v>7</v>
       </c>
       <c r="B2273" t="s">
-        <v>8134</v>
+        <v>8142</v>
       </c>
       <c r="C2273" t="s">
-        <v>8133</v>
+        <v>8141</v>
       </c>
       <c r="D2273" t="s">
-        <v>8135</v>
+        <v>8143</v>
       </c>
       <c r="E2273" t="s">
-        <v>8136</v>
+        <v>8144</v>
       </c>
       <c r="F2273" t="s">
         <v>12</v>
@@ -80607,16 +80571,16 @@
         <v>7</v>
       </c>
       <c r="B2274" t="s">
-        <v>8138</v>
+        <v>8146</v>
       </c>
       <c r="C2274" t="s">
-        <v>8137</v>
+        <v>8145</v>
       </c>
       <c r="D2274" t="s">
-        <v>8139</v>
+        <v>8147</v>
       </c>
       <c r="E2274" t="s">
-        <v>8140</v>
+        <v>8148</v>
       </c>
       <c r="F2274" t="s">
         <v>12</v>
@@ -80630,16 +80594,10 @@
         <v>7</v>
       </c>
       <c r="B2275" t="s">
-        <v>8142</v>
-      </c>
-      <c r="C2275" t="s">
-        <v>8141</v>
+        <v>9193</v>
       </c>
       <c r="D2275" t="s">
-        <v>8143</v>
-      </c>
-      <c r="E2275" t="s">
-        <v>8144</v>
+        <v>9077</v>
       </c>
       <c r="F2275" t="s">
         <v>12</v>
@@ -80653,16 +80611,16 @@
         <v>7</v>
       </c>
       <c r="B2276" t="s">
-        <v>8146</v>
+        <v>8150</v>
       </c>
       <c r="C2276" t="s">
-        <v>8145</v>
+        <v>8149</v>
       </c>
       <c r="D2276" t="s">
-        <v>8147</v>
+        <v>8151</v>
       </c>
       <c r="E2276" t="s">
-        <v>8148</v>
+        <v>8152</v>
       </c>
       <c r="F2276" t="s">
         <v>12</v>
@@ -80676,10 +80634,16 @@
         <v>7</v>
       </c>
       <c r="B2277" t="s">
-        <v>9195</v>
+        <v>8154</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>8153</v>
       </c>
       <c r="D2277" t="s">
-        <v>9079</v>
+        <v>8155</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>8156</v>
       </c>
       <c r="F2277" t="s">
         <v>12</v>
@@ -80693,16 +80657,16 @@
         <v>7</v>
       </c>
       <c r="B2278" t="s">
-        <v>8150</v>
+        <v>8158</v>
       </c>
       <c r="C2278" t="s">
-        <v>8149</v>
+        <v>8157</v>
       </c>
       <c r="D2278" t="s">
-        <v>8151</v>
+        <v>8159</v>
       </c>
       <c r="E2278" t="s">
-        <v>8152</v>
+        <v>8160</v>
       </c>
       <c r="F2278" t="s">
         <v>12</v>
@@ -80716,16 +80680,16 @@
         <v>7</v>
       </c>
       <c r="B2279" t="s">
-        <v>8154</v>
+        <v>8162</v>
       </c>
       <c r="C2279" t="s">
-        <v>8153</v>
+        <v>8161</v>
       </c>
       <c r="D2279" t="s">
-        <v>8155</v>
+        <v>8163</v>
       </c>
       <c r="E2279" t="s">
-        <v>8156</v>
+        <v>8164</v>
       </c>
       <c r="F2279" t="s">
         <v>12</v>
@@ -80739,16 +80703,16 @@
         <v>7</v>
       </c>
       <c r="B2280" t="s">
-        <v>8158</v>
+        <v>8166</v>
       </c>
       <c r="C2280" t="s">
-        <v>8157</v>
+        <v>8165</v>
       </c>
       <c r="D2280" t="s">
-        <v>8159</v>
+        <v>8167</v>
       </c>
       <c r="E2280" t="s">
-        <v>8160</v>
+        <v>8168</v>
       </c>
       <c r="F2280" t="s">
         <v>12</v>
@@ -80762,16 +80726,16 @@
         <v>7</v>
       </c>
       <c r="B2281" t="s">
-        <v>8162</v>
+        <v>8170</v>
       </c>
       <c r="C2281" t="s">
-        <v>8161</v>
+        <v>8169</v>
       </c>
       <c r="D2281" t="s">
-        <v>8163</v>
+        <v>8171</v>
       </c>
       <c r="E2281" t="s">
-        <v>8164</v>
+        <v>8172</v>
       </c>
       <c r="F2281" t="s">
         <v>12</v>
@@ -80785,16 +80749,16 @@
         <v>7</v>
       </c>
       <c r="B2282" t="s">
-        <v>8166</v>
+        <v>8174</v>
       </c>
       <c r="C2282" t="s">
-        <v>8165</v>
+        <v>8173</v>
       </c>
       <c r="D2282" t="s">
-        <v>8167</v>
+        <v>8175</v>
       </c>
       <c r="E2282" t="s">
-        <v>8168</v>
+        <v>8176</v>
       </c>
       <c r="F2282" t="s">
         <v>12</v>
@@ -80808,16 +80772,16 @@
         <v>7</v>
       </c>
       <c r="B2283" t="s">
-        <v>8170</v>
+        <v>8178</v>
       </c>
       <c r="C2283" t="s">
-        <v>8169</v>
+        <v>8177</v>
       </c>
       <c r="D2283" t="s">
-        <v>8171</v>
+        <v>8179</v>
       </c>
       <c r="E2283" t="s">
-        <v>8172</v>
+        <v>8180</v>
       </c>
       <c r="F2283" t="s">
         <v>12</v>
@@ -80831,16 +80795,16 @@
         <v>7</v>
       </c>
       <c r="B2284" t="s">
-        <v>8174</v>
+        <v>8182</v>
       </c>
       <c r="C2284" t="s">
-        <v>8173</v>
+        <v>8181</v>
       </c>
       <c r="D2284" t="s">
-        <v>8175</v>
+        <v>8183</v>
       </c>
       <c r="E2284" t="s">
-        <v>8176</v>
+        <v>8184</v>
       </c>
       <c r="F2284" t="s">
         <v>12</v>
@@ -80854,16 +80818,16 @@
         <v>7</v>
       </c>
       <c r="B2285" t="s">
-        <v>8178</v>
+        <v>8186</v>
       </c>
       <c r="C2285" t="s">
-        <v>8177</v>
+        <v>8185</v>
       </c>
       <c r="D2285" t="s">
-        <v>8179</v>
+        <v>8187</v>
       </c>
       <c r="E2285" t="s">
-        <v>8180</v>
+        <v>8188</v>
       </c>
       <c r="F2285" t="s">
         <v>12</v>
@@ -80877,16 +80841,16 @@
         <v>7</v>
       </c>
       <c r="B2286" t="s">
-        <v>8182</v>
+        <v>8190</v>
       </c>
       <c r="C2286" t="s">
-        <v>8181</v>
+        <v>8189</v>
       </c>
       <c r="D2286" t="s">
-        <v>8183</v>
+        <v>8191</v>
       </c>
       <c r="E2286" t="s">
-        <v>8184</v>
+        <v>8192</v>
       </c>
       <c r="F2286" t="s">
         <v>12</v>
@@ -80900,16 +80864,16 @@
         <v>7</v>
       </c>
       <c r="B2287" t="s">
-        <v>8186</v>
+        <v>8194</v>
       </c>
       <c r="C2287" t="s">
-        <v>8185</v>
+        <v>8193</v>
       </c>
       <c r="D2287" t="s">
-        <v>8187</v>
+        <v>8195</v>
       </c>
       <c r="E2287" t="s">
-        <v>8188</v>
+        <v>8196</v>
       </c>
       <c r="F2287" t="s">
         <v>12</v>
@@ -80923,16 +80887,16 @@
         <v>7</v>
       </c>
       <c r="B2288" t="s">
-        <v>8190</v>
+        <v>8198</v>
       </c>
       <c r="C2288" t="s">
-        <v>8189</v>
+        <v>8197</v>
       </c>
       <c r="D2288" t="s">
-        <v>8191</v>
+        <v>8199</v>
       </c>
       <c r="E2288" t="s">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="F2288" t="s">
         <v>12</v>
@@ -80946,16 +80910,16 @@
         <v>7</v>
       </c>
       <c r="B2289" t="s">
-        <v>8194</v>
+        <v>8202</v>
       </c>
       <c r="C2289" t="s">
-        <v>8193</v>
+        <v>8201</v>
       </c>
       <c r="D2289" t="s">
-        <v>8195</v>
+        <v>8203</v>
       </c>
       <c r="E2289" t="s">
-        <v>8196</v>
+        <v>8204</v>
       </c>
       <c r="F2289" t="s">
         <v>12</v>
@@ -80969,16 +80933,16 @@
         <v>7</v>
       </c>
       <c r="B2290" t="s">
-        <v>8198</v>
+        <v>8206</v>
       </c>
       <c r="C2290" t="s">
-        <v>8197</v>
+        <v>8205</v>
       </c>
       <c r="D2290" t="s">
-        <v>8199</v>
+        <v>8207</v>
       </c>
       <c r="E2290" t="s">
-        <v>8200</v>
+        <v>8208</v>
       </c>
       <c r="F2290" t="s">
         <v>12</v>
@@ -80992,16 +80956,16 @@
         <v>7</v>
       </c>
       <c r="B2291" t="s">
-        <v>8202</v>
+        <v>8210</v>
       </c>
       <c r="C2291" t="s">
-        <v>8201</v>
+        <v>8209</v>
       </c>
       <c r="D2291" t="s">
-        <v>8203</v>
+        <v>8211</v>
       </c>
       <c r="E2291" t="s">
-        <v>8204</v>
+        <v>8212</v>
       </c>
       <c r="F2291" t="s">
         <v>12</v>
@@ -81015,16 +80979,16 @@
         <v>7</v>
       </c>
       <c r="B2292" t="s">
-        <v>8206</v>
+        <v>8214</v>
       </c>
       <c r="C2292" t="s">
-        <v>8205</v>
+        <v>8213</v>
       </c>
       <c r="D2292" t="s">
-        <v>8207</v>
+        <v>8215</v>
       </c>
       <c r="E2292" t="s">
-        <v>8208</v>
+        <v>8216</v>
       </c>
       <c r="F2292" t="s">
         <v>12</v>
@@ -81038,16 +81002,16 @@
         <v>7</v>
       </c>
       <c r="B2293" t="s">
-        <v>8210</v>
+        <v>8218</v>
       </c>
       <c r="C2293" t="s">
-        <v>8209</v>
+        <v>8217</v>
       </c>
       <c r="D2293" t="s">
-        <v>8211</v>
+        <v>8219</v>
       </c>
       <c r="E2293" t="s">
-        <v>8212</v>
+        <v>8220</v>
       </c>
       <c r="F2293" t="s">
         <v>12</v>
@@ -81061,16 +81025,16 @@
         <v>7</v>
       </c>
       <c r="B2294" t="s">
-        <v>8214</v>
+        <v>8222</v>
       </c>
       <c r="C2294" t="s">
-        <v>8213</v>
+        <v>8221</v>
       </c>
       <c r="D2294" t="s">
-        <v>8215</v>
+        <v>8223</v>
       </c>
       <c r="E2294" t="s">
-        <v>8216</v>
+        <v>8224</v>
       </c>
       <c r="F2294" t="s">
         <v>12</v>
@@ -81084,16 +81048,16 @@
         <v>7</v>
       </c>
       <c r="B2295" t="s">
-        <v>8218</v>
+        <v>8226</v>
       </c>
       <c r="C2295" t="s">
-        <v>8217</v>
+        <v>8225</v>
       </c>
       <c r="D2295" t="s">
-        <v>8219</v>
+        <v>8227</v>
       </c>
       <c r="E2295" t="s">
-        <v>8220</v>
+        <v>8228</v>
       </c>
       <c r="F2295" t="s">
         <v>12</v>
@@ -81107,16 +81071,16 @@
         <v>7</v>
       </c>
       <c r="B2296" t="s">
-        <v>8222</v>
+        <v>8230</v>
       </c>
       <c r="C2296" t="s">
-        <v>8221</v>
+        <v>8229</v>
       </c>
       <c r="D2296" t="s">
-        <v>8223</v>
+        <v>8231</v>
       </c>
       <c r="E2296" t="s">
-        <v>8224</v>
+        <v>8232</v>
       </c>
       <c r="F2296" t="s">
         <v>12</v>
@@ -81130,16 +81094,16 @@
         <v>7</v>
       </c>
       <c r="B2297" t="s">
-        <v>8226</v>
+        <v>8234</v>
       </c>
       <c r="C2297" t="s">
-        <v>8225</v>
+        <v>8233</v>
       </c>
       <c r="D2297" t="s">
-        <v>8227</v>
+        <v>8235</v>
       </c>
       <c r="E2297" t="s">
-        <v>8228</v>
+        <v>8236</v>
       </c>
       <c r="F2297" t="s">
         <v>12</v>
@@ -81153,16 +81117,16 @@
         <v>7</v>
       </c>
       <c r="B2298" t="s">
-        <v>8230</v>
+        <v>8238</v>
       </c>
       <c r="C2298" t="s">
-        <v>8229</v>
+        <v>8237</v>
       </c>
       <c r="D2298" t="s">
-        <v>8231</v>
+        <v>8239</v>
       </c>
       <c r="E2298" t="s">
-        <v>8232</v>
+        <v>8240</v>
       </c>
       <c r="F2298" t="s">
         <v>12</v>
@@ -81176,16 +81140,16 @@
         <v>7</v>
       </c>
       <c r="B2299" t="s">
-        <v>8234</v>
+        <v>8242</v>
       </c>
       <c r="C2299" t="s">
-        <v>8233</v>
+        <v>8241</v>
       </c>
       <c r="D2299" t="s">
-        <v>8235</v>
+        <v>8243</v>
       </c>
       <c r="E2299" t="s">
-        <v>8236</v>
+        <v>8244</v>
       </c>
       <c r="F2299" t="s">
         <v>12</v>
@@ -81199,16 +81163,16 @@
         <v>7</v>
       </c>
       <c r="B2300" t="s">
-        <v>8238</v>
+        <v>8246</v>
       </c>
       <c r="C2300" t="s">
-        <v>8237</v>
+        <v>8245</v>
       </c>
       <c r="D2300" t="s">
-        <v>8239</v>
+        <v>8247</v>
       </c>
       <c r="E2300" t="s">
-        <v>8240</v>
+        <v>8248</v>
       </c>
       <c r="F2300" t="s">
         <v>12</v>
@@ -81222,16 +81186,16 @@
         <v>7</v>
       </c>
       <c r="B2301" t="s">
-        <v>8242</v>
+        <v>8250</v>
       </c>
       <c r="C2301" t="s">
-        <v>8241</v>
+        <v>8249</v>
       </c>
       <c r="D2301" t="s">
-        <v>8243</v>
+        <v>8251</v>
       </c>
       <c r="E2301" t="s">
-        <v>8244</v>
+        <v>8252</v>
       </c>
       <c r="F2301" t="s">
         <v>12</v>
@@ -81245,16 +81209,16 @@
         <v>7</v>
       </c>
       <c r="B2302" t="s">
-        <v>8246</v>
+        <v>8254</v>
       </c>
       <c r="C2302" t="s">
-        <v>8245</v>
+        <v>8253</v>
       </c>
       <c r="D2302" t="s">
-        <v>8247</v>
+        <v>8255</v>
       </c>
       <c r="E2302" t="s">
-        <v>8248</v>
+        <v>8256</v>
       </c>
       <c r="F2302" t="s">
         <v>12</v>
@@ -81268,16 +81232,16 @@
         <v>7</v>
       </c>
       <c r="B2303" t="s">
-        <v>8250</v>
+        <v>8258</v>
       </c>
       <c r="C2303" t="s">
-        <v>8249</v>
+        <v>8257</v>
       </c>
       <c r="D2303" t="s">
-        <v>8251</v>
+        <v>8259</v>
       </c>
       <c r="E2303" t="s">
-        <v>8252</v>
+        <v>8260</v>
       </c>
       <c r="F2303" t="s">
         <v>12</v>
@@ -81291,16 +81255,16 @@
         <v>7</v>
       </c>
       <c r="B2304" t="s">
-        <v>8254</v>
+        <v>8262</v>
       </c>
       <c r="C2304" t="s">
-        <v>8253</v>
+        <v>8261</v>
       </c>
       <c r="D2304" t="s">
-        <v>8255</v>
+        <v>8263</v>
       </c>
       <c r="E2304" t="s">
-        <v>8256</v>
+        <v>8264</v>
       </c>
       <c r="F2304" t="s">
         <v>12</v>
@@ -81314,16 +81278,16 @@
         <v>7</v>
       </c>
       <c r="B2305" t="s">
-        <v>8258</v>
+        <v>8266</v>
       </c>
       <c r="C2305" t="s">
-        <v>8257</v>
+        <v>8265</v>
       </c>
       <c r="D2305" t="s">
-        <v>8259</v>
+        <v>8267</v>
       </c>
       <c r="E2305" t="s">
-        <v>8260</v>
+        <v>8268</v>
       </c>
       <c r="F2305" t="s">
         <v>12</v>
@@ -81337,16 +81301,16 @@
         <v>7</v>
       </c>
       <c r="B2306" t="s">
-        <v>8262</v>
+        <v>8270</v>
       </c>
       <c r="C2306" t="s">
-        <v>8261</v>
+        <v>8269</v>
       </c>
       <c r="D2306" t="s">
-        <v>8263</v>
+        <v>8271</v>
       </c>
       <c r="E2306" t="s">
-        <v>8264</v>
+        <v>8272</v>
       </c>
       <c r="F2306" t="s">
         <v>12</v>
@@ -81360,16 +81324,16 @@
         <v>7</v>
       </c>
       <c r="B2307" t="s">
-        <v>8266</v>
+        <v>8274</v>
       </c>
       <c r="C2307" t="s">
-        <v>8265</v>
+        <v>8273</v>
       </c>
       <c r="D2307" t="s">
-        <v>8267</v>
+        <v>8275</v>
       </c>
       <c r="E2307" t="s">
-        <v>8268</v>
+        <v>8276</v>
       </c>
       <c r="F2307" t="s">
         <v>12</v>
@@ -81383,16 +81347,16 @@
         <v>7</v>
       </c>
       <c r="B2308" t="s">
-        <v>8270</v>
+        <v>8278</v>
       </c>
       <c r="C2308" t="s">
-        <v>8269</v>
+        <v>8277</v>
       </c>
       <c r="D2308" t="s">
-        <v>8271</v>
+        <v>8279</v>
       </c>
       <c r="E2308" t="s">
-        <v>8272</v>
+        <v>8280</v>
       </c>
       <c r="F2308" t="s">
         <v>12</v>
@@ -81406,16 +81370,16 @@
         <v>7</v>
       </c>
       <c r="B2309" t="s">
-        <v>8274</v>
+        <v>8282</v>
       </c>
       <c r="C2309" t="s">
-        <v>8273</v>
+        <v>8281</v>
       </c>
       <c r="D2309" t="s">
-        <v>8275</v>
+        <v>8283</v>
       </c>
       <c r="E2309" t="s">
-        <v>8276</v>
+        <v>8284</v>
       </c>
       <c r="F2309" t="s">
         <v>12</v>
@@ -81429,16 +81393,16 @@
         <v>7</v>
       </c>
       <c r="B2310" t="s">
-        <v>8278</v>
+        <v>8286</v>
       </c>
       <c r="C2310" t="s">
-        <v>8277</v>
+        <v>8285</v>
       </c>
       <c r="D2310" t="s">
-        <v>8279</v>
+        <v>8287</v>
       </c>
       <c r="E2310" t="s">
-        <v>8280</v>
+        <v>8288</v>
       </c>
       <c r="F2310" t="s">
         <v>12</v>
@@ -81452,16 +81416,16 @@
         <v>7</v>
       </c>
       <c r="B2311" t="s">
-        <v>8282</v>
+        <v>8290</v>
       </c>
       <c r="C2311" t="s">
-        <v>8281</v>
+        <v>8289</v>
       </c>
       <c r="D2311" t="s">
-        <v>8283</v>
+        <v>8291</v>
       </c>
       <c r="E2311" t="s">
-        <v>8284</v>
+        <v>8292</v>
       </c>
       <c r="F2311" t="s">
         <v>12</v>
@@ -81475,16 +81439,16 @@
         <v>7</v>
       </c>
       <c r="B2312" t="s">
-        <v>8286</v>
+        <v>8294</v>
       </c>
       <c r="C2312" t="s">
-        <v>8285</v>
+        <v>8293</v>
       </c>
       <c r="D2312" t="s">
-        <v>8287</v>
+        <v>8295</v>
       </c>
       <c r="E2312" t="s">
-        <v>8288</v>
+        <v>8296</v>
       </c>
       <c r="F2312" t="s">
         <v>12</v>
@@ -81498,16 +81462,16 @@
         <v>7</v>
       </c>
       <c r="B2313" t="s">
-        <v>8290</v>
+        <v>8298</v>
       </c>
       <c r="C2313" t="s">
-        <v>8289</v>
+        <v>8297</v>
       </c>
       <c r="D2313" t="s">
-        <v>8291</v>
+        <v>8299</v>
       </c>
       <c r="E2313" t="s">
-        <v>8292</v>
+        <v>8300</v>
       </c>
       <c r="F2313" t="s">
         <v>12</v>
@@ -81521,16 +81485,16 @@
         <v>7</v>
       </c>
       <c r="B2314" t="s">
-        <v>8294</v>
+        <v>8302</v>
       </c>
       <c r="C2314" t="s">
-        <v>8293</v>
+        <v>8301</v>
       </c>
       <c r="D2314" t="s">
-        <v>8295</v>
+        <v>8303</v>
       </c>
       <c r="E2314" t="s">
-        <v>8296</v>
+        <v>8304</v>
       </c>
       <c r="F2314" t="s">
         <v>12</v>
@@ -81544,16 +81508,16 @@
         <v>7</v>
       </c>
       <c r="B2315" t="s">
-        <v>8298</v>
+        <v>8306</v>
       </c>
       <c r="C2315" t="s">
-        <v>8297</v>
+        <v>8305</v>
       </c>
       <c r="D2315" t="s">
-        <v>8299</v>
+        <v>8307</v>
       </c>
       <c r="E2315" t="s">
-        <v>8300</v>
+        <v>8308</v>
       </c>
       <c r="F2315" t="s">
         <v>12</v>
@@ -81567,16 +81531,16 @@
         <v>7</v>
       </c>
       <c r="B2316" t="s">
-        <v>8302</v>
+        <v>8310</v>
       </c>
       <c r="C2316" t="s">
-        <v>8301</v>
+        <v>8309</v>
       </c>
       <c r="D2316" t="s">
-        <v>8303</v>
+        <v>8311</v>
       </c>
       <c r="E2316" t="s">
-        <v>8304</v>
+        <v>8312</v>
       </c>
       <c r="F2316" t="s">
         <v>12</v>
@@ -81590,16 +81554,16 @@
         <v>7</v>
       </c>
       <c r="B2317" t="s">
-        <v>8306</v>
+        <v>8314</v>
       </c>
       <c r="C2317" t="s">
-        <v>8305</v>
+        <v>8313</v>
       </c>
       <c r="D2317" t="s">
-        <v>8307</v>
+        <v>8315</v>
       </c>
       <c r="E2317" t="s">
-        <v>8308</v>
+        <v>8316</v>
       </c>
       <c r="F2317" t="s">
         <v>12</v>
@@ -81613,16 +81577,16 @@
         <v>7</v>
       </c>
       <c r="B2318" t="s">
-        <v>8310</v>
+        <v>8318</v>
       </c>
       <c r="C2318" t="s">
-        <v>8309</v>
+        <v>8317</v>
       </c>
       <c r="D2318" t="s">
-        <v>8311</v>
+        <v>8319</v>
       </c>
       <c r="E2318" t="s">
-        <v>8312</v>
+        <v>8320</v>
       </c>
       <c r="F2318" t="s">
         <v>12</v>
@@ -81636,16 +81600,16 @@
         <v>7</v>
       </c>
       <c r="B2319" t="s">
-        <v>8314</v>
+        <v>8322</v>
       </c>
       <c r="C2319" t="s">
-        <v>8313</v>
+        <v>8321</v>
       </c>
       <c r="D2319" t="s">
-        <v>8315</v>
+        <v>8323</v>
       </c>
       <c r="E2319" t="s">
-        <v>8316</v>
+        <v>8324</v>
       </c>
       <c r="F2319" t="s">
         <v>12</v>
@@ -81659,16 +81623,16 @@
         <v>7</v>
       </c>
       <c r="B2320" t="s">
-        <v>8318</v>
+        <v>8326</v>
       </c>
       <c r="C2320" t="s">
-        <v>8317</v>
+        <v>8325</v>
       </c>
       <c r="D2320" t="s">
-        <v>8319</v>
+        <v>8327</v>
       </c>
       <c r="E2320" t="s">
-        <v>8320</v>
+        <v>8328</v>
       </c>
       <c r="F2320" t="s">
         <v>12</v>
@@ -81682,16 +81646,16 @@
         <v>7</v>
       </c>
       <c r="B2321" t="s">
-        <v>8322</v>
+        <v>8330</v>
       </c>
       <c r="C2321" t="s">
-        <v>8321</v>
+        <v>8329</v>
       </c>
       <c r="D2321" t="s">
-        <v>8323</v>
+        <v>8331</v>
       </c>
       <c r="E2321" t="s">
-        <v>8324</v>
+        <v>8332</v>
       </c>
       <c r="F2321" t="s">
         <v>12</v>
@@ -81705,16 +81669,16 @@
         <v>7</v>
       </c>
       <c r="B2322" t="s">
-        <v>8326</v>
+        <v>8334</v>
       </c>
       <c r="C2322" t="s">
-        <v>8325</v>
+        <v>8333</v>
       </c>
       <c r="D2322" t="s">
-        <v>8327</v>
+        <v>8335</v>
       </c>
       <c r="E2322" t="s">
-        <v>8328</v>
+        <v>8336</v>
       </c>
       <c r="F2322" t="s">
         <v>12</v>
@@ -81728,16 +81692,16 @@
         <v>7</v>
       </c>
       <c r="B2323" t="s">
-        <v>8330</v>
+        <v>8338</v>
       </c>
       <c r="C2323" t="s">
-        <v>8329</v>
+        <v>8337</v>
       </c>
       <c r="D2323" t="s">
-        <v>8331</v>
+        <v>8339</v>
       </c>
       <c r="E2323" t="s">
-        <v>8332</v>
+        <v>8340</v>
       </c>
       <c r="F2323" t="s">
         <v>12</v>
@@ -81751,16 +81715,16 @@
         <v>7</v>
       </c>
       <c r="B2324" t="s">
-        <v>8334</v>
+        <v>8342</v>
       </c>
       <c r="C2324" t="s">
-        <v>8333</v>
+        <v>8341</v>
       </c>
       <c r="D2324" t="s">
-        <v>8335</v>
+        <v>8343</v>
       </c>
       <c r="E2324" t="s">
-        <v>8336</v>
+        <v>8344</v>
       </c>
       <c r="F2324" t="s">
         <v>12</v>
@@ -81774,16 +81738,16 @@
         <v>7</v>
       </c>
       <c r="B2325" t="s">
-        <v>8338</v>
+        <v>8346</v>
       </c>
       <c r="C2325" t="s">
-        <v>8337</v>
+        <v>8345</v>
       </c>
       <c r="D2325" t="s">
-        <v>8339</v>
+        <v>8347</v>
       </c>
       <c r="E2325" t="s">
-        <v>8340</v>
+        <v>8348</v>
       </c>
       <c r="F2325" t="s">
         <v>12</v>
@@ -81797,16 +81761,16 @@
         <v>7</v>
       </c>
       <c r="B2326" t="s">
-        <v>8342</v>
+        <v>8350</v>
       </c>
       <c r="C2326" t="s">
-        <v>8341</v>
+        <v>8349</v>
       </c>
       <c r="D2326" t="s">
-        <v>8343</v>
+        <v>8351</v>
       </c>
       <c r="E2326" t="s">
-        <v>8344</v>
+        <v>8352</v>
       </c>
       <c r="F2326" t="s">
         <v>12</v>
@@ -81820,16 +81784,16 @@
         <v>7</v>
       </c>
       <c r="B2327" t="s">
-        <v>8346</v>
+        <v>8354</v>
       </c>
       <c r="C2327" t="s">
-        <v>8345</v>
+        <v>8353</v>
       </c>
       <c r="D2327" t="s">
-        <v>8347</v>
+        <v>8355</v>
       </c>
       <c r="E2327" t="s">
-        <v>8348</v>
+        <v>8356</v>
       </c>
       <c r="F2327" t="s">
         <v>12</v>
@@ -81843,16 +81807,16 @@
         <v>7</v>
       </c>
       <c r="B2328" t="s">
-        <v>8350</v>
+        <v>8358</v>
       </c>
       <c r="C2328" t="s">
-        <v>8349</v>
+        <v>8357</v>
       </c>
       <c r="D2328" t="s">
-        <v>8351</v>
+        <v>8359</v>
       </c>
       <c r="E2328" t="s">
-        <v>8352</v>
+        <v>8360</v>
       </c>
       <c r="F2328" t="s">
         <v>12</v>
@@ -81866,16 +81830,16 @@
         <v>7</v>
       </c>
       <c r="B2329" t="s">
-        <v>8354</v>
+        <v>8362</v>
       </c>
       <c r="C2329" t="s">
-        <v>8353</v>
+        <v>8361</v>
       </c>
       <c r="D2329" t="s">
-        <v>8355</v>
+        <v>8363</v>
       </c>
       <c r="E2329" t="s">
-        <v>8356</v>
+        <v>8364</v>
       </c>
       <c r="F2329" t="s">
         <v>12</v>
@@ -81889,16 +81853,16 @@
         <v>7</v>
       </c>
       <c r="B2330" t="s">
-        <v>8358</v>
+        <v>8366</v>
       </c>
       <c r="C2330" t="s">
-        <v>8357</v>
+        <v>8365</v>
       </c>
       <c r="D2330" t="s">
-        <v>8359</v>
+        <v>8367</v>
       </c>
       <c r="E2330" t="s">
-        <v>8360</v>
+        <v>8368</v>
       </c>
       <c r="F2330" t="s">
         <v>12</v>
@@ -81912,16 +81876,16 @@
         <v>7</v>
       </c>
       <c r="B2331" t="s">
-        <v>8362</v>
+        <v>8370</v>
       </c>
       <c r="C2331" t="s">
-        <v>8361</v>
+        <v>8369</v>
       </c>
       <c r="D2331" t="s">
-        <v>8363</v>
+        <v>8371</v>
       </c>
       <c r="E2331" t="s">
-        <v>8364</v>
+        <v>8372</v>
       </c>
       <c r="F2331" t="s">
         <v>12</v>
@@ -81935,16 +81899,16 @@
         <v>7</v>
       </c>
       <c r="B2332" t="s">
-        <v>8366</v>
+        <v>8374</v>
       </c>
       <c r="C2332" t="s">
-        <v>8365</v>
+        <v>8373</v>
       </c>
       <c r="D2332" t="s">
-        <v>8367</v>
+        <v>8375</v>
       </c>
       <c r="E2332" t="s">
-        <v>8368</v>
+        <v>8376</v>
       </c>
       <c r="F2332" t="s">
         <v>12</v>
@@ -81958,16 +81922,16 @@
         <v>7</v>
       </c>
       <c r="B2333" t="s">
-        <v>8370</v>
+        <v>8378</v>
       </c>
       <c r="C2333" t="s">
-        <v>8369</v>
+        <v>8377</v>
       </c>
       <c r="D2333" t="s">
-        <v>8371</v>
+        <v>8379</v>
       </c>
       <c r="E2333" t="s">
-        <v>8372</v>
+        <v>8380</v>
       </c>
       <c r="F2333" t="s">
         <v>12</v>
@@ -81981,16 +81945,16 @@
         <v>7</v>
       </c>
       <c r="B2334" t="s">
-        <v>8374</v>
+        <v>8382</v>
       </c>
       <c r="C2334" t="s">
-        <v>8373</v>
+        <v>8381</v>
       </c>
       <c r="D2334" t="s">
-        <v>8375</v>
+        <v>8383</v>
       </c>
       <c r="E2334" t="s">
-        <v>8376</v>
+        <v>8384</v>
       </c>
       <c r="F2334" t="s">
         <v>12</v>
@@ -82004,16 +81968,16 @@
         <v>7</v>
       </c>
       <c r="B2335" t="s">
-        <v>8378</v>
+        <v>8386</v>
       </c>
       <c r="C2335" t="s">
-        <v>8377</v>
+        <v>8385</v>
       </c>
       <c r="D2335" t="s">
-        <v>8379</v>
+        <v>8387</v>
       </c>
       <c r="E2335" t="s">
-        <v>8380</v>
+        <v>8388</v>
       </c>
       <c r="F2335" t="s">
         <v>12</v>
@@ -82027,16 +81991,16 @@
         <v>7</v>
       </c>
       <c r="B2336" t="s">
-        <v>8382</v>
+        <v>8390</v>
       </c>
       <c r="C2336" t="s">
-        <v>8381</v>
+        <v>8389</v>
       </c>
       <c r="D2336" t="s">
-        <v>8383</v>
+        <v>8391</v>
       </c>
       <c r="E2336" t="s">
-        <v>8384</v>
+        <v>8392</v>
       </c>
       <c r="F2336" t="s">
         <v>12</v>
@@ -82050,16 +82014,16 @@
         <v>7</v>
       </c>
       <c r="B2337" t="s">
-        <v>8386</v>
+        <v>8394</v>
       </c>
       <c r="C2337" t="s">
-        <v>8385</v>
+        <v>8393</v>
       </c>
       <c r="D2337" t="s">
-        <v>8387</v>
+        <v>8395</v>
       </c>
       <c r="E2337" t="s">
-        <v>8388</v>
+        <v>8396</v>
       </c>
       <c r="F2337" t="s">
         <v>12</v>
@@ -82073,16 +82037,16 @@
         <v>7</v>
       </c>
       <c r="B2338" t="s">
-        <v>8390</v>
+        <v>8398</v>
       </c>
       <c r="C2338" t="s">
-        <v>8389</v>
+        <v>8397</v>
       </c>
       <c r="D2338" t="s">
-        <v>8391</v>
+        <v>8399</v>
       </c>
       <c r="E2338" t="s">
-        <v>8392</v>
+        <v>8400</v>
       </c>
       <c r="F2338" t="s">
         <v>12</v>
@@ -82096,16 +82060,16 @@
         <v>7</v>
       </c>
       <c r="B2339" t="s">
-        <v>8394</v>
+        <v>8402</v>
       </c>
       <c r="C2339" t="s">
-        <v>8393</v>
+        <v>8401</v>
       </c>
       <c r="D2339" t="s">
-        <v>8395</v>
+        <v>8403</v>
       </c>
       <c r="E2339" t="s">
-        <v>8396</v>
+        <v>8404</v>
       </c>
       <c r="F2339" t="s">
         <v>12</v>
@@ -82119,16 +82083,16 @@
         <v>7</v>
       </c>
       <c r="B2340" t="s">
-        <v>8398</v>
+        <v>8406</v>
       </c>
       <c r="C2340" t="s">
-        <v>8397</v>
+        <v>8405</v>
       </c>
       <c r="D2340" t="s">
-        <v>8399</v>
+        <v>8407</v>
       </c>
       <c r="E2340" t="s">
-        <v>8400</v>
+        <v>8408</v>
       </c>
       <c r="F2340" t="s">
         <v>12</v>
@@ -82142,16 +82106,16 @@
         <v>7</v>
       </c>
       <c r="B2341" t="s">
-        <v>8402</v>
+        <v>8410</v>
       </c>
       <c r="C2341" t="s">
-        <v>8401</v>
+        <v>8409</v>
       </c>
       <c r="D2341" t="s">
-        <v>8403</v>
+        <v>8411</v>
       </c>
       <c r="E2341" t="s">
-        <v>8404</v>
+        <v>8412</v>
       </c>
       <c r="F2341" t="s">
         <v>12</v>
@@ -82165,16 +82129,16 @@
         <v>7</v>
       </c>
       <c r="B2342" t="s">
-        <v>8406</v>
+        <v>8414</v>
       </c>
       <c r="C2342" t="s">
-        <v>8405</v>
+        <v>8413</v>
       </c>
       <c r="D2342" t="s">
-        <v>8407</v>
+        <v>8415</v>
       </c>
       <c r="E2342" t="s">
-        <v>8408</v>
+        <v>8416</v>
       </c>
       <c r="F2342" t="s">
         <v>12</v>
@@ -82188,16 +82152,16 @@
         <v>7</v>
       </c>
       <c r="B2343" t="s">
-        <v>8410</v>
+        <v>8418</v>
       </c>
       <c r="C2343" t="s">
-        <v>8409</v>
+        <v>8417</v>
       </c>
       <c r="D2343" t="s">
-        <v>8411</v>
+        <v>8419</v>
       </c>
       <c r="E2343" t="s">
-        <v>8412</v>
+        <v>8420</v>
       </c>
       <c r="F2343" t="s">
         <v>12</v>
@@ -82211,16 +82175,16 @@
         <v>7</v>
       </c>
       <c r="B2344" t="s">
-        <v>8414</v>
+        <v>8422</v>
       </c>
       <c r="C2344" t="s">
-        <v>8413</v>
+        <v>8421</v>
       </c>
       <c r="D2344" t="s">
-        <v>8415</v>
+        <v>8423</v>
       </c>
       <c r="E2344" t="s">
-        <v>8416</v>
+        <v>8424</v>
       </c>
       <c r="F2344" t="s">
         <v>12</v>
@@ -82234,16 +82198,16 @@
         <v>7</v>
       </c>
       <c r="B2345" t="s">
-        <v>8418</v>
+        <v>8426</v>
       </c>
       <c r="C2345" t="s">
-        <v>8417</v>
+        <v>8425</v>
       </c>
       <c r="D2345" t="s">
-        <v>8419</v>
+        <v>8427</v>
       </c>
       <c r="E2345" t="s">
-        <v>8420</v>
+        <v>8428</v>
       </c>
       <c r="F2345" t="s">
         <v>12</v>
@@ -82257,16 +82221,16 @@
         <v>7</v>
       </c>
       <c r="B2346" t="s">
-        <v>8422</v>
+        <v>8430</v>
       </c>
       <c r="C2346" t="s">
-        <v>8421</v>
+        <v>8429</v>
       </c>
       <c r="D2346" t="s">
-        <v>8423</v>
+        <v>8431</v>
       </c>
       <c r="E2346" t="s">
-        <v>8424</v>
+        <v>8432</v>
       </c>
       <c r="F2346" t="s">
         <v>12</v>
@@ -82280,16 +82244,16 @@
         <v>7</v>
       </c>
       <c r="B2347" t="s">
-        <v>8426</v>
+        <v>8434</v>
       </c>
       <c r="C2347" t="s">
-        <v>8425</v>
+        <v>8433</v>
       </c>
       <c r="D2347" t="s">
-        <v>8427</v>
+        <v>8435</v>
       </c>
       <c r="E2347" t="s">
-        <v>8428</v>
+        <v>8436</v>
       </c>
       <c r="F2347" t="s">
         <v>12</v>
@@ -82303,16 +82267,16 @@
         <v>7</v>
       </c>
       <c r="B2348" t="s">
-        <v>8430</v>
+        <v>8438</v>
       </c>
       <c r="C2348" t="s">
-        <v>8429</v>
+        <v>8437</v>
       </c>
       <c r="D2348" t="s">
-        <v>8431</v>
+        <v>8439</v>
       </c>
       <c r="E2348" t="s">
-        <v>8432</v>
+        <v>8440</v>
       </c>
       <c r="F2348" t="s">
         <v>12</v>
@@ -82326,16 +82290,16 @@
         <v>7</v>
       </c>
       <c r="B2349" t="s">
-        <v>8434</v>
+        <v>8442</v>
       </c>
       <c r="C2349" t="s">
-        <v>8433</v>
+        <v>8441</v>
       </c>
       <c r="D2349" t="s">
-        <v>8435</v>
+        <v>8443</v>
       </c>
       <c r="E2349" t="s">
-        <v>8436</v>
+        <v>8444</v>
       </c>
       <c r="F2349" t="s">
         <v>12</v>
@@ -82349,16 +82313,16 @@
         <v>7</v>
       </c>
       <c r="B2350" t="s">
-        <v>8438</v>
+        <v>8446</v>
       </c>
       <c r="C2350" t="s">
-        <v>8437</v>
+        <v>8445</v>
       </c>
       <c r="D2350" t="s">
-        <v>8439</v>
+        <v>8447</v>
       </c>
       <c r="E2350" t="s">
-        <v>8440</v>
+        <v>8448</v>
       </c>
       <c r="F2350" t="s">
         <v>12</v>
@@ -82372,16 +82336,16 @@
         <v>7</v>
       </c>
       <c r="B2351" t="s">
-        <v>8442</v>
+        <v>8450</v>
       </c>
       <c r="C2351" t="s">
-        <v>8441</v>
+        <v>8449</v>
       </c>
       <c r="D2351" t="s">
-        <v>8443</v>
+        <v>8451</v>
       </c>
       <c r="E2351" t="s">
-        <v>8444</v>
+        <v>8452</v>
       </c>
       <c r="F2351" t="s">
         <v>12</v>
@@ -82395,16 +82359,16 @@
         <v>7</v>
       </c>
       <c r="B2352" t="s">
-        <v>8446</v>
+        <v>8454</v>
       </c>
       <c r="C2352" t="s">
-        <v>8445</v>
+        <v>8453</v>
       </c>
       <c r="D2352" t="s">
-        <v>8447</v>
+        <v>8455</v>
       </c>
       <c r="E2352" t="s">
-        <v>8448</v>
+        <v>8456</v>
       </c>
       <c r="F2352" t="s">
         <v>12</v>
@@ -82418,16 +82382,16 @@
         <v>7</v>
       </c>
       <c r="B2353" t="s">
-        <v>8450</v>
+        <v>8458</v>
       </c>
       <c r="C2353" t="s">
-        <v>8449</v>
+        <v>8457</v>
       </c>
       <c r="D2353" t="s">
-        <v>8451</v>
+        <v>8459</v>
       </c>
       <c r="E2353" t="s">
-        <v>8452</v>
+        <v>8460</v>
       </c>
       <c r="F2353" t="s">
         <v>12</v>
@@ -82441,16 +82405,16 @@
         <v>7</v>
       </c>
       <c r="B2354" t="s">
-        <v>8454</v>
+        <v>8462</v>
       </c>
       <c r="C2354" t="s">
-        <v>8453</v>
+        <v>8461</v>
       </c>
       <c r="D2354" t="s">
-        <v>8455</v>
+        <v>8463</v>
       </c>
       <c r="E2354" t="s">
-        <v>8456</v>
+        <v>8464</v>
       </c>
       <c r="F2354" t="s">
         <v>12</v>
@@ -82464,16 +82428,16 @@
         <v>7</v>
       </c>
       <c r="B2355" t="s">
-        <v>8458</v>
+        <v>8466</v>
       </c>
       <c r="C2355" t="s">
-        <v>8457</v>
+        <v>8465</v>
       </c>
       <c r="D2355" t="s">
-        <v>8459</v>
+        <v>8467</v>
       </c>
       <c r="E2355" t="s">
-        <v>8460</v>
+        <v>8468</v>
       </c>
       <c r="F2355" t="s">
         <v>12</v>
@@ -82487,16 +82451,16 @@
         <v>7</v>
       </c>
       <c r="B2356" t="s">
-        <v>8462</v>
+        <v>8470</v>
       </c>
       <c r="C2356" t="s">
-        <v>8461</v>
+        <v>8469</v>
       </c>
       <c r="D2356" t="s">
-        <v>8463</v>
+        <v>8471</v>
       </c>
       <c r="E2356" t="s">
-        <v>8464</v>
+        <v>8472</v>
       </c>
       <c r="F2356" t="s">
         <v>12</v>
@@ -82510,16 +82474,16 @@
         <v>7</v>
       </c>
       <c r="B2357" t="s">
-        <v>8466</v>
+        <v>8474</v>
       </c>
       <c r="C2357" t="s">
-        <v>8465</v>
+        <v>8473</v>
       </c>
       <c r="D2357" t="s">
-        <v>8467</v>
+        <v>8475</v>
       </c>
       <c r="E2357" t="s">
-        <v>8468</v>
+        <v>8476</v>
       </c>
       <c r="F2357" t="s">
         <v>12</v>
@@ -82533,16 +82497,16 @@
         <v>7</v>
       </c>
       <c r="B2358" t="s">
-        <v>8470</v>
+        <v>8478</v>
       </c>
       <c r="C2358" t="s">
-        <v>8469</v>
+        <v>8477</v>
       </c>
       <c r="D2358" t="s">
-        <v>8471</v>
+        <v>8479</v>
       </c>
       <c r="E2358" t="s">
-        <v>8472</v>
+        <v>8480</v>
       </c>
       <c r="F2358" t="s">
         <v>12</v>
@@ -82556,16 +82520,16 @@
         <v>7</v>
       </c>
       <c r="B2359" t="s">
-        <v>8474</v>
+        <v>8482</v>
       </c>
       <c r="C2359" t="s">
-        <v>8473</v>
+        <v>8481</v>
       </c>
       <c r="D2359" t="s">
-        <v>8475</v>
+        <v>8483</v>
       </c>
       <c r="E2359" t="s">
-        <v>8476</v>
+        <v>8484</v>
       </c>
       <c r="F2359" t="s">
         <v>12</v>
@@ -82579,16 +82543,16 @@
         <v>7</v>
       </c>
       <c r="B2360" t="s">
-        <v>8478</v>
+        <v>8486</v>
       </c>
       <c r="C2360" t="s">
-        <v>8477</v>
+        <v>8485</v>
       </c>
       <c r="D2360" t="s">
-        <v>8479</v>
+        <v>8487</v>
       </c>
       <c r="E2360" t="s">
-        <v>8480</v>
+        <v>8488</v>
       </c>
       <c r="F2360" t="s">
         <v>12</v>
@@ -82602,16 +82566,16 @@
         <v>7</v>
       </c>
       <c r="B2361" t="s">
-        <v>8482</v>
+        <v>8490</v>
       </c>
       <c r="C2361" t="s">
-        <v>8481</v>
+        <v>8489</v>
       </c>
       <c r="D2361" t="s">
-        <v>8483</v>
+        <v>8491</v>
       </c>
       <c r="E2361" t="s">
-        <v>8484</v>
+        <v>8492</v>
       </c>
       <c r="F2361" t="s">
         <v>12</v>
@@ -82625,16 +82589,16 @@
         <v>7</v>
       </c>
       <c r="B2362" t="s">
-        <v>8486</v>
+        <v>8494</v>
       </c>
       <c r="C2362" t="s">
-        <v>8485</v>
+        <v>8493</v>
       </c>
       <c r="D2362" t="s">
-        <v>8487</v>
+        <v>8495</v>
       </c>
       <c r="E2362" t="s">
-        <v>8488</v>
+        <v>8496</v>
       </c>
       <c r="F2362" t="s">
         <v>12</v>
@@ -82648,16 +82612,16 @@
         <v>7</v>
       </c>
       <c r="B2363" t="s">
-        <v>8490</v>
+        <v>8498</v>
       </c>
       <c r="C2363" t="s">
-        <v>8489</v>
+        <v>8497</v>
       </c>
       <c r="D2363" t="s">
-        <v>8491</v>
+        <v>8499</v>
       </c>
       <c r="E2363" t="s">
-        <v>8492</v>
+        <v>8500</v>
       </c>
       <c r="F2363" t="s">
         <v>12</v>
@@ -82671,16 +82635,16 @@
         <v>7</v>
       </c>
       <c r="B2364" t="s">
-        <v>8494</v>
+        <v>8502</v>
       </c>
       <c r="C2364" t="s">
-        <v>8493</v>
+        <v>8501</v>
       </c>
       <c r="D2364" t="s">
-        <v>8495</v>
+        <v>8503</v>
       </c>
       <c r="E2364" t="s">
-        <v>8496</v>
+        <v>8504</v>
       </c>
       <c r="F2364" t="s">
         <v>12</v>
@@ -82694,16 +82658,16 @@
         <v>7</v>
       </c>
       <c r="B2365" t="s">
-        <v>8498</v>
+        <v>8506</v>
       </c>
       <c r="C2365" t="s">
-        <v>8497</v>
+        <v>8505</v>
       </c>
       <c r="D2365" t="s">
-        <v>8499</v>
+        <v>8507</v>
       </c>
       <c r="E2365" t="s">
-        <v>8500</v>
+        <v>8508</v>
       </c>
       <c r="F2365" t="s">
         <v>12</v>
@@ -82717,16 +82681,16 @@
         <v>7</v>
       </c>
       <c r="B2366" t="s">
-        <v>8502</v>
+        <v>8510</v>
       </c>
       <c r="C2366" t="s">
-        <v>8501</v>
+        <v>8509</v>
       </c>
       <c r="D2366" t="s">
-        <v>8503</v>
+        <v>8511</v>
       </c>
       <c r="E2366" t="s">
-        <v>8504</v>
+        <v>8512</v>
       </c>
       <c r="F2366" t="s">
         <v>12</v>
@@ -82739,23 +82703,20 @@
       <c r="A2367" t="s">
         <v>7</v>
       </c>
-      <c r="B2367" t="s">
-        <v>8506</v>
-      </c>
       <c r="C2367" t="s">
-        <v>8505</v>
+        <v>8513</v>
       </c>
       <c r="D2367" t="s">
-        <v>8507</v>
+        <v>8514</v>
       </c>
       <c r="E2367" t="s">
-        <v>8508</v>
+        <v>8515</v>
       </c>
       <c r="F2367" t="s">
         <v>12</v>
       </c>
       <c r="G2367" t="s">
-        <v>8826</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="2368" spans="1:7" x14ac:dyDescent="0.25">
@@ -82763,16 +82724,16 @@
         <v>7</v>
       </c>
       <c r="B2368" t="s">
-        <v>8510</v>
+        <v>8517</v>
       </c>
       <c r="C2368" t="s">
-        <v>8509</v>
+        <v>8516</v>
       </c>
       <c r="D2368" t="s">
-        <v>8511</v>
+        <v>8518</v>
       </c>
       <c r="E2368" t="s">
-        <v>8512</v>
+        <v>8519</v>
       </c>
       <c r="F2368" t="s">
         <v>12</v>
@@ -82785,20 +82746,23 @@
       <c r="A2369" t="s">
         <v>7</v>
       </c>
+      <c r="B2369" t="s">
+        <v>8521</v>
+      </c>
       <c r="C2369" t="s">
-        <v>8513</v>
+        <v>8520</v>
       </c>
       <c r="D2369" t="s">
-        <v>8514</v>
+        <v>8522</v>
       </c>
       <c r="E2369" t="s">
-        <v>8515</v>
+        <v>8523</v>
       </c>
       <c r="F2369" t="s">
         <v>12</v>
       </c>
       <c r="G2369" t="s">
-        <v>8825</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="2370" spans="1:7" x14ac:dyDescent="0.25">
@@ -82806,16 +82770,16 @@
         <v>7</v>
       </c>
       <c r="B2370" t="s">
-        <v>8517</v>
+        <v>8525</v>
       </c>
       <c r="C2370" t="s">
-        <v>8516</v>
+        <v>8524</v>
       </c>
       <c r="D2370" t="s">
-        <v>8518</v>
+        <v>8526</v>
       </c>
       <c r="E2370" t="s">
-        <v>8519</v>
+        <v>8527</v>
       </c>
       <c r="F2370" t="s">
         <v>12</v>
@@ -82829,16 +82793,16 @@
         <v>7</v>
       </c>
       <c r="B2371" t="s">
-        <v>8521</v>
+        <v>8529</v>
       </c>
       <c r="C2371" t="s">
-        <v>8520</v>
+        <v>8528</v>
       </c>
       <c r="D2371" t="s">
-        <v>8522</v>
+        <v>8530</v>
       </c>
       <c r="E2371" t="s">
-        <v>8523</v>
+        <v>8531</v>
       </c>
       <c r="F2371" t="s">
         <v>12</v>
@@ -82852,16 +82816,16 @@
         <v>7</v>
       </c>
       <c r="B2372" t="s">
-        <v>8525</v>
+        <v>8533</v>
       </c>
       <c r="C2372" t="s">
-        <v>8524</v>
+        <v>8532</v>
       </c>
       <c r="D2372" t="s">
-        <v>8526</v>
+        <v>8534</v>
       </c>
       <c r="E2372" t="s">
-        <v>8527</v>
+        <v>8535</v>
       </c>
       <c r="F2372" t="s">
         <v>12</v>
@@ -82875,16 +82839,16 @@
         <v>7</v>
       </c>
       <c r="B2373" t="s">
-        <v>8529</v>
+        <v>8537</v>
       </c>
       <c r="C2373" t="s">
-        <v>8528</v>
+        <v>8536</v>
       </c>
       <c r="D2373" t="s">
-        <v>8530</v>
+        <v>8538</v>
       </c>
       <c r="E2373" t="s">
-        <v>8531</v>
+        <v>8539</v>
       </c>
       <c r="F2373" t="s">
         <v>12</v>
@@ -82898,19 +82862,16 @@
         <v>7</v>
       </c>
       <c r="B2374" t="s">
-        <v>8533</v>
-      </c>
-      <c r="C2374" t="s">
-        <v>8532</v>
+        <v>9297</v>
       </c>
       <c r="D2374" t="s">
-        <v>8534</v>
+        <v>9078</v>
       </c>
       <c r="E2374" t="s">
-        <v>8535</v>
+        <v>9534</v>
       </c>
       <c r="F2374" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2374" t="s">
         <v>8826</v>
@@ -82921,16 +82882,16 @@
         <v>7</v>
       </c>
       <c r="B2375" t="s">
-        <v>8537</v>
+        <v>8541</v>
       </c>
       <c r="C2375" t="s">
-        <v>8536</v>
+        <v>8540</v>
       </c>
       <c r="D2375" t="s">
-        <v>8538</v>
+        <v>8542</v>
       </c>
       <c r="E2375" t="s">
-        <v>8539</v>
+        <v>8543</v>
       </c>
       <c r="F2375" t="s">
         <v>12</v>
@@ -82944,16 +82905,19 @@
         <v>7</v>
       </c>
       <c r="B2376" t="s">
-        <v>9301</v>
+        <v>8545</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>8544</v>
       </c>
       <c r="D2376" t="s">
-        <v>9080</v>
+        <v>8546</v>
       </c>
       <c r="E2376" t="s">
-        <v>9540</v>
+        <v>8547</v>
       </c>
       <c r="F2376" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2376" t="s">
         <v>8826</v>
@@ -82964,16 +82928,16 @@
         <v>7</v>
       </c>
       <c r="B2377" t="s">
-        <v>8541</v>
+        <v>8549</v>
       </c>
       <c r="C2377" t="s">
-        <v>8540</v>
+        <v>8548</v>
       </c>
       <c r="D2377" t="s">
-        <v>8542</v>
+        <v>8550</v>
       </c>
       <c r="E2377" t="s">
-        <v>8543</v>
+        <v>8551</v>
       </c>
       <c r="F2377" t="s">
         <v>12</v>
@@ -82987,16 +82951,16 @@
         <v>7</v>
       </c>
       <c r="B2378" t="s">
-        <v>8545</v>
+        <v>8553</v>
       </c>
       <c r="C2378" t="s">
-        <v>8544</v>
+        <v>8552</v>
       </c>
       <c r="D2378" t="s">
-        <v>8546</v>
+        <v>8554</v>
       </c>
       <c r="E2378" t="s">
-        <v>8547</v>
+        <v>8555</v>
       </c>
       <c r="F2378" t="s">
         <v>12</v>
@@ -83010,16 +82974,16 @@
         <v>7</v>
       </c>
       <c r="B2379" t="s">
-        <v>8549</v>
+        <v>8557</v>
       </c>
       <c r="C2379" t="s">
-        <v>8548</v>
+        <v>8556</v>
       </c>
       <c r="D2379" t="s">
-        <v>8550</v>
+        <v>8558</v>
       </c>
       <c r="E2379" t="s">
-        <v>8551</v>
+        <v>8559</v>
       </c>
       <c r="F2379" t="s">
         <v>12</v>
@@ -83033,16 +82997,16 @@
         <v>7</v>
       </c>
       <c r="B2380" t="s">
-        <v>8553</v>
+        <v>8561</v>
       </c>
       <c r="C2380" t="s">
-        <v>8552</v>
+        <v>8560</v>
       </c>
       <c r="D2380" t="s">
-        <v>8554</v>
+        <v>8562</v>
       </c>
       <c r="E2380" t="s">
-        <v>8555</v>
+        <v>8563</v>
       </c>
       <c r="F2380" t="s">
         <v>12</v>
@@ -83056,16 +83020,16 @@
         <v>7</v>
       </c>
       <c r="B2381" t="s">
-        <v>8557</v>
+        <v>8565</v>
       </c>
       <c r="C2381" t="s">
-        <v>8556</v>
+        <v>8564</v>
       </c>
       <c r="D2381" t="s">
-        <v>8558</v>
+        <v>8566</v>
       </c>
       <c r="E2381" t="s">
-        <v>8559</v>
+        <v>8567</v>
       </c>
       <c r="F2381" t="s">
         <v>12</v>
@@ -83079,22 +83043,22 @@
         <v>7</v>
       </c>
       <c r="B2382" t="s">
-        <v>8561</v>
+        <v>8569</v>
       </c>
       <c r="C2382" t="s">
-        <v>8560</v>
+        <v>8568</v>
       </c>
       <c r="D2382" t="s">
-        <v>8562</v>
+        <v>8570</v>
       </c>
       <c r="E2382" t="s">
-        <v>8563</v>
+        <v>8571</v>
       </c>
       <c r="F2382" t="s">
         <v>12</v>
       </c>
       <c r="G2382" t="s">
-        <v>8826</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="2383" spans="1:7" x14ac:dyDescent="0.25">
@@ -83102,16 +83066,16 @@
         <v>7</v>
       </c>
       <c r="B2383" t="s">
-        <v>8565</v>
+        <v>8573</v>
       </c>
       <c r="C2383" t="s">
-        <v>8564</v>
+        <v>8572</v>
       </c>
       <c r="D2383" t="s">
-        <v>8566</v>
+        <v>8574</v>
       </c>
       <c r="E2383" t="s">
-        <v>8567</v>
+        <v>8575</v>
       </c>
       <c r="F2383" t="s">
         <v>12</v>
@@ -83125,22 +83089,22 @@
         <v>7</v>
       </c>
       <c r="B2384" t="s">
-        <v>8569</v>
+        <v>8577</v>
       </c>
       <c r="C2384" t="s">
-        <v>8568</v>
+        <v>8576</v>
       </c>
       <c r="D2384" t="s">
-        <v>8570</v>
+        <v>8578</v>
       </c>
       <c r="E2384" t="s">
-        <v>8571</v>
+        <v>8579</v>
       </c>
       <c r="F2384" t="s">
         <v>12</v>
       </c>
       <c r="G2384" t="s">
-        <v>8825</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="2385" spans="1:7" x14ac:dyDescent="0.25">
@@ -83148,16 +83112,16 @@
         <v>7</v>
       </c>
       <c r="B2385" t="s">
-        <v>8573</v>
+        <v>8581</v>
       </c>
       <c r="C2385" t="s">
-        <v>8572</v>
+        <v>8580</v>
       </c>
       <c r="D2385" t="s">
-        <v>8574</v>
+        <v>8582</v>
       </c>
       <c r="E2385" t="s">
-        <v>8575</v>
+        <v>8583</v>
       </c>
       <c r="F2385" t="s">
         <v>12</v>
@@ -83171,16 +83135,16 @@
         <v>7</v>
       </c>
       <c r="B2386" t="s">
-        <v>8577</v>
+        <v>8585</v>
       </c>
       <c r="C2386" t="s">
-        <v>8576</v>
+        <v>8584</v>
       </c>
       <c r="D2386" t="s">
-        <v>8578</v>
+        <v>8586</v>
       </c>
       <c r="E2386" t="s">
-        <v>8579</v>
+        <v>8587</v>
       </c>
       <c r="F2386" t="s">
         <v>12</v>
@@ -83194,16 +83158,16 @@
         <v>7</v>
       </c>
       <c r="B2387" t="s">
-        <v>8581</v>
+        <v>8589</v>
       </c>
       <c r="C2387" t="s">
-        <v>8580</v>
+        <v>8588</v>
       </c>
       <c r="D2387" t="s">
-        <v>8582</v>
+        <v>8590</v>
       </c>
       <c r="E2387" t="s">
-        <v>8583</v>
+        <v>8591</v>
       </c>
       <c r="F2387" t="s">
         <v>12</v>
@@ -83217,16 +83181,16 @@
         <v>7</v>
       </c>
       <c r="B2388" t="s">
-        <v>8585</v>
+        <v>8593</v>
       </c>
       <c r="C2388" t="s">
-        <v>8584</v>
+        <v>8592</v>
       </c>
       <c r="D2388" t="s">
-        <v>8586</v>
+        <v>8594</v>
       </c>
       <c r="E2388" t="s">
-        <v>8587</v>
+        <v>8595</v>
       </c>
       <c r="F2388" t="s">
         <v>12</v>
@@ -83240,16 +83204,16 @@
         <v>7</v>
       </c>
       <c r="B2389" t="s">
-        <v>8589</v>
+        <v>8597</v>
       </c>
       <c r="C2389" t="s">
-        <v>8588</v>
+        <v>8596</v>
       </c>
       <c r="D2389" t="s">
-        <v>8590</v>
+        <v>8598</v>
       </c>
       <c r="E2389" t="s">
-        <v>8591</v>
+        <v>8599</v>
       </c>
       <c r="F2389" t="s">
         <v>12</v>
@@ -83263,16 +83227,16 @@
         <v>7</v>
       </c>
       <c r="B2390" t="s">
-        <v>8593</v>
+        <v>8601</v>
       </c>
       <c r="C2390" t="s">
-        <v>8592</v>
+        <v>8600</v>
       </c>
       <c r="D2390" t="s">
-        <v>8594</v>
+        <v>8602</v>
       </c>
       <c r="E2390" t="s">
-        <v>8595</v>
+        <v>8603</v>
       </c>
       <c r="F2390" t="s">
         <v>12</v>
@@ -83286,16 +83250,16 @@
         <v>7</v>
       </c>
       <c r="B2391" t="s">
-        <v>8597</v>
+        <v>8605</v>
       </c>
       <c r="C2391" t="s">
-        <v>8596</v>
+        <v>8604</v>
       </c>
       <c r="D2391" t="s">
-        <v>8598</v>
+        <v>8606</v>
       </c>
       <c r="E2391" t="s">
-        <v>8599</v>
+        <v>8607</v>
       </c>
       <c r="F2391" t="s">
         <v>12</v>
@@ -83309,16 +83273,16 @@
         <v>7</v>
       </c>
       <c r="B2392" t="s">
-        <v>8601</v>
+        <v>8609</v>
       </c>
       <c r="C2392" t="s">
-        <v>8600</v>
+        <v>8608</v>
       </c>
       <c r="D2392" t="s">
-        <v>8602</v>
+        <v>8610</v>
       </c>
       <c r="E2392" t="s">
-        <v>8603</v>
+        <v>8611</v>
       </c>
       <c r="F2392" t="s">
         <v>12</v>
@@ -83332,16 +83296,16 @@
         <v>7</v>
       </c>
       <c r="B2393" t="s">
-        <v>8605</v>
+        <v>8613</v>
       </c>
       <c r="C2393" t="s">
-        <v>8604</v>
+        <v>8612</v>
       </c>
       <c r="D2393" t="s">
-        <v>8606</v>
+        <v>8614</v>
       </c>
       <c r="E2393" t="s">
-        <v>8607</v>
+        <v>8615</v>
       </c>
       <c r="F2393" t="s">
         <v>12</v>
@@ -83355,16 +83319,16 @@
         <v>7</v>
       </c>
       <c r="B2394" t="s">
-        <v>8609</v>
+        <v>8617</v>
       </c>
       <c r="C2394" t="s">
-        <v>8608</v>
+        <v>8616</v>
       </c>
       <c r="D2394" t="s">
-        <v>8610</v>
+        <v>8618</v>
       </c>
       <c r="E2394" t="s">
-        <v>8611</v>
+        <v>8619</v>
       </c>
       <c r="F2394" t="s">
         <v>12</v>
@@ -83378,16 +83342,16 @@
         <v>7</v>
       </c>
       <c r="B2395" t="s">
-        <v>8613</v>
+        <v>8621</v>
       </c>
       <c r="C2395" t="s">
-        <v>8612</v>
+        <v>8620</v>
       </c>
       <c r="D2395" t="s">
-        <v>8614</v>
+        <v>8622</v>
       </c>
       <c r="E2395" t="s">
-        <v>8615</v>
+        <v>8623</v>
       </c>
       <c r="F2395" t="s">
         <v>12</v>
@@ -83401,16 +83365,16 @@
         <v>7</v>
       </c>
       <c r="B2396" t="s">
-        <v>8617</v>
+        <v>8625</v>
       </c>
       <c r="C2396" t="s">
-        <v>8616</v>
+        <v>8624</v>
       </c>
       <c r="D2396" t="s">
-        <v>8618</v>
+        <v>8626</v>
       </c>
       <c r="E2396" t="s">
-        <v>8619</v>
+        <v>8627</v>
       </c>
       <c r="F2396" t="s">
         <v>12</v>
@@ -83424,16 +83388,16 @@
         <v>7</v>
       </c>
       <c r="B2397" t="s">
-        <v>8621</v>
+        <v>8629</v>
       </c>
       <c r="C2397" t="s">
-        <v>8620</v>
+        <v>8628</v>
       </c>
       <c r="D2397" t="s">
-        <v>8622</v>
+        <v>8630</v>
       </c>
       <c r="E2397" t="s">
-        <v>8623</v>
+        <v>8631</v>
       </c>
       <c r="F2397" t="s">
         <v>12</v>
@@ -83447,16 +83411,16 @@
         <v>7</v>
       </c>
       <c r="B2398" t="s">
-        <v>8625</v>
+        <v>8633</v>
       </c>
       <c r="C2398" t="s">
-        <v>8624</v>
+        <v>8632</v>
       </c>
       <c r="D2398" t="s">
-        <v>8626</v>
+        <v>8634</v>
       </c>
       <c r="E2398" t="s">
-        <v>8627</v>
+        <v>8635</v>
       </c>
       <c r="F2398" t="s">
         <v>12</v>
@@ -83470,16 +83434,16 @@
         <v>7</v>
       </c>
       <c r="B2399" t="s">
-        <v>8629</v>
+        <v>8637</v>
       </c>
       <c r="C2399" t="s">
-        <v>8628</v>
+        <v>8636</v>
       </c>
       <c r="D2399" t="s">
-        <v>8630</v>
+        <v>8638</v>
       </c>
       <c r="E2399" t="s">
-        <v>8631</v>
+        <v>8639</v>
       </c>
       <c r="F2399" t="s">
         <v>12</v>
@@ -83493,16 +83457,16 @@
         <v>7</v>
       </c>
       <c r="B2400" t="s">
-        <v>8633</v>
+        <v>8641</v>
       </c>
       <c r="C2400" t="s">
-        <v>8632</v>
+        <v>8640</v>
       </c>
       <c r="D2400" t="s">
-        <v>8634</v>
+        <v>8642</v>
       </c>
       <c r="E2400" t="s">
-        <v>8635</v>
+        <v>8643</v>
       </c>
       <c r="F2400" t="s">
         <v>12</v>
@@ -83516,19 +83480,16 @@
         <v>7</v>
       </c>
       <c r="B2401" t="s">
-        <v>8637</v>
-      </c>
-      <c r="C2401" t="s">
-        <v>8636</v>
+        <v>9298</v>
       </c>
       <c r="D2401" t="s">
-        <v>8638</v>
+        <v>9079</v>
       </c>
       <c r="E2401" t="s">
-        <v>8639</v>
+        <v>9535</v>
       </c>
       <c r="F2401" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2401" t="s">
         <v>8826</v>
@@ -83539,16 +83500,16 @@
         <v>7</v>
       </c>
       <c r="B2402" t="s">
-        <v>8641</v>
+        <v>8701</v>
       </c>
       <c r="C2402" t="s">
-        <v>8640</v>
+        <v>8700</v>
       </c>
       <c r="D2402" t="s">
-        <v>8642</v>
+        <v>8702</v>
       </c>
       <c r="E2402" t="s">
-        <v>8643</v>
+        <v>8703</v>
       </c>
       <c r="F2402" t="s">
         <v>12</v>
@@ -83562,16 +83523,19 @@
         <v>7</v>
       </c>
       <c r="B2403" t="s">
-        <v>9302</v>
+        <v>8705</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>8704</v>
       </c>
       <c r="D2403" t="s">
-        <v>9081</v>
+        <v>8706</v>
       </c>
       <c r="E2403" t="s">
-        <v>9541</v>
+        <v>8707</v>
       </c>
       <c r="F2403" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2403" t="s">
         <v>8826</v>
@@ -83582,16 +83546,16 @@
         <v>7</v>
       </c>
       <c r="B2404" t="s">
-        <v>8701</v>
+        <v>8709</v>
       </c>
       <c r="C2404" t="s">
-        <v>8700</v>
+        <v>8708</v>
       </c>
       <c r="D2404" t="s">
-        <v>8702</v>
+        <v>8710</v>
       </c>
       <c r="E2404" t="s">
-        <v>8703</v>
+        <v>8711</v>
       </c>
       <c r="F2404" t="s">
         <v>12</v>
@@ -83605,19 +83569,16 @@
         <v>7</v>
       </c>
       <c r="B2405" t="s">
-        <v>8705</v>
-      </c>
-      <c r="C2405" t="s">
-        <v>8704</v>
+        <v>9299</v>
       </c>
       <c r="D2405" t="s">
-        <v>8706</v>
+        <v>9080</v>
       </c>
       <c r="E2405" t="s">
-        <v>8707</v>
+        <v>9536</v>
       </c>
       <c r="F2405" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2405" t="s">
         <v>8826</v>
@@ -83628,16 +83589,16 @@
         <v>7</v>
       </c>
       <c r="B2406" t="s">
-        <v>8709</v>
+        <v>8713</v>
       </c>
       <c r="C2406" t="s">
-        <v>8708</v>
+        <v>8712</v>
       </c>
       <c r="D2406" t="s">
-        <v>8710</v>
+        <v>8714</v>
       </c>
       <c r="E2406" t="s">
-        <v>8711</v>
+        <v>8715</v>
       </c>
       <c r="F2406" t="s">
         <v>12</v>
@@ -83651,16 +83612,19 @@
         <v>7</v>
       </c>
       <c r="B2407" t="s">
-        <v>9303</v>
+        <v>8717</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>8716</v>
       </c>
       <c r="D2407" t="s">
-        <v>9082</v>
+        <v>8718</v>
       </c>
       <c r="E2407" t="s">
-        <v>9542</v>
+        <v>8719</v>
       </c>
       <c r="F2407" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2407" t="s">
         <v>8826</v>
@@ -83671,16 +83635,16 @@
         <v>7</v>
       </c>
       <c r="B2408" t="s">
-        <v>8713</v>
+        <v>8645</v>
       </c>
       <c r="C2408" t="s">
-        <v>8712</v>
+        <v>8644</v>
       </c>
       <c r="D2408" t="s">
-        <v>8714</v>
+        <v>8646</v>
       </c>
       <c r="E2408" t="s">
-        <v>8715</v>
+        <v>8647</v>
       </c>
       <c r="F2408" t="s">
         <v>12</v>
@@ -83694,16 +83658,10 @@
         <v>7</v>
       </c>
       <c r="B2409" t="s">
-        <v>8717</v>
-      </c>
-      <c r="C2409" t="s">
-        <v>8716</v>
+        <v>9194</v>
       </c>
       <c r="D2409" t="s">
-        <v>8718</v>
-      </c>
-      <c r="E2409" t="s">
-        <v>8719</v>
+        <v>9081</v>
       </c>
       <c r="F2409" t="s">
         <v>12</v>
@@ -83717,16 +83675,16 @@
         <v>7</v>
       </c>
       <c r="B2410" t="s">
-        <v>8645</v>
+        <v>8649</v>
       </c>
       <c r="C2410" t="s">
-        <v>8644</v>
+        <v>8648</v>
       </c>
       <c r="D2410" t="s">
-        <v>8646</v>
+        <v>8650</v>
       </c>
       <c r="E2410" t="s">
-        <v>8647</v>
+        <v>8651</v>
       </c>
       <c r="F2410" t="s">
         <v>12</v>
@@ -83740,10 +83698,16 @@
         <v>7</v>
       </c>
       <c r="B2411" t="s">
-        <v>9196</v>
+        <v>8653</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>8652</v>
       </c>
       <c r="D2411" t="s">
-        <v>9083</v>
+        <v>8654</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>8655</v>
       </c>
       <c r="F2411" t="s">
         <v>12</v>
@@ -83757,16 +83721,16 @@
         <v>7</v>
       </c>
       <c r="B2412" t="s">
-        <v>8649</v>
+        <v>8721</v>
       </c>
       <c r="C2412" t="s">
-        <v>8648</v>
+        <v>8720</v>
       </c>
       <c r="D2412" t="s">
-        <v>8650</v>
+        <v>8722</v>
       </c>
       <c r="E2412" t="s">
-        <v>8651</v>
+        <v>8723</v>
       </c>
       <c r="F2412" t="s">
         <v>12</v>
@@ -83780,16 +83744,16 @@
         <v>7</v>
       </c>
       <c r="B2413" t="s">
-        <v>8653</v>
+        <v>8725</v>
       </c>
       <c r="C2413" t="s">
-        <v>8652</v>
+        <v>8724</v>
       </c>
       <c r="D2413" t="s">
-        <v>8654</v>
+        <v>8726</v>
       </c>
       <c r="E2413" t="s">
-        <v>8655</v>
+        <v>8727</v>
       </c>
       <c r="F2413" t="s">
         <v>12</v>
@@ -83803,16 +83767,16 @@
         <v>7</v>
       </c>
       <c r="B2414" t="s">
-        <v>8721</v>
+        <v>8657</v>
       </c>
       <c r="C2414" t="s">
-        <v>8720</v>
+        <v>8656</v>
       </c>
       <c r="D2414" t="s">
-        <v>8722</v>
+        <v>8658</v>
       </c>
       <c r="E2414" t="s">
-        <v>8723</v>
+        <v>8659</v>
       </c>
       <c r="F2414" t="s">
         <v>12</v>
@@ -83826,19 +83790,16 @@
         <v>7</v>
       </c>
       <c r="B2415" t="s">
-        <v>8725</v>
-      </c>
-      <c r="C2415" t="s">
-        <v>8724</v>
+        <v>9195</v>
       </c>
       <c r="D2415" t="s">
-        <v>8726</v>
+        <v>9082</v>
       </c>
       <c r="E2415" t="s">
-        <v>8727</v>
+        <v>9537</v>
       </c>
       <c r="F2415" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2415" t="s">
         <v>8826</v>
@@ -83849,16 +83810,16 @@
         <v>7</v>
       </c>
       <c r="B2416" t="s">
-        <v>8657</v>
+        <v>8729</v>
       </c>
       <c r="C2416" t="s">
-        <v>8656</v>
+        <v>8728</v>
       </c>
       <c r="D2416" t="s">
-        <v>8658</v>
+        <v>8730</v>
       </c>
       <c r="E2416" t="s">
-        <v>8659</v>
+        <v>8731</v>
       </c>
       <c r="F2416" t="s">
         <v>12</v>
@@ -83872,16 +83833,19 @@
         <v>7</v>
       </c>
       <c r="B2417" t="s">
-        <v>9197</v>
+        <v>8661</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>8660</v>
       </c>
       <c r="D2417" t="s">
-        <v>9084</v>
+        <v>8662</v>
       </c>
       <c r="E2417" t="s">
-        <v>9543</v>
+        <v>8663</v>
       </c>
       <c r="F2417" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2417" t="s">
         <v>8826</v>
@@ -83892,16 +83856,16 @@
         <v>7</v>
       </c>
       <c r="B2418" t="s">
-        <v>8729</v>
+        <v>8665</v>
       </c>
       <c r="C2418" t="s">
-        <v>8728</v>
+        <v>8664</v>
       </c>
       <c r="D2418" t="s">
-        <v>8730</v>
+        <v>8666</v>
       </c>
       <c r="E2418" t="s">
-        <v>8731</v>
+        <v>8667</v>
       </c>
       <c r="F2418" t="s">
         <v>12</v>
@@ -83915,19 +83879,16 @@
         <v>7</v>
       </c>
       <c r="B2419" t="s">
-        <v>8661</v>
-      </c>
-      <c r="C2419" t="s">
-        <v>8660</v>
+        <v>9196</v>
       </c>
       <c r="D2419" t="s">
-        <v>8662</v>
+        <v>9083</v>
       </c>
       <c r="E2419" t="s">
-        <v>8663</v>
+        <v>9538</v>
       </c>
       <c r="F2419" t="s">
-        <v>12</v>
+        <v>9084</v>
       </c>
       <c r="G2419" t="s">
         <v>8826</v>
@@ -83938,16 +83899,16 @@
         <v>7</v>
       </c>
       <c r="B2420" t="s">
-        <v>8665</v>
+        <v>8669</v>
       </c>
       <c r="C2420" t="s">
-        <v>8664</v>
+        <v>8668</v>
       </c>
       <c r="D2420" t="s">
-        <v>8666</v>
+        <v>8670</v>
       </c>
       <c r="E2420" t="s">
-        <v>8667</v>
+        <v>8671</v>
       </c>
       <c r="F2420" t="s">
         <v>12</v>
@@ -83961,16 +83922,19 @@
         <v>7</v>
       </c>
       <c r="B2421" t="s">
-        <v>9198</v>
+        <v>8673</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>8672</v>
       </c>
       <c r="D2421" t="s">
-        <v>9085</v>
+        <v>8674</v>
       </c>
       <c r="E2421" t="s">
-        <v>9544</v>
+        <v>8675</v>
       </c>
       <c r="F2421" t="s">
-        <v>9086</v>
+        <v>12</v>
       </c>
       <c r="G2421" t="s">
         <v>8826</v>
@@ -83981,16 +83945,16 @@
         <v>7</v>
       </c>
       <c r="B2422" t="s">
-        <v>8669</v>
+        <v>8677</v>
       </c>
       <c r="C2422" t="s">
-        <v>8668</v>
+        <v>8676</v>
       </c>
       <c r="D2422" t="s">
-        <v>8670</v>
+        <v>8678</v>
       </c>
       <c r="E2422" t="s">
-        <v>8671</v>
+        <v>8679</v>
       </c>
       <c r="F2422" t="s">
         <v>12</v>
@@ -84004,16 +83968,16 @@
         <v>7</v>
       </c>
       <c r="B2423" t="s">
-        <v>8673</v>
+        <v>8681</v>
       </c>
       <c r="C2423" t="s">
-        <v>8672</v>
+        <v>8680</v>
       </c>
       <c r="D2423" t="s">
-        <v>8674</v>
+        <v>8682</v>
       </c>
       <c r="E2423" t="s">
-        <v>8675</v>
+        <v>8683</v>
       </c>
       <c r="F2423" t="s">
         <v>12</v>
@@ -84027,16 +83991,16 @@
         <v>7</v>
       </c>
       <c r="B2424" t="s">
-        <v>8677</v>
+        <v>8685</v>
       </c>
       <c r="C2424" t="s">
-        <v>8676</v>
+        <v>8684</v>
       </c>
       <c r="D2424" t="s">
-        <v>8678</v>
+        <v>8686</v>
       </c>
       <c r="E2424" t="s">
-        <v>8679</v>
+        <v>8687</v>
       </c>
       <c r="F2424" t="s">
         <v>12</v>
@@ -84050,16 +84014,16 @@
         <v>7</v>
       </c>
       <c r="B2425" t="s">
-        <v>8681</v>
+        <v>8689</v>
       </c>
       <c r="C2425" t="s">
-        <v>8680</v>
+        <v>8688</v>
       </c>
       <c r="D2425" t="s">
-        <v>8682</v>
+        <v>8690</v>
       </c>
       <c r="E2425" t="s">
-        <v>8683</v>
+        <v>8691</v>
       </c>
       <c r="F2425" t="s">
         <v>12</v>
@@ -84073,16 +84037,16 @@
         <v>7</v>
       </c>
       <c r="B2426" t="s">
-        <v>8685</v>
+        <v>8693</v>
       </c>
       <c r="C2426" t="s">
-        <v>8684</v>
+        <v>8692</v>
       </c>
       <c r="D2426" t="s">
-        <v>8686</v>
+        <v>8694</v>
       </c>
       <c r="E2426" t="s">
-        <v>8687</v>
+        <v>8695</v>
       </c>
       <c r="F2426" t="s">
         <v>12</v>
@@ -84096,16 +84060,16 @@
         <v>7</v>
       </c>
       <c r="B2427" t="s">
-        <v>8689</v>
+        <v>8733</v>
       </c>
       <c r="C2427" t="s">
-        <v>8688</v>
+        <v>8732</v>
       </c>
       <c r="D2427" t="s">
-        <v>8690</v>
+        <v>8734</v>
       </c>
       <c r="E2427" t="s">
-        <v>8691</v>
+        <v>8735</v>
       </c>
       <c r="F2427" t="s">
         <v>12</v>
@@ -84119,16 +84083,16 @@
         <v>7</v>
       </c>
       <c r="B2428" t="s">
-        <v>8693</v>
+        <v>8737</v>
       </c>
       <c r="C2428" t="s">
-        <v>8692</v>
+        <v>8736</v>
       </c>
       <c r="D2428" t="s">
-        <v>8694</v>
+        <v>8738</v>
       </c>
       <c r="E2428" t="s">
-        <v>8695</v>
+        <v>8739</v>
       </c>
       <c r="F2428" t="s">
         <v>12</v>
@@ -84142,16 +84106,16 @@
         <v>7</v>
       </c>
       <c r="B2429" t="s">
-        <v>8733</v>
+        <v>8741</v>
       </c>
       <c r="C2429" t="s">
-        <v>8732</v>
+        <v>8740</v>
       </c>
       <c r="D2429" t="s">
-        <v>8734</v>
+        <v>8742</v>
       </c>
       <c r="E2429" t="s">
-        <v>8735</v>
+        <v>8743</v>
       </c>
       <c r="F2429" t="s">
         <v>12</v>
@@ -84165,16 +84129,16 @@
         <v>7</v>
       </c>
       <c r="B2430" t="s">
-        <v>8737</v>
+        <v>8745</v>
       </c>
       <c r="C2430" t="s">
-        <v>8736</v>
+        <v>8744</v>
       </c>
       <c r="D2430" t="s">
-        <v>8738</v>
+        <v>8746</v>
       </c>
       <c r="E2430" t="s">
-        <v>8739</v>
+        <v>8747</v>
       </c>
       <c r="F2430" t="s">
         <v>12</v>
@@ -84188,16 +84152,16 @@
         <v>7</v>
       </c>
       <c r="B2431" t="s">
-        <v>8741</v>
+        <v>8749</v>
       </c>
       <c r="C2431" t="s">
-        <v>8740</v>
+        <v>8748</v>
       </c>
       <c r="D2431" t="s">
-        <v>8742</v>
+        <v>8750</v>
       </c>
       <c r="E2431" t="s">
-        <v>8743</v>
+        <v>8751</v>
       </c>
       <c r="F2431" t="s">
         <v>12</v>
@@ -84211,16 +84175,16 @@
         <v>7</v>
       </c>
       <c r="B2432" t="s">
-        <v>8745</v>
+        <v>8753</v>
       </c>
       <c r="C2432" t="s">
-        <v>8744</v>
+        <v>8752</v>
       </c>
       <c r="D2432" t="s">
-        <v>8746</v>
+        <v>8754</v>
       </c>
       <c r="E2432" t="s">
-        <v>8747</v>
+        <v>8755</v>
       </c>
       <c r="F2432" t="s">
         <v>12</v>
@@ -84234,16 +84198,16 @@
         <v>7</v>
       </c>
       <c r="B2433" t="s">
-        <v>8749</v>
+        <v>8757</v>
       </c>
       <c r="C2433" t="s">
-        <v>8748</v>
+        <v>8756</v>
       </c>
       <c r="D2433" t="s">
-        <v>8750</v>
+        <v>8758</v>
       </c>
       <c r="E2433" t="s">
-        <v>8751</v>
+        <v>8759</v>
       </c>
       <c r="F2433" t="s">
         <v>12</v>
@@ -84257,16 +84221,16 @@
         <v>7</v>
       </c>
       <c r="B2434" t="s">
-        <v>8753</v>
+        <v>8761</v>
       </c>
       <c r="C2434" t="s">
-        <v>8752</v>
+        <v>8760</v>
       </c>
       <c r="D2434" t="s">
-        <v>8754</v>
+        <v>8762</v>
       </c>
       <c r="E2434" t="s">
-        <v>8755</v>
+        <v>8763</v>
       </c>
       <c r="F2434" t="s">
         <v>12</v>
@@ -84280,16 +84244,16 @@
         <v>7</v>
       </c>
       <c r="B2435" t="s">
-        <v>8757</v>
+        <v>8765</v>
       </c>
       <c r="C2435" t="s">
-        <v>8756</v>
+        <v>8764</v>
       </c>
       <c r="D2435" t="s">
-        <v>8758</v>
+        <v>8766</v>
       </c>
       <c r="E2435" t="s">
-        <v>8759</v>
+        <v>8767</v>
       </c>
       <c r="F2435" t="s">
         <v>12</v>
@@ -84303,16 +84267,16 @@
         <v>7</v>
       </c>
       <c r="B2436" t="s">
-        <v>8761</v>
+        <v>8769</v>
       </c>
       <c r="C2436" t="s">
-        <v>8760</v>
+        <v>8768</v>
       </c>
       <c r="D2436" t="s">
-        <v>8762</v>
+        <v>8770</v>
       </c>
       <c r="E2436" t="s">
-        <v>8763</v>
+        <v>8771</v>
       </c>
       <c r="F2436" t="s">
         <v>12</v>
@@ -84326,16 +84290,16 @@
         <v>7</v>
       </c>
       <c r="B2437" t="s">
-        <v>8765</v>
+        <v>8773</v>
       </c>
       <c r="C2437" t="s">
-        <v>8764</v>
+        <v>8772</v>
       </c>
       <c r="D2437" t="s">
-        <v>8766</v>
+        <v>8774</v>
       </c>
       <c r="E2437" t="s">
-        <v>8767</v>
+        <v>8775</v>
       </c>
       <c r="F2437" t="s">
         <v>12</v>
@@ -84349,16 +84313,16 @@
         <v>7</v>
       </c>
       <c r="B2438" t="s">
-        <v>8769</v>
+        <v>8777</v>
       </c>
       <c r="C2438" t="s">
-        <v>8768</v>
+        <v>8776</v>
       </c>
       <c r="D2438" t="s">
-        <v>8770</v>
+        <v>8778</v>
       </c>
       <c r="E2438" t="s">
-        <v>8771</v>
+        <v>8779</v>
       </c>
       <c r="F2438" t="s">
         <v>12</v>
@@ -84372,16 +84336,16 @@
         <v>7</v>
       </c>
       <c r="B2439" t="s">
-        <v>8773</v>
+        <v>8781</v>
       </c>
       <c r="C2439" t="s">
-        <v>8772</v>
+        <v>8780</v>
       </c>
       <c r="D2439" t="s">
-        <v>8774</v>
+        <v>8782</v>
       </c>
       <c r="E2439" t="s">
-        <v>8775</v>
+        <v>8783</v>
       </c>
       <c r="F2439" t="s">
         <v>12</v>
@@ -84395,16 +84359,16 @@
         <v>7</v>
       </c>
       <c r="B2440" t="s">
-        <v>8777</v>
+        <v>8785</v>
       </c>
       <c r="C2440" t="s">
-        <v>8776</v>
+        <v>8784</v>
       </c>
       <c r="D2440" t="s">
-        <v>8778</v>
+        <v>8786</v>
       </c>
       <c r="E2440" t="s">
-        <v>8779</v>
+        <v>8787</v>
       </c>
       <c r="F2440" t="s">
         <v>12</v>
@@ -84418,16 +84382,16 @@
         <v>7</v>
       </c>
       <c r="B2441" t="s">
-        <v>8781</v>
+        <v>8789</v>
       </c>
       <c r="C2441" t="s">
-        <v>8780</v>
+        <v>8788</v>
       </c>
       <c r="D2441" t="s">
-        <v>8782</v>
+        <v>8790</v>
       </c>
       <c r="E2441" t="s">
-        <v>8783</v>
+        <v>8791</v>
       </c>
       <c r="F2441" t="s">
         <v>12</v>
@@ -84441,16 +84405,16 @@
         <v>7</v>
       </c>
       <c r="B2442" t="s">
-        <v>8785</v>
+        <v>8793</v>
       </c>
       <c r="C2442" t="s">
-        <v>8784</v>
+        <v>8792</v>
       </c>
       <c r="D2442" t="s">
-        <v>8786</v>
+        <v>8794</v>
       </c>
       <c r="E2442" t="s">
-        <v>8787</v>
+        <v>8795</v>
       </c>
       <c r="F2442" t="s">
         <v>12</v>
@@ -84464,16 +84428,16 @@
         <v>7</v>
       </c>
       <c r="B2443" t="s">
-        <v>8789</v>
+        <v>8797</v>
       </c>
       <c r="C2443" t="s">
-        <v>8788</v>
+        <v>8796</v>
       </c>
       <c r="D2443" t="s">
-        <v>8790</v>
+        <v>8798</v>
       </c>
       <c r="E2443" t="s">
-        <v>8791</v>
+        <v>8799</v>
       </c>
       <c r="F2443" t="s">
         <v>12</v>
@@ -84487,16 +84451,16 @@
         <v>7</v>
       </c>
       <c r="B2444" t="s">
-        <v>8793</v>
+        <v>8801</v>
       </c>
       <c r="C2444" t="s">
-        <v>8792</v>
+        <v>8800</v>
       </c>
       <c r="D2444" t="s">
-        <v>8794</v>
+        <v>8802</v>
       </c>
       <c r="E2444" t="s">
-        <v>8795</v>
+        <v>8803</v>
       </c>
       <c r="F2444" t="s">
         <v>12</v>
@@ -84510,16 +84474,16 @@
         <v>7</v>
       </c>
       <c r="B2445" t="s">
-        <v>8797</v>
+        <v>8805</v>
       </c>
       <c r="C2445" t="s">
-        <v>8796</v>
+        <v>8804</v>
       </c>
       <c r="D2445" t="s">
-        <v>8798</v>
+        <v>8806</v>
       </c>
       <c r="E2445" t="s">
-        <v>8799</v>
+        <v>8807</v>
       </c>
       <c r="F2445" t="s">
         <v>12</v>
@@ -84533,16 +84497,16 @@
         <v>7</v>
       </c>
       <c r="B2446" t="s">
-        <v>8801</v>
+        <v>8697</v>
       </c>
       <c r="C2446" t="s">
-        <v>8800</v>
+        <v>8696</v>
       </c>
       <c r="D2446" t="s">
-        <v>8802</v>
+        <v>8698</v>
       </c>
       <c r="E2446" t="s">
-        <v>8803</v>
+        <v>8699</v>
       </c>
       <c r="F2446" t="s">
         <v>12</v>
@@ -84556,16 +84520,16 @@
         <v>7</v>
       </c>
       <c r="B2447" t="s">
-        <v>8805</v>
+        <v>8809</v>
       </c>
       <c r="C2447" t="s">
-        <v>8804</v>
+        <v>8808</v>
       </c>
       <c r="D2447" t="s">
-        <v>8806</v>
+        <v>8810</v>
       </c>
       <c r="E2447" t="s">
-        <v>8807</v>
+        <v>8811</v>
       </c>
       <c r="F2447" t="s">
         <v>12</v>
@@ -84579,16 +84543,16 @@
         <v>7</v>
       </c>
       <c r="B2448" t="s">
-        <v>8697</v>
+        <v>8813</v>
       </c>
       <c r="C2448" t="s">
-        <v>8696</v>
+        <v>8812</v>
       </c>
       <c r="D2448" t="s">
-        <v>8698</v>
+        <v>8814</v>
       </c>
       <c r="E2448" t="s">
-        <v>8699</v>
+        <v>8815</v>
       </c>
       <c r="F2448" t="s">
         <v>12</v>
@@ -84602,16 +84566,16 @@
         <v>7</v>
       </c>
       <c r="B2449" t="s">
-        <v>8809</v>
+        <v>8817</v>
       </c>
       <c r="C2449" t="s">
-        <v>8808</v>
+        <v>8816</v>
       </c>
       <c r="D2449" t="s">
-        <v>8810</v>
+        <v>8818</v>
       </c>
       <c r="E2449" t="s">
-        <v>8811</v>
+        <v>8819</v>
       </c>
       <c r="F2449" t="s">
         <v>12</v>
@@ -84625,16 +84589,16 @@
         <v>7</v>
       </c>
       <c r="B2450" t="s">
-        <v>8813</v>
+        <v>8821</v>
       </c>
       <c r="C2450" t="s">
-        <v>8812</v>
+        <v>8820</v>
       </c>
       <c r="D2450" t="s">
-        <v>8814</v>
+        <v>8822</v>
       </c>
       <c r="E2450" t="s">
-        <v>8815</v>
+        <v>8823</v>
       </c>
       <c r="F2450" t="s">
         <v>12</v>
@@ -84643,64 +84607,18 @@
         <v>8826</v>
       </c>
     </row>
-    <row r="2451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2451" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2451" t="s">
-        <v>8817</v>
-      </c>
-      <c r="C2451" t="s">
-        <v>8816</v>
-      </c>
-      <c r="D2451" t="s">
-        <v>8818</v>
-      </c>
-      <c r="E2451" t="s">
-        <v>8819</v>
-      </c>
-      <c r="F2451" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2451" t="s">
-        <v>8826</v>
-      </c>
-    </row>
-    <row r="2452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2452" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2452" t="s">
-        <v>8821</v>
-      </c>
-      <c r="C2452" t="s">
-        <v>8820</v>
-      </c>
-      <c r="D2452" t="s">
-        <v>8822</v>
-      </c>
-      <c r="E2452" t="s">
-        <v>8823</v>
-      </c>
-      <c r="F2452" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2452" t="s">
-        <v>8826</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2367:D1048576 D1:D2057">
+  <conditionalFormatting sqref="D2365:D1048576 D1:D2057">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2367:B1048576 B1:B2057">
+  <conditionalFormatting sqref="B2365:B1048576 B1:B2057">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B2452">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  <conditionalFormatting sqref="B2:B2450">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_taylorfrancis.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_taylorfrancis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_B7DB1C9D06B7DF0F73FE9DACEA0AE4516A86A22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B460FA81-CD21-4DD7-A0E6-51EA0AA1BB7A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_B7DB1C9D06B7DF0F73FE9DACEA0AE4516A86A22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13C5656E-4A44-4A03-B194-27F88A2307A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29054,7 +29054,7 @@
   <dimension ref="A1:G2423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P2077" sqref="P2077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31140,7 +31140,7 @@
         <v>321</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G91" t="s">
         <v>8655</v>
@@ -33931,7 +33931,7 @@
         <v>767</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G213" t="s">
         <v>8655</v>
@@ -35532,7 +35532,7 @@
         <v>990</v>
       </c>
       <c r="F283" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G283" t="s">
         <v>8655</v>
@@ -36742,7 +36742,7 @@
         <v>1169</v>
       </c>
       <c r="F336" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G336" t="s">
         <v>8655</v>
@@ -43279,7 +43279,7 @@
         <v>2162</v>
       </c>
       <c r="F624" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G624" t="s">
         <v>8654</v>
@@ -44664,7 +44664,7 @@
         <v>2374</v>
       </c>
       <c r="F685" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G685" t="s">
         <v>8655</v>
@@ -44868,7 +44868,7 @@
         <v>2409</v>
       </c>
       <c r="F694" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G694" t="s">
         <v>8653</v>
@@ -45256,7 +45256,7 @@
         <v>2476</v>
       </c>
       <c r="F711" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G711" t="s">
         <v>8653</v>
@@ -45325,7 +45325,7 @@
         <v>2488</v>
       </c>
       <c r="F714" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G714" t="s">
         <v>8653</v>
@@ -46265,7 +46265,7 @@
         <v>2632</v>
       </c>
       <c r="F755" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G755" t="s">
         <v>8655</v>
@@ -46883,7 +46883,7 @@
         <v>2719</v>
       </c>
       <c r="F782" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G782" t="s">
         <v>8655</v>
@@ -47156,7 +47156,7 @@
         <v>2751</v>
       </c>
       <c r="F794" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G794" t="s">
         <v>8655</v>
@@ -48446,7 +48446,7 @@
         <v>2945</v>
       </c>
       <c r="F851" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G851" t="s">
         <v>8655</v>
@@ -50044,7 +50044,7 @@
         <v>3204</v>
       </c>
       <c r="F921" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G921" t="s">
         <v>8655</v>
@@ -52476,7 +52476,7 @@
         <v>3595</v>
       </c>
       <c r="F1027" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1027" t="s">
         <v>8655</v>
@@ -56779,7 +56779,7 @@
         <v>4274</v>
       </c>
       <c r="F1215" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1215" t="s">
         <v>8655</v>
@@ -59717,7 +59717,7 @@
         <v>4716</v>
       </c>
       <c r="F1343" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1343" t="s">
         <v>8655</v>
@@ -61177,7 +61177,7 @@
         <v>4947</v>
       </c>
       <c r="F1407" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1407" t="s">
         <v>8655</v>
@@ -61361,7 +61361,7 @@
         <v>4979</v>
       </c>
       <c r="F1415" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1415" t="s">
         <v>8655</v>
@@ -62278,7 +62278,7 @@
         <v>5123</v>
       </c>
       <c r="F1455" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1455" t="s">
         <v>8655</v>
@@ -67035,7 +67035,7 @@
         <v>5870</v>
       </c>
       <c r="F1663" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1663" t="s">
         <v>8655</v>
@@ -71145,7 +71145,7 @@
         <v>6527</v>
       </c>
       <c r="F1843" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1843" t="s">
         <v>8655</v>
@@ -71671,7 +71671,7 @@
         <v>6613</v>
       </c>
       <c r="F1866" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G1866" t="s">
         <v>8655</v>
@@ -76220,7 +76220,7 @@
         <v>7315</v>
       </c>
       <c r="F2066" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G2066" t="s">
         <v>8654</v>
@@ -81158,7 +81158,7 @@
         <v>8116</v>
       </c>
       <c r="F2282" t="s">
-        <v>12</v>
+        <v>8887</v>
       </c>
       <c r="G2282" t="s">
         <v>8655</v>
